--- a/Market Fundamentals/Transelectrica_data/Weekly_Production_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Weekly_Production_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2305"/>
+  <dimension ref="A1:C2497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="C1634">
-        <v>6012.8</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
@@ -18372,7 +18372,7 @@
         <v>2</v>
       </c>
       <c r="C1635">
-        <v>5972.8</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
@@ -18383,7 +18383,7 @@
         <v>3</v>
       </c>
       <c r="C1636">
-        <v>5942.8</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
@@ -18394,7 +18394,7 @@
         <v>4</v>
       </c>
       <c r="C1637">
-        <v>5892.8</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
@@ -18405,7 +18405,7 @@
         <v>5</v>
       </c>
       <c r="C1638">
-        <v>4698</v>
+        <v>5665.8</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
@@ -18416,7 +18416,7 @@
         <v>6</v>
       </c>
       <c r="C1639">
-        <v>4648</v>
+        <v>5635.8</v>
       </c>
     </row>
     <row r="1640" spans="1:3">
@@ -18427,7 +18427,7 @@
         <v>7</v>
       </c>
       <c r="C1640">
-        <v>4608</v>
+        <v>5605.8</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
@@ -18438,7 +18438,7 @@
         <v>8</v>
       </c>
       <c r="C1641">
-        <v>4548</v>
+        <v>5575.8</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
@@ -18449,7 +18449,7 @@
         <v>9</v>
       </c>
       <c r="C1642">
-        <v>4518</v>
+        <v>5568.9</v>
       </c>
     </row>
     <row r="1643" spans="1:3">
@@ -18460,7 +18460,7 @@
         <v>10</v>
       </c>
       <c r="C1643">
-        <v>4468</v>
+        <v>5558.9</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
@@ -18471,7 +18471,7 @@
         <v>11</v>
       </c>
       <c r="C1644">
-        <v>4448</v>
+        <v>5548.9</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
@@ -18482,7 +18482,7 @@
         <v>12</v>
       </c>
       <c r="C1645">
-        <v>4428</v>
+        <v>5528.9</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
@@ -18493,7 +18493,7 @@
         <v>13</v>
       </c>
       <c r="C1646">
-        <v>4430</v>
+        <v>5553.9</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
@@ -18504,7 +18504,7 @@
         <v>14</v>
       </c>
       <c r="C1647">
-        <v>4420</v>
+        <v>5563.9</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
@@ -18515,7 +18515,7 @@
         <v>15</v>
       </c>
       <c r="C1648">
-        <v>4410</v>
+        <v>5573.9</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
@@ -18526,7 +18526,7 @@
         <v>16</v>
       </c>
       <c r="C1649">
-        <v>4410</v>
+        <v>5583.9</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
@@ -18537,7 +18537,7 @@
         <v>17</v>
       </c>
       <c r="C1650">
-        <v>4421</v>
+        <v>5288.8</v>
       </c>
     </row>
     <row r="1651" spans="1:3">
@@ -18548,7 +18548,7 @@
         <v>18</v>
       </c>
       <c r="C1651">
-        <v>4431</v>
+        <v>5298.8</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
@@ -18559,7 +18559,7 @@
         <v>19</v>
       </c>
       <c r="C1652">
-        <v>4461</v>
+        <v>5318.8</v>
       </c>
     </row>
     <row r="1653" spans="1:3">
@@ -18570,7 +18570,7 @@
         <v>20</v>
       </c>
       <c r="C1653">
-        <v>4491</v>
+        <v>5338.8</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
@@ -18581,7 +18581,7 @@
         <v>21</v>
       </c>
       <c r="C1654">
-        <v>4561</v>
+        <v>5105.5</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
@@ -18592,7 +18592,7 @@
         <v>22</v>
       </c>
       <c r="C1655">
-        <v>4641</v>
+        <v>5155.5</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
@@ -18603,7 +18603,7 @@
         <v>23</v>
       </c>
       <c r="C1656">
-        <v>4741</v>
+        <v>5215.5</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
@@ -18614,7 +18614,7 @@
         <v>24</v>
       </c>
       <c r="C1657">
-        <v>4871</v>
+        <v>5295.5</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
@@ -18625,7 +18625,7 @@
         <v>25</v>
       </c>
       <c r="C1658">
-        <v>5021</v>
+        <v>5110.3</v>
       </c>
     </row>
     <row r="1659" spans="1:3">
@@ -18636,7 +18636,7 @@
         <v>26</v>
       </c>
       <c r="C1659">
-        <v>5191</v>
+        <v>5230.3</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
@@ -18647,7 +18647,7 @@
         <v>27</v>
       </c>
       <c r="C1660">
-        <v>5371</v>
+        <v>5360.3</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
@@ -18658,7 +18658,7 @@
         <v>28</v>
       </c>
       <c r="C1661">
-        <v>5541</v>
+        <v>5500.3</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
@@ -18669,7 +18669,7 @@
         <v>29</v>
       </c>
       <c r="C1662">
-        <v>5590</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
@@ -18680,7 +18680,7 @@
         <v>30</v>
       </c>
       <c r="C1663">
-        <v>5750</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
@@ -18691,7 +18691,7 @@
         <v>31</v>
       </c>
       <c r="C1664">
-        <v>5890</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="1665" spans="1:3">
@@ -18702,7 +18702,7 @@
         <v>32</v>
       </c>
       <c r="C1665">
-        <v>6000</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="1666" spans="1:3">
@@ -18713,7 +18713,7 @@
         <v>33</v>
       </c>
       <c r="C1666">
-        <v>6199</v>
+        <v>5878.6</v>
       </c>
     </row>
     <row r="1667" spans="1:3">
@@ -18724,7 +18724,7 @@
         <v>34</v>
       </c>
       <c r="C1667">
-        <v>6259</v>
+        <v>5978.6</v>
       </c>
     </row>
     <row r="1668" spans="1:3">
@@ -18735,7 +18735,7 @@
         <v>35</v>
       </c>
       <c r="C1668">
-        <v>6289</v>
+        <v>6048.6</v>
       </c>
     </row>
     <row r="1669" spans="1:3">
@@ -18746,7 +18746,7 @@
         <v>36</v>
       </c>
       <c r="C1669">
-        <v>6289</v>
+        <v>6108.6</v>
       </c>
     </row>
     <row r="1670" spans="1:3">
@@ -18757,7 +18757,7 @@
         <v>37</v>
       </c>
       <c r="C1670">
-        <v>6298</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1671" spans="1:3">
@@ -18768,7 +18768,7 @@
         <v>38</v>
       </c>
       <c r="C1671">
-        <v>6248</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="1672" spans="1:3">
@@ -18779,7 +18779,7 @@
         <v>39</v>
       </c>
       <c r="C1672">
-        <v>6178</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1673" spans="1:3">
@@ -18790,7 +18790,7 @@
         <v>40</v>
       </c>
       <c r="C1673">
-        <v>6108</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="1674" spans="1:3">
@@ -18801,7 +18801,7 @@
         <v>41</v>
       </c>
       <c r="C1674">
-        <v>5975</v>
+        <v>6184.3</v>
       </c>
     </row>
     <row r="1675" spans="1:3">
@@ -18812,7 +18812,7 @@
         <v>42</v>
       </c>
       <c r="C1675">
-        <v>5895</v>
+        <v>6154.3</v>
       </c>
     </row>
     <row r="1676" spans="1:3">
@@ -18823,7 +18823,7 @@
         <v>43</v>
       </c>
       <c r="C1676">
-        <v>5815</v>
+        <v>6124.3</v>
       </c>
     </row>
     <row r="1677" spans="1:3">
@@ -18834,7 +18834,7 @@
         <v>44</v>
       </c>
       <c r="C1677">
-        <v>5755</v>
+        <v>6094.3</v>
       </c>
     </row>
     <row r="1678" spans="1:3">
@@ -18845,7 +18845,7 @@
         <v>45</v>
       </c>
       <c r="C1678">
-        <v>5699</v>
+        <v>6155.4</v>
       </c>
     </row>
     <row r="1679" spans="1:3">
@@ -18856,7 +18856,7 @@
         <v>46</v>
       </c>
       <c r="C1679">
-        <v>5659</v>
+        <v>6125.4</v>
       </c>
     </row>
     <row r="1680" spans="1:3">
@@ -18867,7 +18867,7 @@
         <v>47</v>
       </c>
       <c r="C1680">
-        <v>5629</v>
+        <v>6095.4</v>
       </c>
     </row>
     <row r="1681" spans="1:3">
@@ -18878,7 +18878,7 @@
         <v>48</v>
       </c>
       <c r="C1681">
-        <v>5599</v>
+        <v>6065.4</v>
       </c>
     </row>
     <row r="1682" spans="1:3">
@@ -18889,7 +18889,7 @@
         <v>49</v>
       </c>
       <c r="C1682">
-        <v>5743</v>
+        <v>6114.8</v>
       </c>
     </row>
     <row r="1683" spans="1:3">
@@ -18900,7 +18900,7 @@
         <v>50</v>
       </c>
       <c r="C1683">
-        <v>5723</v>
+        <v>6074.8</v>
       </c>
     </row>
     <row r="1684" spans="1:3">
@@ -18911,7 +18911,7 @@
         <v>51</v>
       </c>
       <c r="C1684">
-        <v>5703</v>
+        <v>6044.8</v>
       </c>
     </row>
     <row r="1685" spans="1:3">
@@ -18922,7 +18922,7 @@
         <v>52</v>
       </c>
       <c r="C1685">
-        <v>5683</v>
+        <v>6014.8</v>
       </c>
     </row>
     <row r="1686" spans="1:3">
@@ -18933,7 +18933,7 @@
         <v>53</v>
       </c>
       <c r="C1686">
-        <v>5689</v>
+        <v>5941.8</v>
       </c>
     </row>
     <row r="1687" spans="1:3">
@@ -18944,7 +18944,7 @@
         <v>54</v>
       </c>
       <c r="C1687">
-        <v>5679</v>
+        <v>5931.8</v>
       </c>
     </row>
     <row r="1688" spans="1:3">
@@ -18955,7 +18955,7 @@
         <v>55</v>
       </c>
       <c r="C1688">
-        <v>5669</v>
+        <v>5921.8</v>
       </c>
     </row>
     <row r="1689" spans="1:3">
@@ -18966,7 +18966,7 @@
         <v>56</v>
       </c>
       <c r="C1689">
-        <v>5659</v>
+        <v>5921.8</v>
       </c>
     </row>
     <row r="1690" spans="1:3">
@@ -18977,7 +18977,7 @@
         <v>57</v>
       </c>
       <c r="C1690">
-        <v>5711</v>
+        <v>6249.8</v>
       </c>
     </row>
     <row r="1691" spans="1:3">
@@ -18988,7 +18988,7 @@
         <v>58</v>
       </c>
       <c r="C1691">
-        <v>5721</v>
+        <v>6249.8</v>
       </c>
     </row>
     <row r="1692" spans="1:3">
@@ -18999,7 +18999,7 @@
         <v>59</v>
       </c>
       <c r="C1692">
-        <v>5731</v>
+        <v>6259.8</v>
       </c>
     </row>
     <row r="1693" spans="1:3">
@@ -19010,7 +19010,7 @@
         <v>60</v>
       </c>
       <c r="C1693">
-        <v>5741</v>
+        <v>6259.8</v>
       </c>
     </row>
     <row r="1694" spans="1:3">
@@ -19021,7 +19021,7 @@
         <v>61</v>
       </c>
       <c r="C1694">
-        <v>5744</v>
+        <v>6382.9</v>
       </c>
     </row>
     <row r="1695" spans="1:3">
@@ -19032,7 +19032,7 @@
         <v>62</v>
       </c>
       <c r="C1695">
-        <v>5754</v>
+        <v>6372.9</v>
       </c>
     </row>
     <row r="1696" spans="1:3">
@@ -19043,7 +19043,7 @@
         <v>63</v>
       </c>
       <c r="C1696">
-        <v>5764</v>
+        <v>6362.9</v>
       </c>
     </row>
     <row r="1697" spans="1:3">
@@ -19054,7 +19054,7 @@
         <v>64</v>
       </c>
       <c r="C1697">
-        <v>5774</v>
+        <v>6352.9</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
@@ -19065,7 +19065,7 @@
         <v>65</v>
       </c>
       <c r="C1698">
-        <v>5608</v>
+        <v>6462.6</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
@@ -19076,7 +19076,7 @@
         <v>66</v>
       </c>
       <c r="C1699">
-        <v>5638</v>
+        <v>6482.6</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
@@ -19087,7 +19087,7 @@
         <v>67</v>
       </c>
       <c r="C1700">
-        <v>5668</v>
+        <v>6512.6</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
@@ -19098,7 +19098,7 @@
         <v>68</v>
       </c>
       <c r="C1701">
-        <v>5718</v>
+        <v>6552.6</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
@@ -19109,7 +19109,7 @@
         <v>69</v>
       </c>
       <c r="C1702">
-        <v>5843</v>
+        <v>6429.7</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
@@ -19120,7 +19120,7 @@
         <v>70</v>
       </c>
       <c r="C1703">
-        <v>5903</v>
+        <v>6459.7</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
@@ -19131,7 +19131,7 @@
         <v>71</v>
       </c>
       <c r="C1704">
-        <v>5963</v>
+        <v>6499.7</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
@@ -19142,7 +19142,7 @@
         <v>72</v>
       </c>
       <c r="C1705">
-        <v>6013</v>
+        <v>6539.7</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
@@ -19153,7 +19153,7 @@
         <v>73</v>
       </c>
       <c r="C1706">
-        <v>6063</v>
+        <v>6429.8</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
@@ -19164,7 +19164,7 @@
         <v>74</v>
       </c>
       <c r="C1707">
-        <v>6123</v>
+        <v>6469.8</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
@@ -19175,7 +19175,7 @@
         <v>75</v>
       </c>
       <c r="C1708">
-        <v>6193</v>
+        <v>6509.8</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
@@ -19186,7 +19186,7 @@
         <v>76</v>
       </c>
       <c r="C1709">
-        <v>6273</v>
+        <v>6539.8</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
@@ -19197,7 +19197,7 @@
         <v>77</v>
       </c>
       <c r="C1710">
-        <v>6411</v>
+        <v>6271.7</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
@@ -19208,7 +19208,7 @@
         <v>78</v>
       </c>
       <c r="C1711">
-        <v>6511</v>
+        <v>6331.7</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
@@ -19219,7 +19219,7 @@
         <v>79</v>
       </c>
       <c r="C1712">
-        <v>6591</v>
+        <v>6401.7</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
@@ -19230,7 +19230,7 @@
         <v>80</v>
       </c>
       <c r="C1713">
-        <v>6691</v>
+        <v>6471.7</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
@@ -19241,7 +19241,7 @@
         <v>81</v>
       </c>
       <c r="C1714">
-        <v>6850</v>
+        <v>6221.2</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
@@ -19252,7 +19252,7 @@
         <v>82</v>
       </c>
       <c r="C1715">
-        <v>6900</v>
+        <v>6291.2</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
@@ -19263,7 +19263,7 @@
         <v>83</v>
       </c>
       <c r="C1716">
-        <v>6910</v>
+        <v>6321.2</v>
       </c>
     </row>
     <row r="1717" spans="1:3">
@@ -19274,7 +19274,7 @@
         <v>84</v>
       </c>
       <c r="C1717">
-        <v>6910</v>
+        <v>6361.2</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
@@ -19285,7 +19285,7 @@
         <v>85</v>
       </c>
       <c r="C1718">
-        <v>6891</v>
+        <v>6308.5</v>
       </c>
     </row>
     <row r="1719" spans="1:3">
@@ -19296,7 +19296,7 @@
         <v>86</v>
       </c>
       <c r="C1719">
-        <v>6851</v>
+        <v>6228.5</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
@@ -19307,7 +19307,7 @@
         <v>87</v>
       </c>
       <c r="C1720">
-        <v>6771</v>
+        <v>6128.5</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
@@ -19318,7 +19318,7 @@
         <v>88</v>
       </c>
       <c r="C1721">
-        <v>6671</v>
+        <v>5998.5</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
@@ -19329,7 +19329,7 @@
         <v>89</v>
       </c>
       <c r="C1722">
-        <v>6461</v>
+        <v>6295.5</v>
       </c>
     </row>
     <row r="1723" spans="1:3">
@@ -19340,7 +19340,7 @@
         <v>90</v>
       </c>
       <c r="C1723">
-        <v>6301</v>
+        <v>6115.5</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
@@ -19351,7 +19351,7 @@
         <v>91</v>
       </c>
       <c r="C1724">
-        <v>6141</v>
+        <v>5945.5</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
@@ -19362,7 +19362,7 @@
         <v>92</v>
       </c>
       <c r="C1725">
-        <v>5981</v>
+        <v>5755.5</v>
       </c>
     </row>
     <row r="1726" spans="1:3">
@@ -19373,7 +19373,7 @@
         <v>93</v>
       </c>
       <c r="C1726">
-        <v>5691</v>
+        <v>5921.9</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
@@ -19384,7 +19384,7 @@
         <v>94</v>
       </c>
       <c r="C1727">
-        <v>5541</v>
+        <v>5771.9</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
@@ -19395,7 +19395,7 @@
         <v>95</v>
       </c>
       <c r="C1728">
-        <v>5421</v>
+        <v>5631.9</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
@@ -19406,7 +19406,7 @@
         <v>96</v>
       </c>
       <c r="C1729">
-        <v>5301</v>
+        <v>5501.9</v>
       </c>
     </row>
     <row r="1730" spans="1:3">
@@ -19417,7 +19417,7 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>5529.8</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="C1731">
-        <v>5499.8</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
@@ -19439,7 +19439,7 @@
         <v>3</v>
       </c>
       <c r="C1732">
-        <v>5419.8</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
@@ -19450,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="C1733">
-        <v>5359.8</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
@@ -19461,7 +19461,7 @@
         <v>5</v>
       </c>
       <c r="C1734">
-        <v>5254.1</v>
+        <v>5725.8</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
@@ -19472,7 +19472,7 @@
         <v>6</v>
       </c>
       <c r="C1735">
-        <v>5214.1</v>
+        <v>5695.8</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
@@ -19483,7 +19483,7 @@
         <v>7</v>
       </c>
       <c r="C1736">
-        <v>5174.1</v>
+        <v>5675.8</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
@@ -19494,7 +19494,7 @@
         <v>8</v>
       </c>
       <c r="C1737">
-        <v>5134.1</v>
+        <v>5645.8</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
@@ -19505,7 +19505,7 @@
         <v>9</v>
       </c>
       <c r="C1738">
-        <v>4735.5</v>
+        <v>5628.9</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
@@ -19516,7 +19516,7 @@
         <v>10</v>
       </c>
       <c r="C1739">
-        <v>4705.5</v>
+        <v>5608.9</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
@@ -19527,7 +19527,7 @@
         <v>11</v>
       </c>
       <c r="C1740">
-        <v>4695.5</v>
+        <v>5588.9</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
@@ -19538,7 +19538,7 @@
         <v>12</v>
       </c>
       <c r="C1741">
-        <v>4695.5</v>
+        <v>5578.9</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
@@ -19549,7 +19549,7 @@
         <v>13</v>
       </c>
       <c r="C1742">
-        <v>4681.2</v>
+        <v>5623.9</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
@@ -19560,7 +19560,7 @@
         <v>14</v>
       </c>
       <c r="C1743">
-        <v>4701.2</v>
+        <v>5623.9</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
@@ -19571,7 +19571,7 @@
         <v>15</v>
       </c>
       <c r="C1744">
-        <v>4711.2</v>
+        <v>5633.9</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
@@ -19582,7 +19582,7 @@
         <v>16</v>
       </c>
       <c r="C1745">
-        <v>4721.2</v>
+        <v>5633.9</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
@@ -19593,7 +19593,7 @@
         <v>17</v>
       </c>
       <c r="C1746">
-        <v>4655.1</v>
+        <v>5328.8</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
@@ -19604,7 +19604,7 @@
         <v>18</v>
       </c>
       <c r="C1747">
-        <v>4665.1</v>
+        <v>5318.8</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -19615,7 +19615,7 @@
         <v>19</v>
       </c>
       <c r="C1748">
-        <v>4665.1</v>
+        <v>5328.8</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
@@ -19626,7 +19626,7 @@
         <v>20</v>
       </c>
       <c r="C1749">
-        <v>4685.1</v>
+        <v>5338.8</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
@@ -19637,7 +19637,7 @@
         <v>21</v>
       </c>
       <c r="C1750">
-        <v>4645.8</v>
+        <v>5105.5</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
@@ -19648,7 +19648,7 @@
         <v>22</v>
       </c>
       <c r="C1751">
-        <v>4705.8</v>
+        <v>5155.5</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
@@ -19659,7 +19659,7 @@
         <v>23</v>
       </c>
       <c r="C1752">
-        <v>4785.8</v>
+        <v>5235.5</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
@@ -19670,7 +19670,7 @@
         <v>24</v>
       </c>
       <c r="C1753">
-        <v>4895.8</v>
+        <v>5335.5</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
@@ -19681,7 +19681,7 @@
         <v>25</v>
       </c>
       <c r="C1754">
-        <v>5080.9</v>
+        <v>5170.3</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
@@ -19692,7 +19692,7 @@
         <v>26</v>
       </c>
       <c r="C1755">
-        <v>5220.9</v>
+        <v>5310.3</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
@@ -19703,7 +19703,7 @@
         <v>27</v>
       </c>
       <c r="C1756">
-        <v>5360.9</v>
+        <v>5460.3</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
@@ -19714,7 +19714,7 @@
         <v>28</v>
       </c>
       <c r="C1757">
-        <v>5510.9</v>
+        <v>5610.3</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
@@ -19725,7 +19725,7 @@
         <v>29</v>
       </c>
       <c r="C1758">
-        <v>5654</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
@@ -19736,7 +19736,7 @@
         <v>30</v>
       </c>
       <c r="C1759">
-        <v>5774</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
@@ -19747,7 +19747,7 @@
         <v>31</v>
       </c>
       <c r="C1760">
-        <v>5874</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
@@ -19758,7 +19758,7 @@
         <v>32</v>
       </c>
       <c r="C1761">
-        <v>5944</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
@@ -19769,7 +19769,7 @@
         <v>33</v>
       </c>
       <c r="C1762">
-        <v>6068.2</v>
+        <v>5908.6</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
@@ -19780,7 +19780,7 @@
         <v>34</v>
       </c>
       <c r="C1763">
-        <v>6098.2</v>
+        <v>5978.6</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
@@ -19791,7 +19791,7 @@
         <v>35</v>
       </c>
       <c r="C1764">
-        <v>6098.2</v>
+        <v>6028.6</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
@@ -19802,7 +19802,7 @@
         <v>36</v>
       </c>
       <c r="C1765">
-        <v>6078.2</v>
+        <v>6028.6</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
@@ -19813,7 +19813,7 @@
         <v>37</v>
       </c>
       <c r="C1766">
-        <v>6383.1</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
@@ -19824,7 +19824,7 @@
         <v>38</v>
       </c>
       <c r="C1767">
-        <v>6323.1</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
@@ -19835,7 +19835,7 @@
         <v>39</v>
       </c>
       <c r="C1768">
-        <v>6263.1</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
@@ -19846,7 +19846,7 @@
         <v>40</v>
       </c>
       <c r="C1769">
-        <v>6203.1</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
@@ -19857,7 +19857,7 @@
         <v>41</v>
       </c>
       <c r="C1770">
-        <v>6649.9</v>
+        <v>6024.3</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
@@ -19868,7 +19868,7 @@
         <v>42</v>
       </c>
       <c r="C1771">
-        <v>6579.9</v>
+        <v>5984.3</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
@@ -19879,7 +19879,7 @@
         <v>43</v>
       </c>
       <c r="C1772">
-        <v>6519.9</v>
+        <v>5934.3</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
@@ -19890,7 +19890,7 @@
         <v>44</v>
       </c>
       <c r="C1773">
-        <v>6469.9</v>
+        <v>5884.3</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
@@ -19901,7 +19901,7 @@
         <v>45</v>
       </c>
       <c r="C1774">
-        <v>6456.6</v>
+        <v>5935.4</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
@@ -19912,7 +19912,7 @@
         <v>46</v>
       </c>
       <c r="C1775">
-        <v>6416.6</v>
+        <v>5885.4</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
@@ -19923,7 +19923,7 @@
         <v>47</v>
       </c>
       <c r="C1776">
-        <v>6386.6</v>
+        <v>5845.4</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
@@ -19934,7 +19934,7 @@
         <v>48</v>
       </c>
       <c r="C1777">
-        <v>6366.6</v>
+        <v>5805.4</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
@@ -19945,7 +19945,7 @@
         <v>49</v>
       </c>
       <c r="C1778">
-        <v>6955.7</v>
+        <v>5864.8</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
@@ -19956,7 +19956,7 @@
         <v>50</v>
       </c>
       <c r="C1779">
-        <v>6935.7</v>
+        <v>5834.8</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
@@ -19967,7 +19967,7 @@
         <v>51</v>
       </c>
       <c r="C1780">
-        <v>6915.7</v>
+        <v>5814.8</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
@@ -19978,7 +19978,7 @@
         <v>52</v>
       </c>
       <c r="C1781">
-        <v>6895.7</v>
+        <v>5794.8</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
@@ -19989,7 +19989,7 @@
         <v>53</v>
       </c>
       <c r="C1782">
-        <v>6996.9</v>
+        <v>5731.8</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
@@ -20000,7 +20000,7 @@
         <v>54</v>
       </c>
       <c r="C1783">
-        <v>6986.9</v>
+        <v>5721.8</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
@@ -20011,7 +20011,7 @@
         <v>55</v>
       </c>
       <c r="C1784">
-        <v>6976.9</v>
+        <v>5711.8</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
@@ -20022,7 +20022,7 @@
         <v>56</v>
       </c>
       <c r="C1785">
-        <v>6966.9</v>
+        <v>5711.8</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
@@ -20033,7 +20033,7 @@
         <v>57</v>
       </c>
       <c r="C1786">
-        <v>6254.9</v>
+        <v>6029.8</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
@@ -20044,7 +20044,7 @@
         <v>58</v>
       </c>
       <c r="C1787">
-        <v>6244.9</v>
+        <v>6019.8</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
@@ -20055,7 +20055,7 @@
         <v>59</v>
       </c>
       <c r="C1788">
-        <v>6244.9</v>
+        <v>6019.8</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
@@ -20066,7 +20066,7 @@
         <v>60</v>
       </c>
       <c r="C1789">
-        <v>6254.9</v>
+        <v>6009.8</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
@@ -20077,7 +20077,7 @@
         <v>61</v>
       </c>
       <c r="C1790">
-        <v>5129.1</v>
+        <v>6132.9</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
@@ -20088,7 +20088,7 @@
         <v>62</v>
       </c>
       <c r="C1791">
-        <v>5119.1</v>
+        <v>6122.9</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
@@ -20099,7 +20099,7 @@
         <v>63</v>
       </c>
       <c r="C1792">
-        <v>5119.1</v>
+        <v>6122.9</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
@@ -20110,7 +20110,7 @@
         <v>64</v>
       </c>
       <c r="C1793">
-        <v>5129.1</v>
+        <v>6112.9</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
@@ -20121,7 +20121,7 @@
         <v>65</v>
       </c>
       <c r="C1794">
-        <v>6162.9</v>
+        <v>6222.6</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
@@ -20132,7 +20132,7 @@
         <v>66</v>
       </c>
       <c r="C1795">
-        <v>6192.9</v>
+        <v>6232.6</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
@@ -20143,7 +20143,7 @@
         <v>67</v>
       </c>
       <c r="C1796">
-        <v>6222.9</v>
+        <v>6252.6</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
@@ -20154,7 +20154,7 @@
         <v>68</v>
       </c>
       <c r="C1797">
-        <v>6272.9</v>
+        <v>6282.6</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
@@ -20165,7 +20165,7 @@
         <v>69</v>
       </c>
       <c r="C1798">
-        <v>6602.9</v>
+        <v>6159.7</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
@@ -20176,7 +20176,7 @@
         <v>70</v>
       </c>
       <c r="C1799">
-        <v>6672.9</v>
+        <v>6189.7</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
@@ -20187,7 +20187,7 @@
         <v>71</v>
       </c>
       <c r="C1800">
-        <v>6742.9</v>
+        <v>6219.7</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
@@ -20198,7 +20198,7 @@
         <v>72</v>
       </c>
       <c r="C1801">
-        <v>6812.9</v>
+        <v>6239.7</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
@@ -20209,7 +20209,7 @@
         <v>73</v>
       </c>
       <c r="C1802">
-        <v>7338.1</v>
+        <v>6119.8</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
@@ -20220,7 +20220,7 @@
         <v>74</v>
       </c>
       <c r="C1803">
-        <v>7408.1</v>
+        <v>6159.8</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
@@ -20231,7 +20231,7 @@
         <v>75</v>
       </c>
       <c r="C1804">
-        <v>7478.1</v>
+        <v>6209.8</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
@@ -20242,7 +20242,7 @@
         <v>76</v>
       </c>
       <c r="C1805">
-        <v>7568.1</v>
+        <v>6279.8</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
@@ -20253,7 +20253,7 @@
         <v>77</v>
       </c>
       <c r="C1806">
-        <v>7210.8</v>
+        <v>6051.7</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
@@ -20264,7 +20264,7 @@
         <v>78</v>
       </c>
       <c r="C1807">
-        <v>7330.8</v>
+        <v>6151.7</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
@@ -20275,7 +20275,7 @@
         <v>79</v>
       </c>
       <c r="C1808">
-        <v>7450.8</v>
+        <v>6251.7</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
@@ -20286,7 +20286,7 @@
         <v>80</v>
       </c>
       <c r="C1809">
-        <v>7570.8</v>
+        <v>6351.7</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
@@ -20297,7 +20297,7 @@
         <v>81</v>
       </c>
       <c r="C1810">
-        <v>7458.1</v>
+        <v>6151.2</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
@@ -20308,7 +20308,7 @@
         <v>82</v>
       </c>
       <c r="C1811">
-        <v>7578.1</v>
+        <v>6241.2</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
@@ -20319,7 +20319,7 @@
         <v>83</v>
       </c>
       <c r="C1812">
-        <v>7638.1</v>
+        <v>6261.2</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
@@ -20330,7 +20330,7 @@
         <v>84</v>
       </c>
       <c r="C1813">
-        <v>7688.1</v>
+        <v>6261.2</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
@@ -20341,7 +20341,7 @@
         <v>85</v>
       </c>
       <c r="C1814">
-        <v>7444.8</v>
+        <v>6238.5</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
@@ -20352,7 +20352,7 @@
         <v>86</v>
       </c>
       <c r="C1815">
-        <v>7354.8</v>
+        <v>6138.5</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
@@ -20363,7 +20363,7 @@
         <v>87</v>
       </c>
       <c r="C1816">
-        <v>7284.8</v>
+        <v>6068.5</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
@@ -20374,7 +20374,7 @@
         <v>88</v>
       </c>
       <c r="C1817">
-        <v>7184.8</v>
+        <v>5988.5</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
@@ -20385,7 +20385,7 @@
         <v>89</v>
       </c>
       <c r="C1818">
-        <v>7274.1</v>
+        <v>6305.5</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
@@ -20396,7 +20396,7 @@
         <v>90</v>
       </c>
       <c r="C1819">
-        <v>7134.1</v>
+        <v>6195.5</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
@@ -20407,7 +20407,7 @@
         <v>91</v>
       </c>
       <c r="C1820">
-        <v>6944.1</v>
+        <v>6015.5</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
@@ -20418,7 +20418,7 @@
         <v>92</v>
       </c>
       <c r="C1821">
-        <v>6824.1</v>
+        <v>5875.5</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
@@ -20429,7 +20429,7 @@
         <v>93</v>
       </c>
       <c r="C1822">
-        <v>6426.7</v>
+        <v>6091.9</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
@@ -20440,7 +20440,7 @@
         <v>94</v>
       </c>
       <c r="C1823">
-        <v>6236.7</v>
+        <v>5911.9</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
@@ -20451,7 +20451,7 @@
         <v>95</v>
       </c>
       <c r="C1824">
-        <v>6156.7</v>
+        <v>5831.9</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
@@ -20462,7 +20462,7 @@
         <v>96</v>
       </c>
       <c r="C1825">
-        <v>6046.7</v>
+        <v>5721.9</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>5429.8</v>
+        <v>6132.8</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
@@ -20484,7 +20484,7 @@
         <v>2</v>
       </c>
       <c r="C1827">
-        <v>5359.8</v>
+        <v>6072.8</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
@@ -20495,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="C1828">
-        <v>5319.8</v>
+        <v>6022.8</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
@@ -20506,7 +20506,7 @@
         <v>4</v>
       </c>
       <c r="C1829">
-        <v>5279.8</v>
+        <v>5962.8</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
@@ -20517,7 +20517,7 @@
         <v>5</v>
       </c>
       <c r="C1830">
-        <v>5164.1</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
@@ -20528,7 +20528,7 @@
         <v>6</v>
       </c>
       <c r="C1831">
-        <v>5124.1</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
@@ -20539,7 +20539,7 @@
         <v>7</v>
       </c>
       <c r="C1832">
-        <v>5074.1</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
@@ -20550,7 +20550,7 @@
         <v>8</v>
       </c>
       <c r="C1833">
-        <v>5034.1</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
@@ -20561,7 +20561,7 @@
         <v>9</v>
       </c>
       <c r="C1834">
-        <v>4625.5</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
@@ -20572,7 +20572,7 @@
         <v>10</v>
       </c>
       <c r="C1835">
-        <v>4585.5</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
@@ -20583,7 +20583,7 @@
         <v>11</v>
       </c>
       <c r="C1836">
-        <v>4565.5</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
@@ -20594,7 +20594,7 @@
         <v>12</v>
       </c>
       <c r="C1837">
-        <v>4545.5</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
@@ -20605,7 +20605,7 @@
         <v>13</v>
       </c>
       <c r="C1838">
-        <v>4521.2</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
@@ -20616,7 +20616,7 @@
         <v>14</v>
       </c>
       <c r="C1839">
-        <v>4521.2</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
@@ -20627,7 +20627,7 @@
         <v>15</v>
       </c>
       <c r="C1840">
-        <v>4531.2</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
@@ -20638,7 +20638,7 @@
         <v>16</v>
       </c>
       <c r="C1841">
-        <v>4541.2</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
@@ -20649,7 +20649,7 @@
         <v>17</v>
       </c>
       <c r="C1842">
-        <v>4475.1</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
@@ -20660,7 +20660,7 @@
         <v>18</v>
       </c>
       <c r="C1843">
-        <v>4485.1</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
@@ -20671,7 +20671,7 @@
         <v>19</v>
       </c>
       <c r="C1844">
-        <v>4495.1</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
@@ -20682,7 +20682,7 @@
         <v>20</v>
       </c>
       <c r="C1845">
-        <v>4505.1</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
@@ -20693,7 +20693,7 @@
         <v>21</v>
       </c>
       <c r="C1846">
-        <v>4435.8</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
@@ -20704,7 +20704,7 @@
         <v>22</v>
       </c>
       <c r="C1847">
-        <v>4455.8</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="1848" spans="1:3">
@@ -20715,7 +20715,7 @@
         <v>23</v>
       </c>
       <c r="C1848">
-        <v>4475.8</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
@@ -20726,7 +20726,7 @@
         <v>24</v>
       </c>
       <c r="C1849">
-        <v>4515.8</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
@@ -20737,7 +20737,7 @@
         <v>25</v>
       </c>
       <c r="C1850">
-        <v>4630.9</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
@@ -20748,7 +20748,7 @@
         <v>26</v>
       </c>
       <c r="C1851">
-        <v>4690.9</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
@@ -20759,7 +20759,7 @@
         <v>27</v>
       </c>
       <c r="C1852">
-        <v>4760.9</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
@@ -20770,7 +20770,7 @@
         <v>28</v>
       </c>
       <c r="C1853">
-        <v>4840.9</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
@@ -20781,7 +20781,7 @@
         <v>29</v>
       </c>
       <c r="C1854">
-        <v>4934</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
@@ -20792,7 +20792,7 @@
         <v>30</v>
       </c>
       <c r="C1855">
-        <v>5004</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
@@ -20803,7 +20803,7 @@
         <v>31</v>
       </c>
       <c r="C1856">
-        <v>5074</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
@@ -20814,7 +20814,7 @@
         <v>32</v>
       </c>
       <c r="C1857">
-        <v>5124</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
@@ -20825,7 +20825,7 @@
         <v>33</v>
       </c>
       <c r="C1858">
-        <v>5238.2</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
@@ -20836,7 +20836,7 @@
         <v>34</v>
       </c>
       <c r="C1859">
-        <v>5258.2</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
@@ -20847,7 +20847,7 @@
         <v>35</v>
       </c>
       <c r="C1860">
-        <v>5248.2</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
@@ -20858,7 +20858,7 @@
         <v>36</v>
       </c>
       <c r="C1861">
-        <v>5218.2</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
@@ -20869,7 +20869,7 @@
         <v>37</v>
       </c>
       <c r="C1862">
-        <v>5503.1</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
@@ -20880,7 +20880,7 @@
         <v>38</v>
       </c>
       <c r="C1863">
-        <v>5433.1</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
@@ -20891,7 +20891,7 @@
         <v>39</v>
       </c>
       <c r="C1864">
-        <v>5363.1</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
@@ -20902,7 +20902,7 @@
         <v>40</v>
       </c>
       <c r="C1865">
-        <v>5273.1</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
@@ -20913,7 +20913,7 @@
         <v>41</v>
       </c>
       <c r="C1866">
-        <v>5709.9</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
@@ -20924,7 +20924,7 @@
         <v>42</v>
       </c>
       <c r="C1867">
-        <v>5639.9</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
@@ -20935,7 +20935,7 @@
         <v>43</v>
       </c>
       <c r="C1868">
-        <v>5579.9</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
@@ -20946,7 +20946,7 @@
         <v>44</v>
       </c>
       <c r="C1869">
-        <v>5529.9</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
@@ -20957,7 +20957,7 @@
         <v>45</v>
       </c>
       <c r="C1870">
-        <v>5516.6</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
@@ -20968,7 +20968,7 @@
         <v>46</v>
       </c>
       <c r="C1871">
-        <v>5496.6</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
@@ -20979,7 +20979,7 @@
         <v>47</v>
       </c>
       <c r="C1872">
-        <v>5476.6</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
@@ -20990,7 +20990,7 @@
         <v>48</v>
       </c>
       <c r="C1873">
-        <v>5466.6</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
@@ -21001,7 +21001,7 @@
         <v>49</v>
       </c>
       <c r="C1874">
-        <v>6075.7</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
@@ -21012,7 +21012,7 @@
         <v>50</v>
       </c>
       <c r="C1875">
-        <v>6075.7</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
@@ -21023,7 +21023,7 @@
         <v>51</v>
       </c>
       <c r="C1876">
-        <v>6075.7</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
@@ -21034,7 +21034,7 @@
         <v>52</v>
       </c>
       <c r="C1877">
-        <v>6075.7</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
@@ -21045,7 +21045,7 @@
         <v>53</v>
       </c>
       <c r="C1878">
-        <v>6196.9</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
@@ -21056,7 +21056,7 @@
         <v>54</v>
       </c>
       <c r="C1879">
-        <v>6196.9</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
@@ -21067,7 +21067,7 @@
         <v>55</v>
       </c>
       <c r="C1880">
-        <v>6196.9</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
@@ -21078,7 +21078,7 @@
         <v>56</v>
       </c>
       <c r="C1881">
-        <v>6196.9</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
@@ -21089,7 +21089,7 @@
         <v>57</v>
       </c>
       <c r="C1882">
-        <v>5484.9</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
@@ -21100,7 +21100,7 @@
         <v>58</v>
       </c>
       <c r="C1883">
-        <v>5494.9</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
@@ -21111,7 +21111,7 @@
         <v>59</v>
       </c>
       <c r="C1884">
-        <v>5494.9</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
@@ -21122,7 +21122,7 @@
         <v>60</v>
       </c>
       <c r="C1885">
-        <v>5504.9</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
@@ -21133,7 +21133,7 @@
         <v>61</v>
       </c>
       <c r="C1886">
-        <v>4389.1</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
@@ -21144,7 +21144,7 @@
         <v>62</v>
       </c>
       <c r="C1887">
-        <v>4399.1</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
@@ -21155,7 +21155,7 @@
         <v>63</v>
       </c>
       <c r="C1888">
-        <v>4419.1</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
@@ -21166,7 +21166,7 @@
         <v>64</v>
       </c>
       <c r="C1889">
-        <v>4439.1</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
@@ -21177,7 +21177,7 @@
         <v>65</v>
       </c>
       <c r="C1890">
-        <v>5512.9</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
@@ -21188,7 +21188,7 @@
         <v>66</v>
       </c>
       <c r="C1891">
-        <v>5562.9</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
@@ -21199,7 +21199,7 @@
         <v>67</v>
       </c>
       <c r="C1892">
-        <v>5622.9</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
@@ -21210,7 +21210,7 @@
         <v>68</v>
       </c>
       <c r="C1893">
-        <v>5692.9</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
@@ -21221,7 +21221,7 @@
         <v>69</v>
       </c>
       <c r="C1894">
-        <v>6042.9</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -21232,7 +21232,7 @@
         <v>70</v>
       </c>
       <c r="C1895">
-        <v>6132.9</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
@@ -21243,7 +21243,7 @@
         <v>71</v>
       </c>
       <c r="C1896">
-        <v>6202.9</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
@@ -21254,7 +21254,7 @@
         <v>72</v>
       </c>
       <c r="C1897">
-        <v>6272.9</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
@@ -21265,7 +21265,7 @@
         <v>73</v>
       </c>
       <c r="C1898">
-        <v>6798.1</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
@@ -21276,7 +21276,7 @@
         <v>74</v>
       </c>
       <c r="C1899">
-        <v>6868.1</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
@@ -21287,7 +21287,7 @@
         <v>75</v>
       </c>
       <c r="C1900">
-        <v>6948.1</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
@@ -21298,7 +21298,7 @@
         <v>76</v>
       </c>
       <c r="C1901">
-        <v>7038.1</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
@@ -21309,7 +21309,7 @@
         <v>77</v>
       </c>
       <c r="C1902">
-        <v>6690.8</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
@@ -21320,7 +21320,7 @@
         <v>78</v>
       </c>
       <c r="C1903">
-        <v>6810.8</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
@@ -21331,7 +21331,7 @@
         <v>79</v>
       </c>
       <c r="C1904">
-        <v>6930.8</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
@@ -21342,7 +21342,7 @@
         <v>80</v>
       </c>
       <c r="C1905">
-        <v>7040.8</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
@@ -21353,7 +21353,7 @@
         <v>81</v>
       </c>
       <c r="C1906">
-        <v>6908.1</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
@@ -21364,7 +21364,7 @@
         <v>82</v>
       </c>
       <c r="C1907">
-        <v>6998.1</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
@@ -21375,7 +21375,7 @@
         <v>83</v>
       </c>
       <c r="C1908">
-        <v>7028.1</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1909" spans="1:3">
@@ -21386,7 +21386,7 @@
         <v>84</v>
       </c>
       <c r="C1909">
-        <v>7028.1</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
@@ -21397,7 +21397,7 @@
         <v>85</v>
       </c>
       <c r="C1910">
-        <v>6754.8</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
@@ -21408,7 +21408,7 @@
         <v>86</v>
       </c>
       <c r="C1911">
-        <v>6624.8</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
@@ -21419,7 +21419,7 @@
         <v>87</v>
       </c>
       <c r="C1912">
-        <v>6574.8</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
@@ -21430,7 +21430,7 @@
         <v>88</v>
       </c>
       <c r="C1913">
-        <v>6514.8</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
@@ -21441,7 +21441,7 @@
         <v>89</v>
       </c>
       <c r="C1914">
-        <v>6684.1</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
@@ -21452,7 +21452,7 @@
         <v>90</v>
       </c>
       <c r="C1915">
-        <v>6614.1</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
@@ -21463,7 +21463,7 @@
         <v>91</v>
       </c>
       <c r="C1916">
-        <v>6454.1</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
@@ -21474,7 +21474,7 @@
         <v>92</v>
       </c>
       <c r="C1917">
-        <v>6294.1</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
@@ -21485,7 +21485,7 @@
         <v>93</v>
       </c>
       <c r="C1918">
-        <v>5846.7</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
@@ -21496,7 +21496,7 @@
         <v>94</v>
       </c>
       <c r="C1919">
-        <v>5676.7</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
@@ -21507,7 +21507,7 @@
         <v>95</v>
       </c>
       <c r="C1920">
-        <v>5586.7</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="1921" spans="1:3">
@@ -21518,7 +21518,7 @@
         <v>96</v>
       </c>
       <c r="C1921">
-        <v>5476.7</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1922" spans="1:3">
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>5079.8</v>
+        <v>5832.8</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
@@ -21540,7 +21540,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>5019.8</v>
+        <v>5772.8</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
@@ -21551,7 +21551,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>4969.8</v>
+        <v>5722.8</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
@@ -21562,7 +21562,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>4899.8</v>
+        <v>5652.8</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
@@ -21573,7 +21573,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>4754.1</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
@@ -21584,7 +21584,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>4694.1</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
@@ -21595,7 +21595,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>4644.1</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
@@ -21606,7 +21606,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>4614.1</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
@@ -21617,7 +21617,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>4225.5</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
@@ -21628,7 +21628,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>4205.5</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
@@ -21639,7 +21639,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>4195.5</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
@@ -21650,7 +21650,7 @@
         <v>12</v>
       </c>
       <c r="C1933">
-        <v>4185.5</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
@@ -21661,7 +21661,7 @@
         <v>13</v>
       </c>
       <c r="C1934">
-        <v>4141.2</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
@@ -21672,7 +21672,7 @@
         <v>14</v>
       </c>
       <c r="C1935">
-        <v>4141.2</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
@@ -21683,7 +21683,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>4131.2</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
@@ -21694,7 +21694,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>4131.2</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
@@ -21705,7 +21705,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>4065.1</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
@@ -21716,7 +21716,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>4075.1</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
@@ -21727,7 +21727,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>4085.1</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
@@ -21738,7 +21738,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>4095.1</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
@@ -21749,7 +21749,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>4025.8</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
@@ -21760,7 +21760,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>4035.8</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
@@ -21771,7 +21771,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>4055.8</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
@@ -21782,7 +21782,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>4065.8</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
@@ -21793,7 +21793,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>4140.9</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
@@ -21804,7 +21804,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>4160.9</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
@@ -21815,7 +21815,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>4190.9</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
@@ -21826,7 +21826,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>4220.9</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
@@ -21837,7 +21837,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>4274</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
@@ -21848,7 +21848,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>4324</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
@@ -21859,7 +21859,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>4364</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
@@ -21870,7 +21870,7 @@
         <v>32</v>
       </c>
       <c r="C1953">
-        <v>4404</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
@@ -21881,7 +21881,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>4508.2</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
@@ -21892,7 +21892,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>4528.2</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
@@ -21903,7 +21903,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>4528.2</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
@@ -21914,7 +21914,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>4518.2</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>4823.1</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
@@ -21936,7 +21936,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>4773.1</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
@@ -21947,7 +21947,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>4723.1</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
@@ -21958,7 +21958,7 @@
         <v>40</v>
       </c>
       <c r="C1961">
-        <v>4653.1</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
@@ -21969,7 +21969,7 @@
         <v>41</v>
       </c>
       <c r="C1962">
-        <v>5109.9</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
@@ -21980,7 +21980,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>5049.9</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
@@ -21991,7 +21991,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>4999.9</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
@@ -22002,7 +22002,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>4959.9</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
@@ -22013,7 +22013,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>4956.6</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
@@ -22024,7 +22024,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>4936.6</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
@@ -22035,7 +22035,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>4916.6</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
@@ -22046,7 +22046,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>4906.6</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
@@ -22057,7 +22057,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>5505.7</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
@@ -22068,7 +22068,7 @@
         <v>50</v>
       </c>
       <c r="C1971">
-        <v>5505.7</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
@@ -22079,7 +22079,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>5485.7</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1973" spans="1:3">
@@ -22090,7 +22090,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>5475.7</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="1974" spans="1:3">
@@ -22101,7 +22101,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>5586.9</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
@@ -22112,7 +22112,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>5576.9</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="1976" spans="1:3">
@@ -22123,7 +22123,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>5556.9</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
@@ -22134,7 +22134,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>5556.9</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
@@ -22145,7 +22145,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>4844.9</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1979" spans="1:3">
@@ -22156,7 +22156,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>4844.9</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1980" spans="1:3">
@@ -22167,7 +22167,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>4844.9</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1981" spans="1:3">
@@ -22178,7 +22178,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>4854.9</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1982" spans="1:3">
@@ -22189,7 +22189,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>3739.1</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
@@ -22200,7 +22200,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>3749.1</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
@@ -22211,7 +22211,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>3769.1</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1985" spans="1:3">
@@ -22222,7 +22222,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>3789.1</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1986" spans="1:3">
@@ -22233,7 +22233,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>4862.9</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1987" spans="1:3">
@@ -22244,7 +22244,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>4902.9</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1988" spans="1:3">
@@ -22255,7 +22255,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>4952.9</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1989" spans="1:3">
@@ -22266,7 +22266,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>5022.9</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="1990" spans="1:3">
@@ -22277,7 +22277,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>5362.9</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1991" spans="1:3">
@@ -22288,7 +22288,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>5442.9</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="1992" spans="1:3">
@@ -22299,7 +22299,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>5512.9</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1993" spans="1:3">
@@ -22310,7 +22310,7 @@
         <v>72</v>
       </c>
       <c r="C1993">
-        <v>5592.9</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1994" spans="1:3">
@@ -22321,7 +22321,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>6118.1</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1995" spans="1:3">
@@ -22332,7 +22332,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>6198.1</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1996" spans="1:3">
@@ -22343,7 +22343,7 @@
         <v>75</v>
       </c>
       <c r="C1996">
-        <v>6288.1</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="1997" spans="1:3">
@@ -22354,7 +22354,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>6398.1</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1998" spans="1:3">
@@ -22365,7 +22365,7 @@
         <v>77</v>
       </c>
       <c r="C1998">
-        <v>6050.8</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="1999" spans="1:3">
@@ -22376,7 +22376,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>6170.8</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="2000" spans="1:3">
@@ -22387,7 +22387,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>6280.8</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
@@ -22398,7 +22398,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>6370.8</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="2002" spans="1:3">
@@ -22409,7 +22409,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>6218.1</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2003" spans="1:3">
@@ -22420,7 +22420,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>6298.1</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2004" spans="1:3">
@@ -22431,7 +22431,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>6338.1</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
@@ -22442,7 +22442,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>6358.1</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="2006" spans="1:3">
@@ -22453,7 +22453,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>6114.8</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2007" spans="1:3">
@@ -22464,7 +22464,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>6024.8</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
@@ -22475,7 +22475,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>5984.8</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="2009" spans="1:3">
@@ -22486,7 +22486,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>5914.8</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2010" spans="1:3">
@@ -22497,7 +22497,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>6054.1</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="2011" spans="1:3">
@@ -22508,7 +22508,7 @@
         <v>90</v>
       </c>
       <c r="C2011">
-        <v>5954.1</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="2012" spans="1:3">
@@ -22519,7 +22519,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>5794.1</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
@@ -22530,7 +22530,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>5664.1</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
@@ -22541,7 +22541,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>5276.7</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="2015" spans="1:3">
@@ -22552,7 +22552,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>5126.7</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
@@ -22563,7 +22563,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>5036.7</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
@@ -22574,7 +22574,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>4926.7</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>4969.8</v>
+        <v>5572.8</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
@@ -22596,7 +22596,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>4949.8</v>
+        <v>5522.8</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
@@ -22607,7 +22607,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>4859.8</v>
+        <v>5472.8</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
@@ -22618,7 +22618,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>4769.8</v>
+        <v>5422.8</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
@@ -22629,7 +22629,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>4654.1</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
@@ -22640,7 +22640,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>4614.1</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
@@ -22651,7 +22651,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>4574.1</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="2025" spans="1:3">
@@ -22662,7 +22662,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>4544.1</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
@@ -22673,7 +22673,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>4145.5</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
@@ -22684,7 +22684,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>4125.5</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
@@ -22695,7 +22695,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>4125.5</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
@@ -22706,7 +22706,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>4135.5</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
@@ -22717,7 +22717,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>4121.2</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
@@ -22728,7 +22728,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>4131.2</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
@@ -22739,7 +22739,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>4131.2</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
@@ -22750,7 +22750,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>4131.2</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
@@ -22761,7 +22761,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>4055.1</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
@@ -22772,7 +22772,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>4065.1</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
@@ -22783,7 +22783,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>4085.1</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
@@ -22794,7 +22794,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>4135.1</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
@@ -22805,7 +22805,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>4125.8</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
@@ -22816,7 +22816,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>4245.8</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
@@ -22827,7 +22827,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>4385.8</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
@@ -22838,7 +22838,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>4555.8</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
@@ -22849,7 +22849,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>4810.9</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
@@ -22860,7 +22860,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>5010.9</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
@@ -22871,7 +22871,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5210.9</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
@@ -22882,7 +22882,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>5400.9</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
@@ -22893,7 +22893,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>5584</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
@@ -22904,7 +22904,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>5734</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
@@ -22915,7 +22915,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>5844</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
@@ -22926,7 +22926,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>5924</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
@@ -22937,7 +22937,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6048.2</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
@@ -22948,7 +22948,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6058.2</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
@@ -22959,7 +22959,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6048.2</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
@@ -22970,7 +22970,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6018.2</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
@@ -22981,7 +22981,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6293.1</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
@@ -22992,7 +22992,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>6233.1</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
@@ -23003,7 +23003,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>6153.1</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
@@ -23014,7 +23014,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>6073.1</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
@@ -23025,7 +23025,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>6509.9</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
@@ -23036,7 +23036,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>6429.9</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23047,7 +23047,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>6369.9</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
@@ -23058,7 +23058,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>6309.9</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -23069,7 +23069,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>6296.6</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
@@ -23080,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>6266.6</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
@@ -23091,7 +23091,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>6256.6</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
@@ -23102,7 +23102,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>6236.6</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
@@ -23113,7 +23113,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>6845.7</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
@@ -23124,7 +23124,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>6835.7</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
@@ -23135,7 +23135,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>6835.7</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
@@ -23146,7 +23146,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>6835.7</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -23157,7 +23157,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>6946.9</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
@@ -23168,7 +23168,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>6946.9</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
@@ -23179,7 +23179,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>6936.9</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
@@ -23190,7 +23190,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>6936.9</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
@@ -23201,7 +23201,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>6234.9</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
@@ -23212,7 +23212,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>6244.9</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
@@ -23223,7 +23223,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>6254.9</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
@@ -23234,7 +23234,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>6264.9</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
@@ -23245,7 +23245,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5149.1</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -23256,7 +23256,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>5159.1</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
@@ -23267,7 +23267,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>5169.1</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
@@ -23278,7 +23278,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>5179.1</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
@@ -23289,7 +23289,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>6232.9</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
@@ -23300,7 +23300,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>6262.9</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
@@ -23311,7 +23311,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>6292.9</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
@@ -23322,7 +23322,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>6342.9</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
@@ -23333,7 +23333,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>6652.9</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
@@ -23344,7 +23344,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>6702.9</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
@@ -23355,7 +23355,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>6752.9</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -23366,7 +23366,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>6802.9</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
@@ -23377,7 +23377,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>7308.1</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
@@ -23388,7 +23388,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>7358.1</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
@@ -23399,7 +23399,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>7438.1</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -23410,7 +23410,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>7538.1</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
@@ -23421,7 +23421,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>7210.8</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
@@ -23432,7 +23432,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>7350.8</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
@@ -23443,7 +23443,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>7480.8</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
@@ -23454,7 +23454,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>7600.8</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
@@ -23465,7 +23465,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>7468.1</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
@@ -23476,7 +23476,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>7578.1</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -23487,7 +23487,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>7638.1</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
@@ -23498,7 +23498,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>7688.1</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
@@ -23509,7 +23509,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>7464.8</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
@@ -23520,7 +23520,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>7384.8</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
@@ -23531,7 +23531,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>7324.8</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
@@ -23542,7 +23542,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>7204.8</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
@@ -23553,7 +23553,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>7294.1</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
@@ -23564,7 +23564,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>7164.1</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
@@ -23575,7 +23575,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>6994.1</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="2109" spans="1:3">
@@ -23586,7 +23586,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>6834.1</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
@@ -23597,7 +23597,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>6356.7</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
@@ -23608,7 +23608,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>6166.7</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
@@ -23619,7 +23619,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>6086.7</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
@@ -23630,7 +23630,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>5976.7</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23641,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>5469.8</v>
+        <v>6112.8</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
@@ -23652,7 +23652,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>5449.8</v>
+        <v>6052.8</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
@@ -23663,7 +23663,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>5359.8</v>
+        <v>6002.8</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
@@ -23674,7 +23674,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5269.8</v>
+        <v>5952.8</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
@@ -23685,7 +23685,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>5144.1</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -23696,7 +23696,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>5104.1</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
@@ -23707,7 +23707,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>5074.1</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
@@ -23718,7 +23718,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>5044.1</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
@@ -23729,7 +23729,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>4655.5</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
@@ -23740,7 +23740,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>4635.5</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
@@ -23751,7 +23751,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>4625.5</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
@@ -23762,7 +23762,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>4625.5</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
@@ -23773,7 +23773,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>4611.2</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2127" spans="1:3">
@@ -23784,7 +23784,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>4621.2</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
@@ -23795,7 +23795,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>4631.2</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
@@ -23806,7 +23806,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>4641.2</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
@@ -23817,7 +23817,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>4575.1</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
@@ -23828,7 +23828,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>4565.1</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
@@ -23839,7 +23839,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>4555.1</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
@@ -23850,7 +23850,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>4555.1</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
@@ -23861,7 +23861,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>4495.8</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
@@ -23872,7 +23872,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>4525.8</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23883,7 +23883,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>4585.8</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
@@ -23894,7 +23894,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>4675.8</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
@@ -23905,7 +23905,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>4860.9</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
@@ -23916,7 +23916,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>5010.9</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
@@ -23927,7 +23927,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>5170.9</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
@@ -23938,7 +23938,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>5340.9</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
@@ -23949,7 +23949,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>5524</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
@@ -23960,7 +23960,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>5674</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
@@ -23971,7 +23971,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>5804</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
@@ -23982,7 +23982,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>5904</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -23993,7 +23993,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>6048.2</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -24004,7 +24004,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>6068.2</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24015,7 +24015,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>6068.2</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -24026,7 +24026,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>6028.2</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
@@ -24037,7 +24037,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>6313.1</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
@@ -24048,7 +24048,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>6243.1</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
@@ -24059,7 +24059,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>6163.1</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -24070,7 +24070,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>6093.1</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24081,7 +24081,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>6549.9</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
@@ -24092,7 +24092,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>6499.9</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
@@ -24103,7 +24103,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>6459.9</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
@@ -24114,7 +24114,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>6439.9</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
@@ -24125,7 +24125,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>6446.6</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
@@ -24136,7 +24136,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>6436.6</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
@@ -24147,7 +24147,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>6426.6</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24158,7 +24158,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>6416.6</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
@@ -24169,7 +24169,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>7005.7</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -24180,7 +24180,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>6975.7</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
@@ -24191,7 +24191,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>6945.7</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
@@ -24202,7 +24202,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>6905.7</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -24213,7 +24213,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>6986.9</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -24224,7 +24224,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>6956.9</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
@@ -24235,7 +24235,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>6926.9</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
@@ -24246,7 +24246,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>6906.9</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24257,7 +24257,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>6194.9</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24268,7 +24268,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>6184.9</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24279,7 +24279,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>6194.9</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24290,7 +24290,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>6194.9</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
@@ -24301,7 +24301,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>5069.1</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
@@ -24312,7 +24312,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>5079.1</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24323,7 +24323,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>5079.1</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24334,7 +24334,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>5089.1</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24345,7 +24345,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>6132.9</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
@@ -24356,7 +24356,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>6162.9</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24367,7 +24367,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>6192.9</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
@@ -24378,7 +24378,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>6242.9</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
@@ -24389,7 +24389,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>6562.9</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -24400,7 +24400,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>6612.9</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
@@ -24411,7 +24411,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>6662.9</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -24422,7 +24422,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>6712.9</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24433,7 +24433,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>7218.1</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
@@ -24444,7 +24444,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>7278.1</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24455,7 +24455,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>7348.1</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24466,7 +24466,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>7448.1</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
@@ -24477,7 +24477,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>7100.8</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
@@ -24488,7 +24488,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>7220.8</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24499,7 +24499,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>7350.8</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
@@ -24510,7 +24510,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>7470.8</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
@@ -24521,7 +24521,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>7358.1</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24532,7 +24532,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>7468.1</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
@@ -24543,7 +24543,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>7538.1</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -24554,7 +24554,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>7598.1</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24565,7 +24565,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>7374.8</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24576,7 +24576,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>7284.8</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24587,7 +24587,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>7214.8</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
@@ -24598,7 +24598,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>7114.8</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
@@ -24609,7 +24609,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>7204.1</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24620,7 +24620,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>7064.1</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24631,7 +24631,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>6884.1</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24642,7 +24642,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>6744.1</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24653,7 +24653,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>6316.7</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
@@ -24664,7 +24664,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>6116.7</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24675,7 +24675,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>6036.7</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
@@ -24686,7 +24686,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5926.7</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
@@ -24697,7 +24697,7 @@
         <v>1</v>
       </c>
       <c r="C2210">
-        <v>5519.8</v>
+        <v>6052.8</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
@@ -24708,7 +24708,7 @@
         <v>2</v>
       </c>
       <c r="C2211">
-        <v>5499.8</v>
+        <v>6002.8</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
@@ -24719,7 +24719,7 @@
         <v>3</v>
       </c>
       <c r="C2212">
-        <v>5409.8</v>
+        <v>5952.8</v>
       </c>
     </row>
     <row r="2213" spans="1:3">
@@ -24730,7 +24730,7 @@
         <v>4</v>
       </c>
       <c r="C2213">
-        <v>5329.8</v>
+        <v>5902.8</v>
       </c>
     </row>
     <row r="2214" spans="1:3">
@@ -24741,7 +24741,7 @@
         <v>5</v>
       </c>
       <c r="C2214">
-        <v>5204.1</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
@@ -24752,7 +24752,7 @@
         <v>6</v>
       </c>
       <c r="C2215">
-        <v>5164.1</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
@@ -24763,7 +24763,7 @@
         <v>7</v>
       </c>
       <c r="C2216">
-        <v>5124.1</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
@@ -24774,7 +24774,7 @@
         <v>8</v>
       </c>
       <c r="C2217">
-        <v>5094.1</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
@@ -24785,7 +24785,7 @@
         <v>9</v>
       </c>
       <c r="C2218">
-        <v>4695.5</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
@@ -24796,7 +24796,7 @@
         <v>10</v>
       </c>
       <c r="C2219">
-        <v>4685.5</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
@@ -24807,7 +24807,7 @@
         <v>11</v>
       </c>
       <c r="C2220">
-        <v>4685.5</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="2221" spans="1:3">
@@ -24818,7 +24818,7 @@
         <v>12</v>
       </c>
       <c r="C2221">
-        <v>4685.5</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
@@ -24829,7 +24829,7 @@
         <v>13</v>
       </c>
       <c r="C2222">
-        <v>4681.2</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
@@ -24840,7 +24840,7 @@
         <v>14</v>
       </c>
       <c r="C2223">
-        <v>4701.2</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
@@ -24851,7 +24851,7 @@
         <v>15</v>
       </c>
       <c r="C2224">
-        <v>4711.2</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
@@ -24862,7 +24862,7 @@
         <v>16</v>
       </c>
       <c r="C2225">
-        <v>4711.2</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
@@ -24873,7 +24873,7 @@
         <v>17</v>
       </c>
       <c r="C2226">
-        <v>4645.1</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
@@ -24884,7 +24884,7 @@
         <v>18</v>
       </c>
       <c r="C2227">
-        <v>4645.1</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
@@ -24895,7 +24895,7 @@
         <v>19</v>
       </c>
       <c r="C2228">
-        <v>4645.1</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
@@ -24906,7 +24906,7 @@
         <v>20</v>
       </c>
       <c r="C2229">
-        <v>4655.1</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
@@ -24917,7 +24917,7 @@
         <v>21</v>
       </c>
       <c r="C2230">
-        <v>4605.8</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
@@ -24928,7 +24928,7 @@
         <v>22</v>
       </c>
       <c r="C2231">
-        <v>4655.8</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
@@ -24939,7 +24939,7 @@
         <v>23</v>
       </c>
       <c r="C2232">
-        <v>4735.8</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
@@ -24950,7 +24950,7 @@
         <v>24</v>
       </c>
       <c r="C2233">
-        <v>4845.8</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -24961,7 +24961,7 @@
         <v>25</v>
       </c>
       <c r="C2234">
-        <v>5050.9</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
@@ -24972,7 +24972,7 @@
         <v>26</v>
       </c>
       <c r="C2235">
-        <v>5200.9</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2236" spans="1:3">
@@ -24983,7 +24983,7 @@
         <v>27</v>
       </c>
       <c r="C2236">
-        <v>5370.9</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
@@ -24994,7 +24994,7 @@
         <v>28</v>
       </c>
       <c r="C2237">
-        <v>5540.9</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
@@ -25005,7 +25005,7 @@
         <v>29</v>
       </c>
       <c r="C2238">
-        <v>5714</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
@@ -25016,7 +25016,7 @@
         <v>30</v>
       </c>
       <c r="C2239">
-        <v>5854</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
@@ -25027,7 +25027,7 @@
         <v>31</v>
       </c>
       <c r="C2240">
-        <v>5984</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
@@ -25038,7 +25038,7 @@
         <v>32</v>
       </c>
       <c r="C2241">
-        <v>6074</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
@@ -25049,7 +25049,7 @@
         <v>33</v>
       </c>
       <c r="C2242">
-        <v>6218.2</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -25060,7 +25060,7 @@
         <v>34</v>
       </c>
       <c r="C2243">
-        <v>6258.2</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
@@ -25071,7 +25071,7 @@
         <v>35</v>
       </c>
       <c r="C2244">
-        <v>6268.2</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
@@ -25082,7 +25082,7 @@
         <v>36</v>
       </c>
       <c r="C2245">
-        <v>6258.2</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
@@ -25093,7 +25093,7 @@
         <v>37</v>
       </c>
       <c r="C2246">
-        <v>6563.1</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
@@ -25104,7 +25104,7 @@
         <v>38</v>
       </c>
       <c r="C2247">
-        <v>6523.1</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
@@ -25115,7 +25115,7 @@
         <v>39</v>
       </c>
       <c r="C2248">
-        <v>6483.1</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
@@ -25126,7 +25126,7 @@
         <v>40</v>
       </c>
       <c r="C2249">
-        <v>6433.1</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
@@ -25137,7 +25137,7 @@
         <v>41</v>
       </c>
       <c r="C2250">
-        <v>6909.9</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
@@ -25148,7 +25148,7 @@
         <v>42</v>
       </c>
       <c r="C2251">
-        <v>6869.9</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
@@ -25159,7 +25159,7 @@
         <v>43</v>
       </c>
       <c r="C2252">
-        <v>6829.9</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
@@ -25170,7 +25170,7 @@
         <v>44</v>
       </c>
       <c r="C2253">
-        <v>6799.9</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
@@ -25181,7 +25181,7 @@
         <v>45</v>
       </c>
       <c r="C2254">
-        <v>6796.6</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
@@ -25192,7 +25192,7 @@
         <v>46</v>
       </c>
       <c r="C2255">
-        <v>6776.6</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
@@ -25203,7 +25203,7 @@
         <v>47</v>
       </c>
       <c r="C2256">
-        <v>6746.6</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -25214,7 +25214,7 @@
         <v>48</v>
       </c>
       <c r="C2257">
-        <v>6716.6</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -25225,7 +25225,7 @@
         <v>49</v>
       </c>
       <c r="C2258">
-        <v>7295.7</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
@@ -25236,7 +25236,7 @@
         <v>50</v>
       </c>
       <c r="C2259">
-        <v>7255.7</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
@@ -25247,7 +25247,7 @@
         <v>51</v>
       </c>
       <c r="C2260">
-        <v>7225.7</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
@@ -25258,7 +25258,7 @@
         <v>52</v>
       </c>
       <c r="C2261">
-        <v>7205.7</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -25269,7 +25269,7 @@
         <v>53</v>
       </c>
       <c r="C2262">
-        <v>7296.9</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -25280,7 +25280,7 @@
         <v>54</v>
       </c>
       <c r="C2263">
-        <v>7286.9</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -25291,7 +25291,7 @@
         <v>55</v>
       </c>
       <c r="C2264">
-        <v>7286.9</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
@@ -25302,7 +25302,7 @@
         <v>56</v>
       </c>
       <c r="C2265">
-        <v>7286.9</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
@@ -25313,7 +25313,7 @@
         <v>57</v>
       </c>
       <c r="C2266">
-        <v>6584.9</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25324,7 +25324,7 @@
         <v>58</v>
       </c>
       <c r="C2267">
-        <v>6594.9</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25335,7 +25335,7 @@
         <v>59</v>
       </c>
       <c r="C2268">
-        <v>6604.9</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -25346,7 +25346,7 @@
         <v>60</v>
       </c>
       <c r="C2269">
-        <v>6614.9</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25357,7 +25357,7 @@
         <v>61</v>
       </c>
       <c r="C2270">
-        <v>5499.1</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -25368,7 +25368,7 @@
         <v>62</v>
       </c>
       <c r="C2271">
-        <v>5499.1</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -25379,7 +25379,7 @@
         <v>63</v>
       </c>
       <c r="C2272">
-        <v>5499.1</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -25390,7 +25390,7 @@
         <v>64</v>
       </c>
       <c r="C2273">
-        <v>5499.1</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25401,7 +25401,7 @@
         <v>65</v>
       </c>
       <c r="C2274">
-        <v>6542.9</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -25412,7 +25412,7 @@
         <v>66</v>
       </c>
       <c r="C2275">
-        <v>6562.9</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25423,7 +25423,7 @@
         <v>67</v>
       </c>
       <c r="C2276">
-        <v>6602.9</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25434,7 +25434,7 @@
         <v>68</v>
       </c>
       <c r="C2277">
-        <v>6642.9</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25445,7 +25445,7 @@
         <v>69</v>
       </c>
       <c r="C2278">
-        <v>6962.9</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25456,7 +25456,7 @@
         <v>70</v>
       </c>
       <c r="C2279">
-        <v>7002.9</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25467,7 +25467,7 @@
         <v>71</v>
       </c>
       <c r="C2280">
-        <v>7052.9</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -25478,7 +25478,7 @@
         <v>72</v>
       </c>
       <c r="C2281">
-        <v>7092.9</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25489,7 +25489,7 @@
         <v>73</v>
       </c>
       <c r="C2282">
-        <v>7578.1</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25500,7 +25500,7 @@
         <v>74</v>
       </c>
       <c r="C2283">
-        <v>7618.1</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25511,7 +25511,7 @@
         <v>75</v>
       </c>
       <c r="C2284">
-        <v>7658.1</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25522,7 +25522,7 @@
         <v>76</v>
       </c>
       <c r="C2285">
-        <v>7718.1</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25533,7 +25533,7 @@
         <v>77</v>
       </c>
       <c r="C2286">
-        <v>7330.8</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25544,7 +25544,7 @@
         <v>78</v>
       </c>
       <c r="C2287">
-        <v>7400.8</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25555,7 +25555,7 @@
         <v>79</v>
       </c>
       <c r="C2288">
-        <v>7460.8</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25566,7 +25566,7 @@
         <v>80</v>
       </c>
       <c r="C2289">
-        <v>7510.8</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25577,7 +25577,7 @@
         <v>81</v>
       </c>
       <c r="C2290">
-        <v>7328.1</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25588,7 +25588,7 @@
         <v>82</v>
       </c>
       <c r="C2291">
-        <v>7398.1</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25599,7 +25599,7 @@
         <v>83</v>
       </c>
       <c r="C2292">
-        <v>7438.1</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25610,7 +25610,7 @@
         <v>84</v>
       </c>
       <c r="C2293">
-        <v>7478.1</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25621,7 +25621,7 @@
         <v>85</v>
       </c>
       <c r="C2294">
-        <v>7264.8</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25632,7 +25632,7 @@
         <v>86</v>
       </c>
       <c r="C2295">
-        <v>7184.8</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25643,7 +25643,7 @@
         <v>87</v>
       </c>
       <c r="C2296">
-        <v>7124.8</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25654,7 +25654,7 @@
         <v>88</v>
       </c>
       <c r="C2297">
-        <v>7004.8</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25665,7 +25665,7 @@
         <v>89</v>
       </c>
       <c r="C2298">
-        <v>7084.1</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -25676,7 +25676,7 @@
         <v>90</v>
       </c>
       <c r="C2299">
-        <v>6934.1</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25687,7 +25687,7 @@
         <v>91</v>
       </c>
       <c r="C2300">
-        <v>6764.1</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25698,7 +25698,7 @@
         <v>92</v>
       </c>
       <c r="C2301">
-        <v>6634.1</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25709,7 +25709,7 @@
         <v>93</v>
       </c>
       <c r="C2302">
-        <v>6206.7</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25720,7 +25720,7 @@
         <v>94</v>
       </c>
       <c r="C2303">
-        <v>6016.7</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -25731,7 +25731,7 @@
         <v>95</v>
       </c>
       <c r="C2304">
-        <v>5936.7</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -25742,7 +25742,2119 @@
         <v>96</v>
       </c>
       <c r="C2305">
-        <v>5826.7</v>
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:3">
+      <c r="A2306" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2306">
+        <v>1</v>
+      </c>
+      <c r="C2306">
+        <v>5952.8</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:3">
+      <c r="A2307" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2307">
+        <v>2</v>
+      </c>
+      <c r="C2307">
+        <v>5902.8</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:3">
+      <c r="A2308" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2308">
+        <v>3</v>
+      </c>
+      <c r="C2308">
+        <v>5852.8</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:3">
+      <c r="A2309" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2309">
+        <v>4</v>
+      </c>
+      <c r="C2309">
+        <v>5802.8</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:3">
+      <c r="A2310" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2310">
+        <v>5</v>
+      </c>
+      <c r="C2310">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:3">
+      <c r="A2311" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2311">
+        <v>6</v>
+      </c>
+      <c r="C2311">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:3">
+      <c r="A2312" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2312">
+        <v>7</v>
+      </c>
+      <c r="C2312">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:3">
+      <c r="A2313" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2313">
+        <v>8</v>
+      </c>
+      <c r="C2313">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:3">
+      <c r="A2314" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2314">
+        <v>9</v>
+      </c>
+      <c r="C2314">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:3">
+      <c r="A2315" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2315">
+        <v>10</v>
+      </c>
+      <c r="C2315">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:3">
+      <c r="A2316" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2316">
+        <v>11</v>
+      </c>
+      <c r="C2316">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:3">
+      <c r="A2317" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2317">
+        <v>12</v>
+      </c>
+      <c r="C2317">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:3">
+      <c r="A2318" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2318">
+        <v>13</v>
+      </c>
+      <c r="C2318">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:3">
+      <c r="A2319" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2319">
+        <v>14</v>
+      </c>
+      <c r="C2319">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:3">
+      <c r="A2320" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2320">
+        <v>15</v>
+      </c>
+      <c r="C2320">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:3">
+      <c r="A2321" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2321">
+        <v>16</v>
+      </c>
+      <c r="C2321">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:3">
+      <c r="A2322" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2322">
+        <v>17</v>
+      </c>
+      <c r="C2322">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:3">
+      <c r="A2323" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2323">
+        <v>18</v>
+      </c>
+      <c r="C2323">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:3">
+      <c r="A2324" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2324">
+        <v>19</v>
+      </c>
+      <c r="C2324">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:3">
+      <c r="A2325" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2325">
+        <v>20</v>
+      </c>
+      <c r="C2325">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:3">
+      <c r="A2326" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2326">
+        <v>21</v>
+      </c>
+      <c r="C2326">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:3">
+      <c r="A2327" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2327">
+        <v>22</v>
+      </c>
+      <c r="C2327">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:3">
+      <c r="A2328" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2328">
+        <v>23</v>
+      </c>
+      <c r="C2328">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:3">
+      <c r="A2329" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2329">
+        <v>24</v>
+      </c>
+      <c r="C2329">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:3">
+      <c r="A2330" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2330">
+        <v>25</v>
+      </c>
+      <c r="C2330">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:3">
+      <c r="A2331" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2331">
+        <v>26</v>
+      </c>
+      <c r="C2331">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:3">
+      <c r="A2332" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2332">
+        <v>27</v>
+      </c>
+      <c r="C2332">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:3">
+      <c r="A2333" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2333">
+        <v>28</v>
+      </c>
+      <c r="C2333">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:3">
+      <c r="A2334" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2334">
+        <v>29</v>
+      </c>
+      <c r="C2334">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:3">
+      <c r="A2335" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2335">
+        <v>30</v>
+      </c>
+      <c r="C2335">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:3">
+      <c r="A2336" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2336">
+        <v>31</v>
+      </c>
+      <c r="C2336">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3">
+      <c r="A2337" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2337">
+        <v>32</v>
+      </c>
+      <c r="C2337">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:3">
+      <c r="A2338" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2338">
+        <v>33</v>
+      </c>
+      <c r="C2338">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:3">
+      <c r="A2339" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2339">
+        <v>34</v>
+      </c>
+      <c r="C2339">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:3">
+      <c r="A2340" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2340">
+        <v>35</v>
+      </c>
+      <c r="C2340">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:3">
+      <c r="A2341" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2341">
+        <v>36</v>
+      </c>
+      <c r="C2341">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:3">
+      <c r="A2342" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2342">
+        <v>37</v>
+      </c>
+      <c r="C2342">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:3">
+      <c r="A2343" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2343">
+        <v>38</v>
+      </c>
+      <c r="C2343">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:3">
+      <c r="A2344" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2344">
+        <v>39</v>
+      </c>
+      <c r="C2344">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:3">
+      <c r="A2345" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2345">
+        <v>40</v>
+      </c>
+      <c r="C2345">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:3">
+      <c r="A2346" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2346">
+        <v>41</v>
+      </c>
+      <c r="C2346">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:3">
+      <c r="A2347" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2347">
+        <v>42</v>
+      </c>
+      <c r="C2347">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:3">
+      <c r="A2348" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2348">
+        <v>43</v>
+      </c>
+      <c r="C2348">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:3">
+      <c r="A2349" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2349">
+        <v>44</v>
+      </c>
+      <c r="C2349">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:3">
+      <c r="A2350" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2350">
+        <v>45</v>
+      </c>
+      <c r="C2350">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:3">
+      <c r="A2351" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2351">
+        <v>46</v>
+      </c>
+      <c r="C2351">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:3">
+      <c r="A2352" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2352">
+        <v>47</v>
+      </c>
+      <c r="C2352">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:3">
+      <c r="A2353" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2353">
+        <v>48</v>
+      </c>
+      <c r="C2353">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:3">
+      <c r="A2354" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2354">
+        <v>49</v>
+      </c>
+      <c r="C2354">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:3">
+      <c r="A2355" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2355">
+        <v>50</v>
+      </c>
+      <c r="C2355">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:3">
+      <c r="A2356" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2356">
+        <v>51</v>
+      </c>
+      <c r="C2356">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:3">
+      <c r="A2357" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2357">
+        <v>52</v>
+      </c>
+      <c r="C2357">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:3">
+      <c r="A2358" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2358">
+        <v>53</v>
+      </c>
+      <c r="C2358">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:3">
+      <c r="A2359" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2359">
+        <v>54</v>
+      </c>
+      <c r="C2359">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:3">
+      <c r="A2360" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2360">
+        <v>55</v>
+      </c>
+      <c r="C2360">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:3">
+      <c r="A2361" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2361">
+        <v>56</v>
+      </c>
+      <c r="C2361">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:3">
+      <c r="A2362" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2362">
+        <v>57</v>
+      </c>
+      <c r="C2362">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:3">
+      <c r="A2363" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2363">
+        <v>58</v>
+      </c>
+      <c r="C2363">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:3">
+      <c r="A2364" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2364">
+        <v>59</v>
+      </c>
+      <c r="C2364">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:3">
+      <c r="A2365" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2365">
+        <v>60</v>
+      </c>
+      <c r="C2365">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:3">
+      <c r="A2366" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2366">
+        <v>61</v>
+      </c>
+      <c r="C2366">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:3">
+      <c r="A2367" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2367">
+        <v>62</v>
+      </c>
+      <c r="C2367">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:3">
+      <c r="A2368" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2368">
+        <v>63</v>
+      </c>
+      <c r="C2368">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:3">
+      <c r="A2369" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2369">
+        <v>64</v>
+      </c>
+      <c r="C2369">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:3">
+      <c r="A2370" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2370">
+        <v>65</v>
+      </c>
+      <c r="C2370">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:3">
+      <c r="A2371" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2371">
+        <v>66</v>
+      </c>
+      <c r="C2371">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:3">
+      <c r="A2372" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2372">
+        <v>67</v>
+      </c>
+      <c r="C2372">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:3">
+      <c r="A2373" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2373">
+        <v>68</v>
+      </c>
+      <c r="C2373">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:3">
+      <c r="A2374" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2374">
+        <v>69</v>
+      </c>
+      <c r="C2374">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:3">
+      <c r="A2375" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2375">
+        <v>70</v>
+      </c>
+      <c r="C2375">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:3">
+      <c r="A2376" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2376">
+        <v>71</v>
+      </c>
+      <c r="C2376">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:3">
+      <c r="A2377" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2377">
+        <v>72</v>
+      </c>
+      <c r="C2377">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:3">
+      <c r="A2378" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2378">
+        <v>73</v>
+      </c>
+      <c r="C2378">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:3">
+      <c r="A2379" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2379">
+        <v>74</v>
+      </c>
+      <c r="C2379">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:3">
+      <c r="A2380" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2380">
+        <v>75</v>
+      </c>
+      <c r="C2380">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:3">
+      <c r="A2381" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2381">
+        <v>76</v>
+      </c>
+      <c r="C2381">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:3">
+      <c r="A2382" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2382">
+        <v>77</v>
+      </c>
+      <c r="C2382">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:3">
+      <c r="A2383" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2383">
+        <v>78</v>
+      </c>
+      <c r="C2383">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:3">
+      <c r="A2384" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2384">
+        <v>79</v>
+      </c>
+      <c r="C2384">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:3">
+      <c r="A2385" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2385">
+        <v>80</v>
+      </c>
+      <c r="C2385">
+        <v>6281</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:3">
+      <c r="A2386" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2386">
+        <v>81</v>
+      </c>
+      <c r="C2386">
+        <v>6530</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:3">
+      <c r="A2387" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2387">
+        <v>82</v>
+      </c>
+      <c r="C2387">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:3">
+      <c r="A2388" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2388">
+        <v>83</v>
+      </c>
+      <c r="C2388">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:3">
+      <c r="A2389" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2389">
+        <v>84</v>
+      </c>
+      <c r="C2389">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:3">
+      <c r="A2390" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2390">
+        <v>85</v>
+      </c>
+      <c r="C2390">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:3">
+      <c r="A2391" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2391">
+        <v>86</v>
+      </c>
+      <c r="C2391">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:3">
+      <c r="A2392" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2392">
+        <v>87</v>
+      </c>
+      <c r="C2392">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:3">
+      <c r="A2393" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2393">
+        <v>88</v>
+      </c>
+      <c r="C2393">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:3">
+      <c r="A2394" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2394">
+        <v>89</v>
+      </c>
+      <c r="C2394">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:3">
+      <c r="A2395" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2395">
+        <v>90</v>
+      </c>
+      <c r="C2395">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:3">
+      <c r="A2396" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2396">
+        <v>91</v>
+      </c>
+      <c r="C2396">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:3">
+      <c r="A2397" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2397">
+        <v>92</v>
+      </c>
+      <c r="C2397">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:3">
+      <c r="A2398" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2398">
+        <v>93</v>
+      </c>
+      <c r="C2398">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:3">
+      <c r="A2399" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2399">
+        <v>94</v>
+      </c>
+      <c r="C2399">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:3">
+      <c r="A2400" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2400">
+        <v>95</v>
+      </c>
+      <c r="C2400">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:3">
+      <c r="A2401" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B2401">
+        <v>96</v>
+      </c>
+      <c r="C2401">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:3">
+      <c r="A2402" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2402">
+        <v>1</v>
+      </c>
+      <c r="C2402">
+        <v>5872.8</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:3">
+      <c r="A2403" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2403">
+        <v>2</v>
+      </c>
+      <c r="C2403">
+        <v>5832.8</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:3">
+      <c r="A2404" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2404">
+        <v>3</v>
+      </c>
+      <c r="C2404">
+        <v>5772.8</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:3">
+      <c r="A2405" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2405">
+        <v>4</v>
+      </c>
+      <c r="C2405">
+        <v>5712.8</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:3">
+      <c r="A2406" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2406">
+        <v>5</v>
+      </c>
+      <c r="C2406">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:3">
+      <c r="A2407" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2407">
+        <v>6</v>
+      </c>
+      <c r="C2407">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:3">
+      <c r="A2408" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2408">
+        <v>7</v>
+      </c>
+      <c r="C2408">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:3">
+      <c r="A2409" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2409">
+        <v>8</v>
+      </c>
+      <c r="C2409">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:3">
+      <c r="A2410" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2410">
+        <v>9</v>
+      </c>
+      <c r="C2410">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:3">
+      <c r="A2411" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2411">
+        <v>10</v>
+      </c>
+      <c r="C2411">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:3">
+      <c r="A2412" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2412">
+        <v>11</v>
+      </c>
+      <c r="C2412">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:3">
+      <c r="A2413" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2413">
+        <v>12</v>
+      </c>
+      <c r="C2413">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:3">
+      <c r="A2414" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2414">
+        <v>13</v>
+      </c>
+      <c r="C2414">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:3">
+      <c r="A2415" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2415">
+        <v>14</v>
+      </c>
+      <c r="C2415">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:3">
+      <c r="A2416" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2416">
+        <v>15</v>
+      </c>
+      <c r="C2416">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:3">
+      <c r="A2417" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2417">
+        <v>16</v>
+      </c>
+      <c r="C2417">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:3">
+      <c r="A2418" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2418">
+        <v>17</v>
+      </c>
+      <c r="C2418">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:3">
+      <c r="A2419" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2419">
+        <v>18</v>
+      </c>
+      <c r="C2419">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:3">
+      <c r="A2420" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2420">
+        <v>19</v>
+      </c>
+      <c r="C2420">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:3">
+      <c r="A2421" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2421">
+        <v>20</v>
+      </c>
+      <c r="C2421">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:3">
+      <c r="A2422" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2422">
+        <v>21</v>
+      </c>
+      <c r="C2422">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:3">
+      <c r="A2423" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2423">
+        <v>22</v>
+      </c>
+      <c r="C2423">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:3">
+      <c r="A2424" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2424">
+        <v>23</v>
+      </c>
+      <c r="C2424">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:3">
+      <c r="A2425" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2425">
+        <v>24</v>
+      </c>
+      <c r="C2425">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:3">
+      <c r="A2426" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2426">
+        <v>25</v>
+      </c>
+      <c r="C2426">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:3">
+      <c r="A2427" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2427">
+        <v>26</v>
+      </c>
+      <c r="C2427">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:3">
+      <c r="A2428" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2428">
+        <v>27</v>
+      </c>
+      <c r="C2428">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:3">
+      <c r="A2429" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2429">
+        <v>28</v>
+      </c>
+      <c r="C2429">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:3">
+      <c r="A2430" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2430">
+        <v>29</v>
+      </c>
+      <c r="C2430">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:3">
+      <c r="A2431" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2431">
+        <v>30</v>
+      </c>
+      <c r="C2431">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:3">
+      <c r="A2432" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2432">
+        <v>31</v>
+      </c>
+      <c r="C2432">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:3">
+      <c r="A2433" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2433">
+        <v>32</v>
+      </c>
+      <c r="C2433">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3">
+      <c r="A2434" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2434">
+        <v>33</v>
+      </c>
+      <c r="C2434">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3">
+      <c r="A2435" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2435">
+        <v>34</v>
+      </c>
+      <c r="C2435">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3">
+      <c r="A2436" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2436">
+        <v>35</v>
+      </c>
+      <c r="C2436">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3">
+      <c r="A2437" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2437">
+        <v>36</v>
+      </c>
+      <c r="C2437">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3">
+      <c r="A2438" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2438">
+        <v>37</v>
+      </c>
+      <c r="C2438">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3">
+      <c r="A2439" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2439">
+        <v>38</v>
+      </c>
+      <c r="C2439">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3">
+      <c r="A2440" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2440">
+        <v>39</v>
+      </c>
+      <c r="C2440">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3">
+      <c r="A2441" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2441">
+        <v>40</v>
+      </c>
+      <c r="C2441">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3">
+      <c r="A2442" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2442">
+        <v>41</v>
+      </c>
+      <c r="C2442">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3">
+      <c r="A2443" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2443">
+        <v>42</v>
+      </c>
+      <c r="C2443">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3">
+      <c r="A2444" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2444">
+        <v>43</v>
+      </c>
+      <c r="C2444">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:3">
+      <c r="A2445" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2445">
+        <v>44</v>
+      </c>
+      <c r="C2445">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3">
+      <c r="A2446" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2446">
+        <v>45</v>
+      </c>
+      <c r="C2446">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3">
+      <c r="A2447" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2447">
+        <v>46</v>
+      </c>
+      <c r="C2447">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3">
+      <c r="A2448" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2448">
+        <v>47</v>
+      </c>
+      <c r="C2448">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3">
+      <c r="A2449" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2449">
+        <v>48</v>
+      </c>
+      <c r="C2449">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3">
+      <c r="A2450" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2450">
+        <v>49</v>
+      </c>
+      <c r="C2450">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3">
+      <c r="A2451" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2451">
+        <v>50</v>
+      </c>
+      <c r="C2451">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:3">
+      <c r="A2452" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2452">
+        <v>51</v>
+      </c>
+      <c r="C2452">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3">
+      <c r="A2453" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2453">
+        <v>52</v>
+      </c>
+      <c r="C2453">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:3">
+      <c r="A2454" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2454">
+        <v>53</v>
+      </c>
+      <c r="C2454">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3">
+      <c r="A2455" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2455">
+        <v>54</v>
+      </c>
+      <c r="C2455">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3">
+      <c r="A2456" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2456">
+        <v>55</v>
+      </c>
+      <c r="C2456">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3">
+      <c r="A2457" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2457">
+        <v>56</v>
+      </c>
+      <c r="C2457">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3">
+      <c r="A2458" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2458">
+        <v>57</v>
+      </c>
+      <c r="C2458">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3">
+      <c r="A2459" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2459">
+        <v>58</v>
+      </c>
+      <c r="C2459">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3">
+      <c r="A2460" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2460">
+        <v>59</v>
+      </c>
+      <c r="C2460">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3">
+      <c r="A2461" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2461">
+        <v>60</v>
+      </c>
+      <c r="C2461">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:3">
+      <c r="A2462" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2462">
+        <v>61</v>
+      </c>
+      <c r="C2462">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3">
+      <c r="A2463" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2463">
+        <v>62</v>
+      </c>
+      <c r="C2463">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3">
+      <c r="A2464" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2464">
+        <v>63</v>
+      </c>
+      <c r="C2464">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3">
+      <c r="A2465" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2465">
+        <v>64</v>
+      </c>
+      <c r="C2465">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3">
+      <c r="A2466" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2466">
+        <v>65</v>
+      </c>
+      <c r="C2466">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3">
+      <c r="A2467" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2467">
+        <v>66</v>
+      </c>
+      <c r="C2467">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3">
+      <c r="A2468" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2468">
+        <v>67</v>
+      </c>
+      <c r="C2468">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3">
+      <c r="A2469" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2469">
+        <v>68</v>
+      </c>
+      <c r="C2469">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3">
+      <c r="A2470" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2470">
+        <v>69</v>
+      </c>
+      <c r="C2470">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3">
+      <c r="A2471" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2471">
+        <v>70</v>
+      </c>
+      <c r="C2471">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3">
+      <c r="A2472" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2472">
+        <v>71</v>
+      </c>
+      <c r="C2472">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3">
+      <c r="A2473" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2473">
+        <v>72</v>
+      </c>
+      <c r="C2473">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3">
+      <c r="A2474" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2474">
+        <v>73</v>
+      </c>
+      <c r="C2474">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3">
+      <c r="A2475" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2475">
+        <v>74</v>
+      </c>
+      <c r="C2475">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3">
+      <c r="A2476" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2476">
+        <v>75</v>
+      </c>
+      <c r="C2476">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3">
+      <c r="A2477" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2477">
+        <v>76</v>
+      </c>
+      <c r="C2477">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3">
+      <c r="A2478" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2478">
+        <v>77</v>
+      </c>
+      <c r="C2478">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3">
+      <c r="A2479" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2479">
+        <v>78</v>
+      </c>
+      <c r="C2479">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3">
+      <c r="A2480" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2480">
+        <v>79</v>
+      </c>
+      <c r="C2480">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3">
+      <c r="A2481" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2481">
+        <v>80</v>
+      </c>
+      <c r="C2481">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3">
+      <c r="A2482" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2482">
+        <v>81</v>
+      </c>
+      <c r="C2482">
+        <v>6490</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3">
+      <c r="A2483" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2483">
+        <v>82</v>
+      </c>
+      <c r="C2483">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3">
+      <c r="A2484" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2484">
+        <v>83</v>
+      </c>
+      <c r="C2484">
+        <v>6690</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3">
+      <c r="A2485" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2485">
+        <v>84</v>
+      </c>
+      <c r="C2485">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3">
+      <c r="A2486" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2486">
+        <v>85</v>
+      </c>
+      <c r="C2486">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3">
+      <c r="A2487" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2487">
+        <v>86</v>
+      </c>
+      <c r="C2487">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3">
+      <c r="A2488" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2488">
+        <v>87</v>
+      </c>
+      <c r="C2488">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3">
+      <c r="A2489" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2489">
+        <v>88</v>
+      </c>
+      <c r="C2489">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3">
+      <c r="A2490" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2490">
+        <v>89</v>
+      </c>
+      <c r="C2490">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3">
+      <c r="A2491" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2491">
+        <v>90</v>
+      </c>
+      <c r="C2491">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3">
+      <c r="A2492" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2492">
+        <v>91</v>
+      </c>
+      <c r="C2492">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3">
+      <c r="A2493" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2493">
+        <v>92</v>
+      </c>
+      <c r="C2493">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3">
+      <c r="A2494" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2494">
+        <v>93</v>
+      </c>
+      <c r="C2494">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3">
+      <c r="A2495" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2495">
+        <v>94</v>
+      </c>
+      <c r="C2495">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3">
+      <c r="A2496" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2496">
+        <v>95</v>
+      </c>
+      <c r="C2496">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3">
+      <c r="A2497" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B2497">
+        <v>96</v>
+      </c>
+      <c r="C2497">
+        <v>4931</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Weekly_Production_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Weekly_Production_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2497"/>
+  <dimension ref="A1:C2785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19417,7 +19417,7 @@
         <v>1</v>
       </c>
       <c r="C1730">
-        <v>4990</v>
+        <v>5495.3</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
@@ -19428,7 +19428,7 @@
         <v>2</v>
       </c>
       <c r="C1731">
-        <v>4950</v>
+        <v>5435.3</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
@@ -19439,7 +19439,7 @@
         <v>3</v>
       </c>
       <c r="C1732">
-        <v>4890</v>
+        <v>5385.3</v>
       </c>
     </row>
     <row r="1733" spans="1:3">
@@ -19450,7 +19450,7 @@
         <v>4</v>
       </c>
       <c r="C1733">
-        <v>4840</v>
+        <v>5345.3</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
@@ -19461,7 +19461,7 @@
         <v>5</v>
       </c>
       <c r="C1734">
-        <v>5725.8</v>
+        <v>5280.6</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
@@ -19472,7 +19472,7 @@
         <v>6</v>
       </c>
       <c r="C1735">
-        <v>5695.8</v>
+        <v>5240.6</v>
       </c>
     </row>
     <row r="1736" spans="1:3">
@@ -19483,7 +19483,7 @@
         <v>7</v>
       </c>
       <c r="C1736">
-        <v>5675.8</v>
+        <v>5200.6</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
@@ -19494,7 +19494,7 @@
         <v>8</v>
       </c>
       <c r="C1737">
-        <v>5645.8</v>
+        <v>5170.6</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
@@ -19505,7 +19505,7 @@
         <v>9</v>
       </c>
       <c r="C1738">
-        <v>5628.9</v>
+        <v>5257.5</v>
       </c>
     </row>
     <row r="1739" spans="1:3">
@@ -19516,7 +19516,7 @@
         <v>10</v>
       </c>
       <c r="C1739">
-        <v>5608.9</v>
+        <v>5237.5</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
@@ -19527,7 +19527,7 @@
         <v>11</v>
       </c>
       <c r="C1740">
-        <v>5588.9</v>
+        <v>5217.5</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
@@ -19538,7 +19538,7 @@
         <v>12</v>
       </c>
       <c r="C1741">
-        <v>5578.9</v>
+        <v>5207.5</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
@@ -19549,7 +19549,7 @@
         <v>13</v>
       </c>
       <c r="C1742">
-        <v>5623.9</v>
+        <v>5007.6</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
@@ -19560,7 +19560,7 @@
         <v>14</v>
       </c>
       <c r="C1743">
-        <v>5623.9</v>
+        <v>5007.6</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
@@ -19571,7 +19571,7 @@
         <v>15</v>
       </c>
       <c r="C1744">
-        <v>5633.9</v>
+        <v>5007.6</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
@@ -19582,7 +19582,7 @@
         <v>16</v>
       </c>
       <c r="C1745">
-        <v>5633.9</v>
+        <v>5017.6</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
@@ -19593,7 +19593,7 @@
         <v>17</v>
       </c>
       <c r="C1746">
-        <v>5328.8</v>
+        <v>4924.7</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
@@ -19604,7 +19604,7 @@
         <v>18</v>
       </c>
       <c r="C1747">
-        <v>5318.8</v>
+        <v>4934.7</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -19615,7 +19615,7 @@
         <v>19</v>
       </c>
       <c r="C1748">
-        <v>5328.8</v>
+        <v>4954.7</v>
       </c>
     </row>
     <row r="1749" spans="1:3">
@@ -19626,7 +19626,7 @@
         <v>20</v>
       </c>
       <c r="C1749">
-        <v>5338.8</v>
+        <v>4984.7</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
@@ -19637,7 +19637,7 @@
         <v>21</v>
       </c>
       <c r="C1750">
-        <v>5105.5</v>
+        <v>5018.2</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
@@ -19648,7 +19648,7 @@
         <v>22</v>
       </c>
       <c r="C1751">
-        <v>5155.5</v>
+        <v>5078.2</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
@@ -19659,7 +19659,7 @@
         <v>23</v>
       </c>
       <c r="C1752">
-        <v>5235.5</v>
+        <v>5148.2</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
@@ -19670,7 +19670,7 @@
         <v>24</v>
       </c>
       <c r="C1753">
-        <v>5335.5</v>
+        <v>5228.2</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
@@ -19681,7 +19681,7 @@
         <v>25</v>
       </c>
       <c r="C1754">
-        <v>5170.3</v>
+        <v>5064.5</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
@@ -19692,7 +19692,7 @@
         <v>26</v>
       </c>
       <c r="C1755">
-        <v>5310.3</v>
+        <v>5184.5</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
@@ -19703,7 +19703,7 @@
         <v>27</v>
       </c>
       <c r="C1756">
-        <v>5460.3</v>
+        <v>5324.5</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
@@ -19714,7 +19714,7 @@
         <v>28</v>
       </c>
       <c r="C1757">
-        <v>5610.3</v>
+        <v>5464.5</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
@@ -19725,7 +19725,7 @@
         <v>29</v>
       </c>
       <c r="C1758">
-        <v>5772</v>
+        <v>5265.9</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
@@ -19736,7 +19736,7 @@
         <v>30</v>
       </c>
       <c r="C1759">
-        <v>5912</v>
+        <v>5405.9</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
@@ -19747,7 +19747,7 @@
         <v>31</v>
       </c>
       <c r="C1760">
-        <v>6042</v>
+        <v>5525.9</v>
       </c>
     </row>
     <row r="1761" spans="1:3">
@@ -19758,7 +19758,7 @@
         <v>32</v>
       </c>
       <c r="C1761">
-        <v>6152</v>
+        <v>5625.9</v>
       </c>
     </row>
     <row r="1762" spans="1:3">
@@ -19769,7 +19769,7 @@
         <v>33</v>
       </c>
       <c r="C1762">
-        <v>5908.6</v>
+        <v>5357.4</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
@@ -19780,7 +19780,7 @@
         <v>34</v>
       </c>
       <c r="C1763">
-        <v>5978.6</v>
+        <v>5417.4</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
@@ -19791,7 +19791,7 @@
         <v>35</v>
       </c>
       <c r="C1764">
-        <v>6028.6</v>
+        <v>5427.4</v>
       </c>
     </row>
     <row r="1765" spans="1:3">
@@ -19802,7 +19802,7 @@
         <v>36</v>
       </c>
       <c r="C1765">
-        <v>6028.6</v>
+        <v>5427.4</v>
       </c>
     </row>
     <row r="1766" spans="1:3">
@@ -19813,7 +19813,7 @@
         <v>37</v>
       </c>
       <c r="C1766">
-        <v>5950</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
@@ -19824,7 +19824,7 @@
         <v>38</v>
       </c>
       <c r="C1767">
-        <v>5950</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
@@ -19835,7 +19835,7 @@
         <v>39</v>
       </c>
       <c r="C1768">
-        <v>5950</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
@@ -19846,7 +19846,7 @@
         <v>40</v>
       </c>
       <c r="C1769">
-        <v>5920</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="1770" spans="1:3">
@@ -19857,7 +19857,7 @@
         <v>41</v>
       </c>
       <c r="C1770">
-        <v>6024.3</v>
+        <v>5617.3</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
@@ -19868,7 +19868,7 @@
         <v>42</v>
       </c>
       <c r="C1771">
-        <v>5984.3</v>
+        <v>5547.3</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
@@ -19879,7 +19879,7 @@
         <v>43</v>
       </c>
       <c r="C1772">
-        <v>5934.3</v>
+        <v>5477.3</v>
       </c>
     </row>
     <row r="1773" spans="1:3">
@@ -19890,7 +19890,7 @@
         <v>44</v>
       </c>
       <c r="C1773">
-        <v>5884.3</v>
+        <v>5417.3</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
@@ -19901,7 +19901,7 @@
         <v>45</v>
       </c>
       <c r="C1774">
-        <v>5935.4</v>
+        <v>5554.8</v>
       </c>
     </row>
     <row r="1775" spans="1:3">
@@ -19912,7 +19912,7 @@
         <v>46</v>
       </c>
       <c r="C1775">
-        <v>5885.4</v>
+        <v>5504.8</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
@@ -19923,7 +19923,7 @@
         <v>47</v>
       </c>
       <c r="C1776">
-        <v>5845.4</v>
+        <v>5464.8</v>
       </c>
     </row>
     <row r="1777" spans="1:3">
@@ -19934,7 +19934,7 @@
         <v>48</v>
       </c>
       <c r="C1777">
-        <v>5805.4</v>
+        <v>5434.8</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
@@ -19945,7 +19945,7 @@
         <v>49</v>
       </c>
       <c r="C1778">
-        <v>5864.8</v>
+        <v>5477.9</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
@@ -19956,7 +19956,7 @@
         <v>50</v>
       </c>
       <c r="C1779">
-        <v>5834.8</v>
+        <v>5447.9</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
@@ -19967,7 +19967,7 @@
         <v>51</v>
       </c>
       <c r="C1780">
-        <v>5814.8</v>
+        <v>5417.9</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
@@ -19978,7 +19978,7 @@
         <v>52</v>
       </c>
       <c r="C1781">
-        <v>5794.8</v>
+        <v>5407.9</v>
       </c>
     </row>
     <row r="1782" spans="1:3">
@@ -19989,7 +19989,7 @@
         <v>53</v>
       </c>
       <c r="C1782">
-        <v>5731.8</v>
+        <v>5196.1</v>
       </c>
     </row>
     <row r="1783" spans="1:3">
@@ -20000,7 +20000,7 @@
         <v>54</v>
       </c>
       <c r="C1783">
-        <v>5721.8</v>
+        <v>5196.1</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
@@ -20011,7 +20011,7 @@
         <v>55</v>
       </c>
       <c r="C1784">
-        <v>5711.8</v>
+        <v>5196.1</v>
       </c>
     </row>
     <row r="1785" spans="1:3">
@@ -20022,7 +20022,7 @@
         <v>56</v>
       </c>
       <c r="C1785">
-        <v>5711.8</v>
+        <v>5186.1</v>
       </c>
     </row>
     <row r="1786" spans="1:3">
@@ -20033,7 +20033,7 @@
         <v>57</v>
       </c>
       <c r="C1786">
-        <v>6029.8</v>
+        <v>5243.7</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
@@ -20044,7 +20044,7 @@
         <v>58</v>
       </c>
       <c r="C1787">
-        <v>6019.8</v>
+        <v>5223.7</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
@@ -20055,7 +20055,7 @@
         <v>59</v>
       </c>
       <c r="C1788">
-        <v>6019.8</v>
+        <v>5223.7</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
@@ -20066,7 +20066,7 @@
         <v>60</v>
       </c>
       <c r="C1789">
-        <v>6009.8</v>
+        <v>5223.7</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
@@ -20077,7 +20077,7 @@
         <v>61</v>
       </c>
       <c r="C1790">
-        <v>6132.9</v>
+        <v>5369.3</v>
       </c>
     </row>
     <row r="1791" spans="1:3">
@@ -20088,7 +20088,7 @@
         <v>62</v>
       </c>
       <c r="C1791">
-        <v>6122.9</v>
+        <v>5369.3</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
@@ -20099,7 +20099,7 @@
         <v>63</v>
       </c>
       <c r="C1792">
-        <v>6122.9</v>
+        <v>5369.3</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
@@ -20110,7 +20110,7 @@
         <v>64</v>
       </c>
       <c r="C1793">
-        <v>6112.9</v>
+        <v>5379.3</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
@@ -20121,7 +20121,7 @@
         <v>65</v>
       </c>
       <c r="C1794">
-        <v>6222.6</v>
+        <v>5607.9</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
@@ -20132,7 +20132,7 @@
         <v>66</v>
       </c>
       <c r="C1795">
-        <v>6232.6</v>
+        <v>5637.9</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
@@ -20143,7 +20143,7 @@
         <v>67</v>
       </c>
       <c r="C1796">
-        <v>6252.6</v>
+        <v>5687.9</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
@@ -20154,7 +20154,7 @@
         <v>68</v>
       </c>
       <c r="C1797">
-        <v>6282.6</v>
+        <v>5737.9</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
@@ -20165,7 +20165,7 @@
         <v>69</v>
       </c>
       <c r="C1798">
-        <v>6159.7</v>
+        <v>5464.5</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
@@ -20176,7 +20176,7 @@
         <v>70</v>
       </c>
       <c r="C1799">
-        <v>6189.7</v>
+        <v>5514.5</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
@@ -20187,7 +20187,7 @@
         <v>71</v>
       </c>
       <c r="C1800">
-        <v>6219.7</v>
+        <v>5564.5</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
@@ -20198,7 +20198,7 @@
         <v>72</v>
       </c>
       <c r="C1801">
-        <v>6239.7</v>
+        <v>5604.5</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
@@ -20209,7 +20209,7 @@
         <v>73</v>
       </c>
       <c r="C1802">
-        <v>6119.8</v>
+        <v>5539.5</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
@@ -20220,7 +20220,7 @@
         <v>74</v>
       </c>
       <c r="C1803">
-        <v>6159.8</v>
+        <v>5589.5</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
@@ -20231,7 +20231,7 @@
         <v>75</v>
       </c>
       <c r="C1804">
-        <v>6209.8</v>
+        <v>5639.5</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
@@ -20242,7 +20242,7 @@
         <v>76</v>
       </c>
       <c r="C1805">
-        <v>6279.8</v>
+        <v>5709.5</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
@@ -20253,7 +20253,7 @@
         <v>77</v>
       </c>
       <c r="C1806">
-        <v>6051.7</v>
+        <v>5576.2</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
@@ -20264,7 +20264,7 @@
         <v>78</v>
       </c>
       <c r="C1807">
-        <v>6151.7</v>
+        <v>5676.2</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
@@ -20275,7 +20275,7 @@
         <v>79</v>
       </c>
       <c r="C1808">
-        <v>6251.7</v>
+        <v>5776.2</v>
       </c>
     </row>
     <row r="1809" spans="1:3">
@@ -20286,7 +20286,7 @@
         <v>80</v>
       </c>
       <c r="C1809">
-        <v>6351.7</v>
+        <v>5876.2</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
@@ -20297,7 +20297,7 @@
         <v>81</v>
       </c>
       <c r="C1810">
-        <v>6151.2</v>
+        <v>5720.6</v>
       </c>
     </row>
     <row r="1811" spans="1:3">
@@ -20308,7 +20308,7 @@
         <v>82</v>
       </c>
       <c r="C1811">
-        <v>6241.2</v>
+        <v>5820.6</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
@@ -20319,7 +20319,7 @@
         <v>83</v>
       </c>
       <c r="C1812">
-        <v>6261.2</v>
+        <v>5860.6</v>
       </c>
     </row>
     <row r="1813" spans="1:3">
@@ -20330,7 +20330,7 @@
         <v>84</v>
       </c>
       <c r="C1813">
-        <v>6261.2</v>
+        <v>5870.6</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
@@ -20341,7 +20341,7 @@
         <v>85</v>
       </c>
       <c r="C1814">
-        <v>6238.5</v>
+        <v>5889.1</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
@@ -20352,7 +20352,7 @@
         <v>86</v>
       </c>
       <c r="C1815">
-        <v>6138.5</v>
+        <v>5789.1</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
@@ -20363,7 +20363,7 @@
         <v>87</v>
       </c>
       <c r="C1816">
-        <v>6068.5</v>
+        <v>5719.1</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
@@ -20374,7 +20374,7 @@
         <v>88</v>
       </c>
       <c r="C1817">
-        <v>5988.5</v>
+        <v>5599.1</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
@@ -20385,7 +20385,7 @@
         <v>89</v>
       </c>
       <c r="C1818">
-        <v>6305.5</v>
+        <v>5832.4</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
@@ -20396,7 +20396,7 @@
         <v>90</v>
       </c>
       <c r="C1819">
-        <v>6195.5</v>
+        <v>5692.4</v>
       </c>
     </row>
     <row r="1820" spans="1:3">
@@ -20407,7 +20407,7 @@
         <v>91</v>
       </c>
       <c r="C1820">
-        <v>6015.5</v>
+        <v>5512.4</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
@@ -20418,7 +20418,7 @@
         <v>92</v>
       </c>
       <c r="C1821">
-        <v>5875.5</v>
+        <v>5362.4</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
@@ -20429,7 +20429,7 @@
         <v>93</v>
       </c>
       <c r="C1822">
-        <v>6091.9</v>
+        <v>5527.8</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
@@ -20440,7 +20440,7 @@
         <v>94</v>
       </c>
       <c r="C1823">
-        <v>5911.9</v>
+        <v>5357.8</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
@@ -20451,7 +20451,7 @@
         <v>95</v>
       </c>
       <c r="C1824">
-        <v>5831.9</v>
+        <v>5247.8</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
@@ -20462,7 +20462,7 @@
         <v>96</v>
       </c>
       <c r="C1825">
-        <v>5721.9</v>
+        <v>5137.8</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="C1826">
-        <v>6132.8</v>
+        <v>5230.1</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
@@ -20484,7 +20484,7 @@
         <v>2</v>
       </c>
       <c r="C1827">
-        <v>6072.8</v>
+        <v>5170.1</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
@@ -20495,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="C1828">
-        <v>6022.8</v>
+        <v>5110.1</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
@@ -20506,7 +20506,7 @@
         <v>4</v>
       </c>
       <c r="C1829">
-        <v>5962.8</v>
+        <v>5060.1</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
@@ -20517,7 +20517,7 @@
         <v>5</v>
       </c>
       <c r="C1830">
-        <v>4758</v>
+        <v>5020.4</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
@@ -20528,7 +20528,7 @@
         <v>6</v>
       </c>
       <c r="C1831">
-        <v>4698</v>
+        <v>4960.4</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
@@ -20539,7 +20539,7 @@
         <v>7</v>
       </c>
       <c r="C1832">
-        <v>4648</v>
+        <v>4920.4</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
@@ -20550,7 +20550,7 @@
         <v>8</v>
       </c>
       <c r="C1833">
-        <v>4608</v>
+        <v>4880.4</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
@@ -20561,7 +20561,7 @@
         <v>9</v>
       </c>
       <c r="C1834">
-        <v>4588</v>
+        <v>4919.5</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
@@ -20572,7 +20572,7 @@
         <v>10</v>
       </c>
       <c r="C1835">
-        <v>4548</v>
+        <v>4899.5</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
@@ -20583,7 +20583,7 @@
         <v>11</v>
       </c>
       <c r="C1836">
-        <v>4518</v>
+        <v>4879.5</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
@@ -20594,7 +20594,7 @@
         <v>12</v>
       </c>
       <c r="C1837">
-        <v>4498</v>
+        <v>4859.5</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
@@ -20605,7 +20605,7 @@
         <v>13</v>
       </c>
       <c r="C1838">
-        <v>4480</v>
+        <v>5000.8</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
@@ -20616,7 +20616,7 @@
         <v>14</v>
       </c>
       <c r="C1839">
-        <v>4470</v>
+        <v>4990.8</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
@@ -20627,7 +20627,7 @@
         <v>15</v>
       </c>
       <c r="C1840">
-        <v>4460</v>
+        <v>4990.8</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
@@ -20638,7 +20638,7 @@
         <v>16</v>
       </c>
       <c r="C1841">
-        <v>4460</v>
+        <v>5000.8</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
@@ -20649,7 +20649,7 @@
         <v>17</v>
       </c>
       <c r="C1842">
-        <v>4461</v>
+        <v>5049.6</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
@@ -20660,7 +20660,7 @@
         <v>18</v>
       </c>
       <c r="C1843">
-        <v>4471</v>
+        <v>5059.6</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
@@ -20671,7 +20671,7 @@
         <v>19</v>
       </c>
       <c r="C1844">
-        <v>4481</v>
+        <v>5069.6</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
@@ -20682,7 +20682,7 @@
         <v>20</v>
       </c>
       <c r="C1845">
-        <v>4491</v>
+        <v>5079.6</v>
       </c>
     </row>
     <row r="1846" spans="1:3">
@@ -20693,7 +20693,7 @@
         <v>21</v>
       </c>
       <c r="C1846">
-        <v>4511</v>
+        <v>5184.4</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
@@ -20704,7 +20704,7 @@
         <v>22</v>
       </c>
       <c r="C1847">
-        <v>4531</v>
+        <v>5204.4</v>
       </c>
     </row>
     <row r="1848" spans="1:3">
@@ -20715,7 +20715,7 @@
         <v>23</v>
       </c>
       <c r="C1848">
-        <v>4561</v>
+        <v>5224.4</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
@@ -20726,7 +20726,7 @@
         <v>24</v>
       </c>
       <c r="C1849">
-        <v>4591</v>
+        <v>5254.4</v>
       </c>
     </row>
     <row r="1850" spans="1:3">
@@ -20737,7 +20737,7 @@
         <v>25</v>
       </c>
       <c r="C1850">
-        <v>4631</v>
+        <v>5384.8</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
@@ -20748,7 +20748,7 @@
         <v>26</v>
       </c>
       <c r="C1851">
-        <v>4681</v>
+        <v>5414.8</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
@@ -20759,7 +20759,7 @@
         <v>27</v>
       </c>
       <c r="C1852">
-        <v>4721</v>
+        <v>5434.8</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
@@ -20770,7 +20770,7 @@
         <v>28</v>
       </c>
       <c r="C1853">
-        <v>4781</v>
+        <v>5474.8</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
@@ -20781,7 +20781,7 @@
         <v>29</v>
       </c>
       <c r="C1854">
-        <v>4700</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
@@ -20792,7 +20792,7 @@
         <v>30</v>
       </c>
       <c r="C1855">
-        <v>4760</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
@@ -20803,7 +20803,7 @@
         <v>31</v>
       </c>
       <c r="C1856">
-        <v>4820</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
@@ -20814,7 +20814,7 @@
         <v>32</v>
       </c>
       <c r="C1857">
-        <v>4870</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
@@ -20825,7 +20825,7 @@
         <v>33</v>
       </c>
       <c r="C1858">
-        <v>5019</v>
+        <v>5961.6</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
@@ -20836,7 +20836,7 @@
         <v>34</v>
       </c>
       <c r="C1859">
-        <v>5069</v>
+        <v>5991.6</v>
       </c>
     </row>
     <row r="1860" spans="1:3">
@@ -20847,7 +20847,7 @@
         <v>35</v>
       </c>
       <c r="C1860">
-        <v>5089</v>
+        <v>6011.6</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
@@ -20858,7 +20858,7 @@
         <v>36</v>
       </c>
       <c r="C1861">
-        <v>5089</v>
+        <v>6011.6</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
@@ -20869,7 +20869,7 @@
         <v>37</v>
       </c>
       <c r="C1862">
-        <v>5098</v>
+        <v>6475.7</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
@@ -20880,7 +20880,7 @@
         <v>38</v>
       </c>
       <c r="C1863">
-        <v>5068</v>
+        <v>6445.7</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
@@ -20891,7 +20891,7 @@
         <v>39</v>
       </c>
       <c r="C1864">
-        <v>5028</v>
+        <v>6415.7</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
@@ -20902,7 +20902,7 @@
         <v>40</v>
       </c>
       <c r="C1865">
-        <v>4978</v>
+        <v>6375.7</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
@@ -20913,7 +20913,7 @@
         <v>41</v>
       </c>
       <c r="C1866">
-        <v>4865</v>
+        <v>6673.9</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
@@ -20924,7 +20924,7 @@
         <v>42</v>
       </c>
       <c r="C1867">
-        <v>4815</v>
+        <v>6633.9</v>
       </c>
     </row>
     <row r="1868" spans="1:3">
@@ -20935,7 +20935,7 @@
         <v>43</v>
       </c>
       <c r="C1868">
-        <v>4765</v>
+        <v>6593.9</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
@@ -20946,7 +20946,7 @@
         <v>44</v>
       </c>
       <c r="C1869">
-        <v>4715</v>
+        <v>6553.9</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
@@ -20957,7 +20957,7 @@
         <v>45</v>
       </c>
       <c r="C1870">
-        <v>4669</v>
+        <v>6825.7</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
@@ -20968,7 +20968,7 @@
         <v>46</v>
       </c>
       <c r="C1871">
-        <v>4639</v>
+        <v>6805.7</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
@@ -20979,7 +20979,7 @@
         <v>47</v>
       </c>
       <c r="C1872">
-        <v>4619</v>
+        <v>6785.7</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
@@ -20990,7 +20990,7 @@
         <v>48</v>
       </c>
       <c r="C1873">
-        <v>4589</v>
+        <v>6765.7</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
@@ -21001,7 +21001,7 @@
         <v>49</v>
       </c>
       <c r="C1874">
-        <v>4733</v>
+        <v>6824.6</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
@@ -21012,7 +21012,7 @@
         <v>50</v>
       </c>
       <c r="C1875">
-        <v>4713</v>
+        <v>6814.6</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
@@ -21023,7 +21023,7 @@
         <v>51</v>
       </c>
       <c r="C1876">
-        <v>4693</v>
+        <v>6804.6</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
@@ -21034,7 +21034,7 @@
         <v>52</v>
       </c>
       <c r="C1877">
-        <v>4673</v>
+        <v>6794.6</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
@@ -21045,7 +21045,7 @@
         <v>53</v>
       </c>
       <c r="C1878">
-        <v>4679</v>
+        <v>6657.3</v>
       </c>
     </row>
     <row r="1879" spans="1:3">
@@ -21056,7 +21056,7 @@
         <v>54</v>
       </c>
       <c r="C1879">
-        <v>4659</v>
+        <v>6647.3</v>
       </c>
     </row>
     <row r="1880" spans="1:3">
@@ -21067,7 +21067,7 @@
         <v>55</v>
       </c>
       <c r="C1880">
-        <v>4649</v>
+        <v>6647.3</v>
       </c>
     </row>
     <row r="1881" spans="1:3">
@@ -21078,7 +21078,7 @@
         <v>56</v>
       </c>
       <c r="C1881">
-        <v>4649</v>
+        <v>6647.3</v>
       </c>
     </row>
     <row r="1882" spans="1:3">
@@ -21089,7 +21089,7 @@
         <v>57</v>
       </c>
       <c r="C1882">
-        <v>4701</v>
+        <v>6648.5</v>
       </c>
     </row>
     <row r="1883" spans="1:3">
@@ -21100,7 +21100,7 @@
         <v>58</v>
       </c>
       <c r="C1883">
-        <v>4721</v>
+        <v>6668.5</v>
       </c>
     </row>
     <row r="1884" spans="1:3">
@@ -21111,7 +21111,7 @@
         <v>59</v>
       </c>
       <c r="C1884">
-        <v>4731</v>
+        <v>6668.5</v>
       </c>
     </row>
     <row r="1885" spans="1:3">
@@ -21122,7 +21122,7 @@
         <v>60</v>
       </c>
       <c r="C1885">
-        <v>4751</v>
+        <v>6688.5</v>
       </c>
     </row>
     <row r="1886" spans="1:3">
@@ -21133,7 +21133,7 @@
         <v>61</v>
       </c>
       <c r="C1886">
-        <v>4754</v>
+        <v>6255.5</v>
       </c>
     </row>
     <row r="1887" spans="1:3">
@@ -21144,7 +21144,7 @@
         <v>62</v>
       </c>
       <c r="C1887">
-        <v>4774</v>
+        <v>6275.5</v>
       </c>
     </row>
     <row r="1888" spans="1:3">
@@ -21155,7 +21155,7 @@
         <v>63</v>
       </c>
       <c r="C1888">
-        <v>4784</v>
+        <v>6285.5</v>
       </c>
     </row>
     <row r="1889" spans="1:3">
@@ -21166,7 +21166,7 @@
         <v>64</v>
       </c>
       <c r="C1889">
-        <v>4804</v>
+        <v>6305.5</v>
       </c>
     </row>
     <row r="1890" spans="1:3">
@@ -21177,7 +21177,7 @@
         <v>65</v>
       </c>
       <c r="C1890">
-        <v>4648</v>
+        <v>6428.6</v>
       </c>
     </row>
     <row r="1891" spans="1:3">
@@ -21188,7 +21188,7 @@
         <v>66</v>
       </c>
       <c r="C1891">
-        <v>4678</v>
+        <v>6468.6</v>
       </c>
     </row>
     <row r="1892" spans="1:3">
@@ -21199,7 +21199,7 @@
         <v>67</v>
       </c>
       <c r="C1892">
-        <v>4728</v>
+        <v>6518.6</v>
       </c>
     </row>
     <row r="1893" spans="1:3">
@@ -21210,7 +21210,7 @@
         <v>68</v>
       </c>
       <c r="C1893">
-        <v>4788</v>
+        <v>6578.6</v>
       </c>
     </row>
     <row r="1894" spans="1:3">
@@ -21221,7 +21221,7 @@
         <v>69</v>
       </c>
       <c r="C1894">
-        <v>4933</v>
+        <v>6409.1</v>
       </c>
     </row>
     <row r="1895" spans="1:3">
@@ -21232,7 +21232,7 @@
         <v>70</v>
       </c>
       <c r="C1895">
-        <v>5013</v>
+        <v>6469.1</v>
       </c>
     </row>
     <row r="1896" spans="1:3">
@@ -21243,7 +21243,7 @@
         <v>71</v>
       </c>
       <c r="C1896">
-        <v>5083</v>
+        <v>6549.1</v>
       </c>
     </row>
     <row r="1897" spans="1:3">
@@ -21254,7 +21254,7 @@
         <v>72</v>
       </c>
       <c r="C1897">
-        <v>5153</v>
+        <v>6619.1</v>
       </c>
     </row>
     <row r="1898" spans="1:3">
@@ -21265,7 +21265,7 @@
         <v>73</v>
       </c>
       <c r="C1898">
-        <v>5213</v>
+        <v>6659.7</v>
       </c>
     </row>
     <row r="1899" spans="1:3">
@@ -21276,7 +21276,7 @@
         <v>74</v>
       </c>
       <c r="C1899">
-        <v>5283</v>
+        <v>6719.7</v>
       </c>
     </row>
     <row r="1900" spans="1:3">
@@ -21287,7 +21287,7 @@
         <v>75</v>
       </c>
       <c r="C1900">
-        <v>5353</v>
+        <v>6789.7</v>
       </c>
     </row>
     <row r="1901" spans="1:3">
@@ -21298,7 +21298,7 @@
         <v>76</v>
       </c>
       <c r="C1901">
-        <v>5443</v>
+        <v>6879.7</v>
       </c>
     </row>
     <row r="1902" spans="1:3">
@@ -21309,7 +21309,7 @@
         <v>77</v>
       </c>
       <c r="C1902">
-        <v>5601</v>
+        <v>6573.6</v>
       </c>
     </row>
     <row r="1903" spans="1:3">
@@ -21320,7 +21320,7 @@
         <v>78</v>
       </c>
       <c r="C1903">
-        <v>5721</v>
+        <v>6693.6</v>
       </c>
     </row>
     <row r="1904" spans="1:3">
@@ -21331,7 +21331,7 @@
         <v>79</v>
       </c>
       <c r="C1904">
-        <v>5841</v>
+        <v>6793.6</v>
       </c>
     </row>
     <row r="1905" spans="1:3">
@@ -21342,7 +21342,7 @@
         <v>80</v>
       </c>
       <c r="C1905">
-        <v>5941</v>
+        <v>6913.6</v>
       </c>
     </row>
     <row r="1906" spans="1:3">
@@ -21353,7 +21353,7 @@
         <v>81</v>
       </c>
       <c r="C1906">
-        <v>6160</v>
+        <v>6714.9</v>
       </c>
     </row>
     <row r="1907" spans="1:3">
@@ -21364,7 +21364,7 @@
         <v>82</v>
       </c>
       <c r="C1907">
-        <v>6250</v>
+        <v>6794.9</v>
       </c>
     </row>
     <row r="1908" spans="1:3">
@@ -21375,7 +21375,7 @@
         <v>83</v>
       </c>
       <c r="C1908">
-        <v>6260</v>
+        <v>6844.9</v>
       </c>
     </row>
     <row r="1909" spans="1:3">
@@ -21386,7 +21386,7 @@
         <v>84</v>
       </c>
       <c r="C1909">
-        <v>6260</v>
+        <v>6854.9</v>
       </c>
     </row>
     <row r="1910" spans="1:3">
@@ -21397,7 +21397,7 @@
         <v>85</v>
       </c>
       <c r="C1910">
-        <v>6241</v>
+        <v>6717.6</v>
       </c>
     </row>
     <row r="1911" spans="1:3">
@@ -21408,7 +21408,7 @@
         <v>86</v>
       </c>
       <c r="C1911">
-        <v>6141</v>
+        <v>6657.6</v>
       </c>
     </row>
     <row r="1912" spans="1:3">
@@ -21419,7 +21419,7 @@
         <v>87</v>
       </c>
       <c r="C1912">
-        <v>6081</v>
+        <v>6567.6</v>
       </c>
     </row>
     <row r="1913" spans="1:3">
@@ -21430,7 +21430,7 @@
         <v>88</v>
       </c>
       <c r="C1913">
-        <v>6001</v>
+        <v>6467.6</v>
       </c>
     </row>
     <row r="1914" spans="1:3">
@@ -21441,7 +21441,7 @@
         <v>89</v>
       </c>
       <c r="C1914">
-        <v>5791</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="1915" spans="1:3">
@@ -21452,7 +21452,7 @@
         <v>90</v>
       </c>
       <c r="C1915">
-        <v>5681</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="1916" spans="1:3">
@@ -21463,7 +21463,7 @@
         <v>91</v>
       </c>
       <c r="C1916">
-        <v>5521</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="1917" spans="1:3">
@@ -21474,7 +21474,7 @@
         <v>92</v>
       </c>
       <c r="C1917">
-        <v>5381</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
@@ -21485,7 +21485,7 @@
         <v>93</v>
       </c>
       <c r="C1918">
-        <v>5091</v>
+        <v>6431.8</v>
       </c>
     </row>
     <row r="1919" spans="1:3">
@@ -21496,7 +21496,7 @@
         <v>94</v>
       </c>
       <c r="C1919">
-        <v>4931</v>
+        <v>6291.8</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
@@ -21507,7 +21507,7 @@
         <v>95</v>
       </c>
       <c r="C1920">
-        <v>4841</v>
+        <v>6181.8</v>
       </c>
     </row>
     <row r="1921" spans="1:3">
@@ -21518,7 +21518,7 @@
         <v>96</v>
       </c>
       <c r="C1921">
-        <v>4731</v>
+        <v>6071.8</v>
       </c>
     </row>
     <row r="1922" spans="1:3">
@@ -21529,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="C1922">
-        <v>5832.8</v>
+        <v>6087.5</v>
       </c>
     </row>
     <row r="1923" spans="1:3">
@@ -21540,7 +21540,7 @@
         <v>2</v>
       </c>
       <c r="C1923">
-        <v>5772.8</v>
+        <v>6027.5</v>
       </c>
     </row>
     <row r="1924" spans="1:3">
@@ -21551,7 +21551,7 @@
         <v>3</v>
       </c>
       <c r="C1924">
-        <v>5722.8</v>
+        <v>5977.5</v>
       </c>
     </row>
     <row r="1925" spans="1:3">
@@ -21562,7 +21562,7 @@
         <v>4</v>
       </c>
       <c r="C1925">
-        <v>5652.8</v>
+        <v>5917.5</v>
       </c>
     </row>
     <row r="1926" spans="1:3">
@@ -21573,7 +21573,7 @@
         <v>5</v>
       </c>
       <c r="C1926">
-        <v>4428</v>
+        <v>5775.7</v>
       </c>
     </row>
     <row r="1927" spans="1:3">
@@ -21584,7 +21584,7 @@
         <v>6</v>
       </c>
       <c r="C1927">
-        <v>4368</v>
+        <v>5715.7</v>
       </c>
     </row>
     <row r="1928" spans="1:3">
@@ -21595,7 +21595,7 @@
         <v>7</v>
       </c>
       <c r="C1928">
-        <v>4318</v>
+        <v>5675.7</v>
       </c>
     </row>
     <row r="1929" spans="1:3">
@@ -21606,7 +21606,7 @@
         <v>8</v>
       </c>
       <c r="C1929">
-        <v>4278</v>
+        <v>5635.7</v>
       </c>
     </row>
     <row r="1930" spans="1:3">
@@ -21617,7 +21617,7 @@
         <v>9</v>
       </c>
       <c r="C1930">
-        <v>4268</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="1931" spans="1:3">
@@ -21628,7 +21628,7 @@
         <v>10</v>
       </c>
       <c r="C1931">
-        <v>4248</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="1932" spans="1:3">
@@ -21639,7 +21639,7 @@
         <v>11</v>
       </c>
       <c r="C1932">
-        <v>4218</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="1933" spans="1:3">
@@ -21650,7 +21650,7 @@
         <v>12</v>
       </c>
       <c r="C1933">
-        <v>4198</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="1934" spans="1:3">
@@ -21661,7 +21661,7 @@
         <v>13</v>
       </c>
       <c r="C1934">
-        <v>4180</v>
+        <v>5723.4</v>
       </c>
     </row>
     <row r="1935" spans="1:3">
@@ -21672,7 +21672,7 @@
         <v>14</v>
       </c>
       <c r="C1935">
-        <v>4160</v>
+        <v>5713.4</v>
       </c>
     </row>
     <row r="1936" spans="1:3">
@@ -21683,7 +21683,7 @@
         <v>15</v>
       </c>
       <c r="C1936">
-        <v>4140</v>
+        <v>5703.4</v>
       </c>
     </row>
     <row r="1937" spans="1:3">
@@ -21694,7 +21694,7 @@
         <v>16</v>
       </c>
       <c r="C1937">
-        <v>4130</v>
+        <v>5683.4</v>
       </c>
     </row>
     <row r="1938" spans="1:3">
@@ -21705,7 +21705,7 @@
         <v>17</v>
       </c>
       <c r="C1938">
-        <v>4121</v>
+        <v>5575.3</v>
       </c>
     </row>
     <row r="1939" spans="1:3">
@@ -21716,7 +21716,7 @@
         <v>18</v>
       </c>
       <c r="C1939">
-        <v>4111</v>
+        <v>5575.3</v>
       </c>
     </row>
     <row r="1940" spans="1:3">
@@ -21727,7 +21727,7 @@
         <v>19</v>
       </c>
       <c r="C1940">
-        <v>4111</v>
+        <v>5575.3</v>
       </c>
     </row>
     <row r="1941" spans="1:3">
@@ -21738,7 +21738,7 @@
         <v>20</v>
       </c>
       <c r="C1941">
-        <v>4121</v>
+        <v>5575.3</v>
       </c>
     </row>
     <row r="1942" spans="1:3">
@@ -21749,7 +21749,7 @@
         <v>21</v>
       </c>
       <c r="C1942">
-        <v>4131</v>
+        <v>5539.2</v>
       </c>
     </row>
     <row r="1943" spans="1:3">
@@ -21760,7 +21760,7 @@
         <v>22</v>
       </c>
       <c r="C1943">
-        <v>4141</v>
+        <v>5539.2</v>
       </c>
     </row>
     <row r="1944" spans="1:3">
@@ -21771,7 +21771,7 @@
         <v>23</v>
       </c>
       <c r="C1944">
-        <v>4161</v>
+        <v>5539.2</v>
       </c>
     </row>
     <row r="1945" spans="1:3">
@@ -21782,7 +21782,7 @@
         <v>24</v>
       </c>
       <c r="C1945">
-        <v>4171</v>
+        <v>5539.2</v>
       </c>
     </row>
     <row r="1946" spans="1:3">
@@ -21793,7 +21793,7 @@
         <v>25</v>
       </c>
       <c r="C1946">
-        <v>4191</v>
+        <v>5519.2</v>
       </c>
     </row>
     <row r="1947" spans="1:3">
@@ -21804,7 +21804,7 @@
         <v>26</v>
       </c>
       <c r="C1947">
-        <v>4211</v>
+        <v>5529.2</v>
       </c>
     </row>
     <row r="1948" spans="1:3">
@@ -21815,7 +21815,7 @@
         <v>27</v>
       </c>
       <c r="C1948">
-        <v>4231</v>
+        <v>5529.2</v>
       </c>
     </row>
     <row r="1949" spans="1:3">
@@ -21826,7 +21826,7 @@
         <v>28</v>
       </c>
       <c r="C1949">
-        <v>4241</v>
+        <v>5539.2</v>
       </c>
     </row>
     <row r="1950" spans="1:3">
@@ -21837,7 +21837,7 @@
         <v>29</v>
       </c>
       <c r="C1950">
-        <v>4130</v>
+        <v>5540.4</v>
       </c>
     </row>
     <row r="1951" spans="1:3">
@@ -21848,7 +21848,7 @@
         <v>30</v>
       </c>
       <c r="C1951">
-        <v>4150</v>
+        <v>5550.4</v>
       </c>
     </row>
     <row r="1952" spans="1:3">
@@ -21859,7 +21859,7 @@
         <v>31</v>
       </c>
       <c r="C1952">
-        <v>4160</v>
+        <v>5560.4</v>
       </c>
     </row>
     <row r="1953" spans="1:3">
@@ -21870,7 +21870,7 @@
         <v>32</v>
       </c>
       <c r="C1953">
-        <v>4170</v>
+        <v>5560.4</v>
       </c>
     </row>
     <row r="1954" spans="1:3">
@@ -21881,7 +21881,7 @@
         <v>33</v>
       </c>
       <c r="C1954">
-        <v>4289</v>
+        <v>5378.6</v>
       </c>
     </row>
     <row r="1955" spans="1:3">
@@ -21892,7 +21892,7 @@
         <v>34</v>
       </c>
       <c r="C1955">
-        <v>4279</v>
+        <v>5378.6</v>
       </c>
     </row>
     <row r="1956" spans="1:3">
@@ -21903,7 +21903,7 @@
         <v>35</v>
       </c>
       <c r="C1956">
-        <v>4269</v>
+        <v>5378.6</v>
       </c>
     </row>
     <row r="1957" spans="1:3">
@@ -21914,7 +21914,7 @@
         <v>36</v>
       </c>
       <c r="C1957">
-        <v>4249</v>
+        <v>5368.6</v>
       </c>
     </row>
     <row r="1958" spans="1:3">
@@ -21925,7 +21925,7 @@
         <v>37</v>
       </c>
       <c r="C1958">
-        <v>4258</v>
+        <v>5378.6</v>
       </c>
     </row>
     <row r="1959" spans="1:3">
@@ -21936,7 +21936,7 @@
         <v>38</v>
       </c>
       <c r="C1959">
-        <v>4218</v>
+        <v>5328.6</v>
       </c>
     </row>
     <row r="1960" spans="1:3">
@@ -21947,7 +21947,7 @@
         <v>39</v>
       </c>
       <c r="C1960">
-        <v>4168</v>
+        <v>5288.6</v>
       </c>
     </row>
     <row r="1961" spans="1:3">
@@ -21958,7 +21958,7 @@
         <v>40</v>
       </c>
       <c r="C1961">
-        <v>4118</v>
+        <v>5248.6</v>
       </c>
     </row>
     <row r="1962" spans="1:3">
@@ -21969,7 +21969,7 @@
         <v>41</v>
       </c>
       <c r="C1962">
-        <v>4005</v>
+        <v>5168.1</v>
       </c>
     </row>
     <row r="1963" spans="1:3">
@@ -21980,7 +21980,7 @@
         <v>42</v>
       </c>
       <c r="C1963">
-        <v>3945</v>
+        <v>5118.1</v>
       </c>
     </row>
     <row r="1964" spans="1:3">
@@ -21991,7 +21991,7 @@
         <v>43</v>
       </c>
       <c r="C1964">
-        <v>3895</v>
+        <v>5068.1</v>
       </c>
     </row>
     <row r="1965" spans="1:3">
@@ -22002,7 +22002,7 @@
         <v>44</v>
       </c>
       <c r="C1965">
-        <v>3845</v>
+        <v>5018.1</v>
       </c>
     </row>
     <row r="1966" spans="1:3">
@@ -22013,7 +22013,7 @@
         <v>45</v>
       </c>
       <c r="C1966">
-        <v>3789</v>
+        <v>4978.3</v>
       </c>
     </row>
     <row r="1967" spans="1:3">
@@ -22024,7 +22024,7 @@
         <v>46</v>
       </c>
       <c r="C1967">
-        <v>3749</v>
+        <v>4938.3</v>
       </c>
     </row>
     <row r="1968" spans="1:3">
@@ -22035,7 +22035,7 @@
         <v>47</v>
       </c>
       <c r="C1968">
-        <v>3709</v>
+        <v>4918.3</v>
       </c>
     </row>
     <row r="1969" spans="1:3">
@@ -22046,7 +22046,7 @@
         <v>48</v>
       </c>
       <c r="C1969">
-        <v>3669</v>
+        <v>4898.3</v>
       </c>
     </row>
     <row r="1970" spans="1:3">
@@ -22057,7 +22057,7 @@
         <v>49</v>
       </c>
       <c r="C1970">
-        <v>3803</v>
+        <v>4682.6</v>
       </c>
     </row>
     <row r="1971" spans="1:3">
@@ -22068,7 +22068,7 @@
         <v>50</v>
       </c>
       <c r="C1971">
-        <v>3763</v>
+        <v>4662.6</v>
       </c>
     </row>
     <row r="1972" spans="1:3">
@@ -22079,7 +22079,7 @@
         <v>51</v>
       </c>
       <c r="C1972">
-        <v>3733</v>
+        <v>4642.6</v>
       </c>
     </row>
     <row r="1973" spans="1:3">
@@ -22090,7 +22090,7 @@
         <v>52</v>
       </c>
       <c r="C1973">
-        <v>3703</v>
+        <v>4622.6</v>
       </c>
     </row>
     <row r="1974" spans="1:3">
@@ -22101,7 +22101,7 @@
         <v>53</v>
       </c>
       <c r="C1974">
-        <v>3699</v>
+        <v>4500.8</v>
       </c>
     </row>
     <row r="1975" spans="1:3">
@@ -22112,7 +22112,7 @@
         <v>54</v>
       </c>
       <c r="C1975">
-        <v>3669</v>
+        <v>4490.8</v>
       </c>
     </row>
     <row r="1976" spans="1:3">
@@ -22123,7 +22123,7 @@
         <v>55</v>
       </c>
       <c r="C1976">
-        <v>3649</v>
+        <v>4480.8</v>
       </c>
     </row>
     <row r="1977" spans="1:3">
@@ -22134,7 +22134,7 @@
         <v>56</v>
       </c>
       <c r="C1977">
-        <v>3629</v>
+        <v>4460.8</v>
       </c>
     </row>
     <row r="1978" spans="1:3">
@@ -22145,7 +22145,7 @@
         <v>57</v>
       </c>
       <c r="C1978">
-        <v>3671</v>
+        <v>3142.7</v>
       </c>
     </row>
     <row r="1979" spans="1:3">
@@ -22156,7 +22156,7 @@
         <v>58</v>
       </c>
       <c r="C1979">
-        <v>3671</v>
+        <v>3142.7</v>
       </c>
     </row>
     <row r="1980" spans="1:3">
@@ -22167,7 +22167,7 @@
         <v>59</v>
       </c>
       <c r="C1980">
-        <v>3671</v>
+        <v>3152.7</v>
       </c>
     </row>
     <row r="1981" spans="1:3">
@@ -22178,7 +22178,7 @@
         <v>60</v>
       </c>
       <c r="C1981">
-        <v>3671</v>
+        <v>3162.7</v>
       </c>
     </row>
     <row r="1982" spans="1:3">
@@ -22189,7 +22189,7 @@
         <v>61</v>
       </c>
       <c r="C1982">
-        <v>3664</v>
+        <v>3074.8</v>
       </c>
     </row>
     <row r="1983" spans="1:3">
@@ -22200,7 +22200,7 @@
         <v>62</v>
       </c>
       <c r="C1983">
-        <v>3674</v>
+        <v>3084.8</v>
       </c>
     </row>
     <row r="1984" spans="1:3">
@@ -22211,7 +22211,7 @@
         <v>63</v>
       </c>
       <c r="C1984">
-        <v>3694</v>
+        <v>3094.8</v>
       </c>
     </row>
     <row r="1985" spans="1:3">
@@ -22222,7 +22222,7 @@
         <v>64</v>
       </c>
       <c r="C1985">
-        <v>3724</v>
+        <v>3114.8</v>
       </c>
     </row>
     <row r="1986" spans="1:3">
@@ -22233,7 +22233,7 @@
         <v>65</v>
       </c>
       <c r="C1986">
-        <v>3598</v>
+        <v>4219.6</v>
       </c>
     </row>
     <row r="1987" spans="1:3">
@@ -22244,7 +22244,7 @@
         <v>66</v>
       </c>
       <c r="C1987">
-        <v>3658</v>
+        <v>4259.6</v>
       </c>
     </row>
     <row r="1988" spans="1:3">
@@ -22255,7 +22255,7 @@
         <v>67</v>
       </c>
       <c r="C1988">
-        <v>3738</v>
+        <v>4319.6</v>
       </c>
     </row>
     <row r="1989" spans="1:3">
@@ -22266,7 +22266,7 @@
         <v>68</v>
       </c>
       <c r="C1989">
-        <v>3838</v>
+        <v>4389.6</v>
       </c>
     </row>
     <row r="1990" spans="1:3">
@@ -22277,7 +22277,7 @@
         <v>69</v>
       </c>
       <c r="C1990">
-        <v>4013</v>
+        <v>4244.6</v>
       </c>
     </row>
     <row r="1991" spans="1:3">
@@ -22288,7 +22288,7 @@
         <v>70</v>
       </c>
       <c r="C1991">
-        <v>4123</v>
+        <v>4334.6</v>
       </c>
     </row>
     <row r="1992" spans="1:3">
@@ -22299,7 +22299,7 @@
         <v>71</v>
       </c>
       <c r="C1992">
-        <v>4223</v>
+        <v>4434.6</v>
       </c>
     </row>
     <row r="1993" spans="1:3">
@@ -22310,7 +22310,7 @@
         <v>72</v>
       </c>
       <c r="C1993">
-        <v>4323</v>
+        <v>4534.6</v>
       </c>
     </row>
     <row r="1994" spans="1:3">
@@ -22321,7 +22321,7 @@
         <v>73</v>
       </c>
       <c r="C1994">
-        <v>4413</v>
+        <v>5351.6</v>
       </c>
     </row>
     <row r="1995" spans="1:3">
@@ -22332,7 +22332,7 @@
         <v>74</v>
       </c>
       <c r="C1995">
-        <v>4503</v>
+        <v>5461.6</v>
       </c>
     </row>
     <row r="1996" spans="1:3">
@@ -22343,7 +22343,7 @@
         <v>75</v>
       </c>
       <c r="C1996">
-        <v>4593</v>
+        <v>5561.6</v>
       </c>
     </row>
     <row r="1997" spans="1:3">
@@ -22354,7 +22354,7 @@
         <v>76</v>
       </c>
       <c r="C1997">
-        <v>4703</v>
+        <v>5671.6</v>
       </c>
     </row>
     <row r="1998" spans="1:3">
@@ -22365,7 +22365,7 @@
         <v>77</v>
       </c>
       <c r="C1998">
-        <v>4881</v>
+        <v>5527.4</v>
       </c>
     </row>
     <row r="1999" spans="1:3">
@@ -22376,7 +22376,7 @@
         <v>78</v>
       </c>
       <c r="C1999">
-        <v>5011</v>
+        <v>5667.4</v>
       </c>
     </row>
     <row r="2000" spans="1:3">
@@ -22387,7 +22387,7 @@
         <v>79</v>
       </c>
       <c r="C2000">
-        <v>5191</v>
+        <v>5817.4</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
@@ -22398,7 +22398,7 @@
         <v>80</v>
       </c>
       <c r="C2001">
-        <v>5321</v>
+        <v>5957.4</v>
       </c>
     </row>
     <row r="2002" spans="1:3">
@@ -22409,7 +22409,7 @@
         <v>81</v>
       </c>
       <c r="C2002">
-        <v>5580</v>
+        <v>5853.1</v>
       </c>
     </row>
     <row r="2003" spans="1:3">
@@ -22420,7 +22420,7 @@
         <v>82</v>
       </c>
       <c r="C2003">
-        <v>5710</v>
+        <v>5983.1</v>
       </c>
     </row>
     <row r="2004" spans="1:3">
@@ -22431,7 +22431,7 @@
         <v>83</v>
       </c>
       <c r="C2004">
-        <v>5760</v>
+        <v>6083.1</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
@@ -22442,7 +22442,7 @@
         <v>84</v>
       </c>
       <c r="C2005">
-        <v>5760</v>
+        <v>6103.1</v>
       </c>
     </row>
     <row r="2006" spans="1:3">
@@ -22453,7 +22453,7 @@
         <v>85</v>
       </c>
       <c r="C2006">
-        <v>5751</v>
+        <v>6058.5</v>
       </c>
     </row>
     <row r="2007" spans="1:3">
@@ -22464,7 +22464,7 @@
         <v>86</v>
       </c>
       <c r="C2007">
-        <v>5681</v>
+        <v>6008.5</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
@@ -22475,7 +22475,7 @@
         <v>87</v>
       </c>
       <c r="C2008">
-        <v>5631</v>
+        <v>5938.5</v>
       </c>
     </row>
     <row r="2009" spans="1:3">
@@ -22486,7 +22486,7 @@
         <v>88</v>
       </c>
       <c r="C2009">
-        <v>5561</v>
+        <v>5878.5</v>
       </c>
     </row>
     <row r="2010" spans="1:3">
@@ -22497,7 +22497,7 @@
         <v>89</v>
       </c>
       <c r="C2010">
-        <v>5381</v>
+        <v>6079.8</v>
       </c>
     </row>
     <row r="2011" spans="1:3">
@@ -22508,7 +22508,7 @@
         <v>90</v>
       </c>
       <c r="C2011">
-        <v>5281</v>
+        <v>5979.8</v>
       </c>
     </row>
     <row r="2012" spans="1:3">
@@ -22519,7 +22519,7 @@
         <v>91</v>
       </c>
       <c r="C2012">
-        <v>5121</v>
+        <v>5829.8</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
@@ -22530,7 +22530,7 @@
         <v>92</v>
       </c>
       <c r="C2013">
-        <v>4991</v>
+        <v>5709.8</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
@@ -22541,7 +22541,7 @@
         <v>93</v>
       </c>
       <c r="C2014">
-        <v>4731</v>
+        <v>5974.4</v>
       </c>
     </row>
     <row r="2015" spans="1:3">
@@ -22552,7 +22552,7 @@
         <v>94</v>
       </c>
       <c r="C2015">
-        <v>4581</v>
+        <v>5834.4</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
@@ -22563,7 +22563,7 @@
         <v>95</v>
       </c>
       <c r="C2016">
-        <v>4491</v>
+        <v>5734.4</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
@@ -22574,7 +22574,7 @@
         <v>96</v>
       </c>
       <c r="C2017">
-        <v>4381</v>
+        <v>5624.4</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
@@ -22585,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="C2018">
-        <v>5572.8</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
@@ -22596,7 +22596,7 @@
         <v>2</v>
       </c>
       <c r="C2019">
-        <v>5522.8</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
@@ -22607,7 +22607,7 @@
         <v>3</v>
       </c>
       <c r="C2020">
-        <v>5472.8</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
@@ -22618,7 +22618,7 @@
         <v>4</v>
       </c>
       <c r="C2021">
-        <v>5422.8</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
@@ -22629,7 +22629,7 @@
         <v>5</v>
       </c>
       <c r="C2022">
-        <v>4248</v>
+        <v>5616.3</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
@@ -22640,7 +22640,7 @@
         <v>6</v>
       </c>
       <c r="C2023">
-        <v>4218</v>
+        <v>5586.3</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
@@ -22651,7 +22651,7 @@
         <v>7</v>
       </c>
       <c r="C2024">
-        <v>4188</v>
+        <v>5556.3</v>
       </c>
     </row>
     <row r="2025" spans="1:3">
@@ -22662,7 +22662,7 @@
         <v>8</v>
       </c>
       <c r="C2025">
-        <v>4158</v>
+        <v>5536.3</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
@@ -22673,7 +22673,7 @@
         <v>9</v>
       </c>
       <c r="C2026">
-        <v>4138</v>
+        <v>5749.1</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
@@ -22684,7 +22684,7 @@
         <v>10</v>
       </c>
       <c r="C2027">
-        <v>4118</v>
+        <v>5729.1</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
@@ -22695,7 +22695,7 @@
         <v>11</v>
       </c>
       <c r="C2028">
-        <v>4098</v>
+        <v>5719.1</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
@@ -22706,7 +22706,7 @@
         <v>12</v>
       </c>
       <c r="C2029">
-        <v>4068</v>
+        <v>5719.1</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
@@ -22717,7 +22717,7 @@
         <v>13</v>
       </c>
       <c r="C2030">
-        <v>4060</v>
+        <v>5803.3</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
@@ -22728,7 +22728,7 @@
         <v>14</v>
       </c>
       <c r="C2031">
-        <v>4060</v>
+        <v>5803.3</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
@@ -22739,7 +22739,7 @@
         <v>15</v>
       </c>
       <c r="C2032">
-        <v>4060</v>
+        <v>5803.3</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
@@ -22750,7 +22750,7 @@
         <v>16</v>
       </c>
       <c r="C2033">
-        <v>4070</v>
+        <v>5813.3</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
@@ -22761,7 +22761,7 @@
         <v>17</v>
       </c>
       <c r="C2034">
-        <v>4091</v>
+        <v>5658.3</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
@@ -22772,7 +22772,7 @@
         <v>18</v>
       </c>
       <c r="C2035">
-        <v>4111</v>
+        <v>5668.3</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
@@ -22783,7 +22783,7 @@
         <v>19</v>
       </c>
       <c r="C2036">
-        <v>4141</v>
+        <v>5698.3</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
@@ -22794,7 +22794,7 @@
         <v>20</v>
       </c>
       <c r="C2037">
-        <v>4191</v>
+        <v>5738.3</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
@@ -22805,7 +22805,7 @@
         <v>21</v>
       </c>
       <c r="C2038">
-        <v>4261</v>
+        <v>5579.8</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
@@ -22816,7 +22816,7 @@
         <v>22</v>
       </c>
       <c r="C2039">
-        <v>4361</v>
+        <v>5669.8</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
@@ -22827,7 +22827,7 @@
         <v>23</v>
       </c>
       <c r="C2040">
-        <v>4491</v>
+        <v>5789.8</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
@@ -22838,7 +22838,7 @@
         <v>24</v>
       </c>
       <c r="C2041">
-        <v>4641</v>
+        <v>5929.8</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
@@ -22849,7 +22849,7 @@
         <v>25</v>
       </c>
       <c r="C2042">
-        <v>4811</v>
+        <v>5612.3</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
@@ -22860,7 +22860,7 @@
         <v>26</v>
       </c>
       <c r="C2043">
-        <v>4991</v>
+        <v>5782.3</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
@@ -22871,7 +22871,7 @@
         <v>27</v>
       </c>
       <c r="C2044">
-        <v>5181</v>
+        <v>5972.3</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
@@ -22882,7 +22882,7 @@
         <v>28</v>
       </c>
       <c r="C2045">
-        <v>5371</v>
+        <v>6162.3</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
@@ -22893,7 +22893,7 @@
         <v>29</v>
       </c>
       <c r="C2046">
-        <v>5420</v>
+        <v>6005.9</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
@@ -22904,7 +22904,7 @@
         <v>30</v>
       </c>
       <c r="C2047">
-        <v>5580</v>
+        <v>6175.9</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
@@ -22915,7 +22915,7 @@
         <v>31</v>
       </c>
       <c r="C2048">
-        <v>5720</v>
+        <v>6335.9</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
@@ -22926,7 +22926,7 @@
         <v>32</v>
       </c>
       <c r="C2049">
-        <v>5840</v>
+        <v>6455.9</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
@@ -22937,7 +22937,7 @@
         <v>33</v>
       </c>
       <c r="C2050">
-        <v>6039</v>
+        <v>6306.6</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
@@ -22948,7 +22948,7 @@
         <v>34</v>
       </c>
       <c r="C2051">
-        <v>6099</v>
+        <v>6366.6</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
@@ -22959,7 +22959,7 @@
         <v>35</v>
       </c>
       <c r="C2052">
-        <v>6139</v>
+        <v>6396.6</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
@@ -22970,7 +22970,7 @@
         <v>36</v>
       </c>
       <c r="C2053">
-        <v>6139</v>
+        <v>6396.6</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
@@ -22981,7 +22981,7 @@
         <v>37</v>
       </c>
       <c r="C2054">
-        <v>6178</v>
+        <v>6379.9</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
@@ -22992,7 +22992,7 @@
         <v>38</v>
       </c>
       <c r="C2055">
-        <v>6148</v>
+        <v>6329.9</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
@@ -23003,7 +23003,7 @@
         <v>39</v>
       </c>
       <c r="C2056">
-        <v>6098</v>
+        <v>6279.9</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
@@ -23014,7 +23014,7 @@
         <v>40</v>
       </c>
       <c r="C2057">
-        <v>6038</v>
+        <v>6219.9</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
@@ -23025,7 +23025,7 @@
         <v>41</v>
       </c>
       <c r="C2058">
-        <v>5915</v>
+        <v>6367.5</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
@@ -23036,7 +23036,7 @@
         <v>42</v>
       </c>
       <c r="C2059">
-        <v>5845</v>
+        <v>6317.5</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23047,7 +23047,7 @@
         <v>43</v>
       </c>
       <c r="C2060">
-        <v>5775</v>
+        <v>6267.5</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
@@ -23058,7 +23058,7 @@
         <v>44</v>
       </c>
       <c r="C2061">
-        <v>5715</v>
+        <v>6217.5</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -23069,7 +23069,7 @@
         <v>45</v>
       </c>
       <c r="C2062">
-        <v>5649</v>
+        <v>6320.1</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
@@ -23080,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="C2063">
-        <v>5599</v>
+        <v>6280.1</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
@@ -23091,7 +23091,7 @@
         <v>47</v>
       </c>
       <c r="C2064">
-        <v>5559</v>
+        <v>6260.1</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
@@ -23102,7 +23102,7 @@
         <v>48</v>
       </c>
       <c r="C2065">
-        <v>5519</v>
+        <v>6230.1</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
@@ -23113,7 +23113,7 @@
         <v>49</v>
       </c>
       <c r="C2066">
-        <v>5653</v>
+        <v>6402.2</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
@@ -23124,7 +23124,7 @@
         <v>50</v>
       </c>
       <c r="C2067">
-        <v>5623</v>
+        <v>6372.2</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
@@ -23135,7 +23135,7 @@
         <v>51</v>
       </c>
       <c r="C2068">
-        <v>5603</v>
+        <v>6342.2</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
@@ -23146,7 +23146,7 @@
         <v>52</v>
       </c>
       <c r="C2069">
-        <v>5583</v>
+        <v>6322.2</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -23157,7 +23157,7 @@
         <v>53</v>
       </c>
       <c r="C2070">
-        <v>5599</v>
+        <v>6477.2</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
@@ -23168,7 +23168,7 @@
         <v>54</v>
       </c>
       <c r="C2071">
-        <v>5589</v>
+        <v>6477.2</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
@@ -23179,7 +23179,7 @@
         <v>55</v>
       </c>
       <c r="C2072">
-        <v>5579</v>
+        <v>6477.2</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
@@ -23190,7 +23190,7 @@
         <v>56</v>
       </c>
       <c r="C2073">
-        <v>5569</v>
+        <v>6447.2</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
@@ -23201,7 +23201,7 @@
         <v>57</v>
       </c>
       <c r="C2074">
-        <v>5621</v>
+        <v>6658.9</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
@@ -23212,7 +23212,7 @@
         <v>58</v>
       </c>
       <c r="C2075">
-        <v>5611</v>
+        <v>6588.9</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
@@ -23223,7 +23223,7 @@
         <v>59</v>
       </c>
       <c r="C2076">
-        <v>5601</v>
+        <v>6558.9</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
@@ -23234,7 +23234,7 @@
         <v>60</v>
       </c>
       <c r="C2077">
-        <v>5591</v>
+        <v>6528.9</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
@@ -23245,7 +23245,7 @@
         <v>61</v>
       </c>
       <c r="C2078">
-        <v>5574</v>
+        <v>6615.6</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -23256,7 +23256,7 @@
         <v>62</v>
       </c>
       <c r="C2079">
-        <v>5564</v>
+        <v>6595.6</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
@@ -23267,7 +23267,7 @@
         <v>63</v>
       </c>
       <c r="C2080">
-        <v>5554</v>
+        <v>6585.6</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
@@ -23278,7 +23278,7 @@
         <v>64</v>
       </c>
       <c r="C2081">
-        <v>5554</v>
+        <v>6585.6</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
@@ -23289,7 +23289,7 @@
         <v>65</v>
       </c>
       <c r="C2082">
-        <v>5388</v>
+        <v>6352.9</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
@@ -23300,7 +23300,7 @@
         <v>66</v>
       </c>
       <c r="C2083">
-        <v>5408</v>
+        <v>6362.9</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
@@ -23311,7 +23311,7 @@
         <v>67</v>
       </c>
       <c r="C2084">
-        <v>5438</v>
+        <v>6392.9</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
@@ -23322,7 +23322,7 @@
         <v>68</v>
       </c>
       <c r="C2085">
-        <v>5488</v>
+        <v>6432.9</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
@@ -23333,7 +23333,7 @@
         <v>69</v>
       </c>
       <c r="C2086">
-        <v>5613</v>
+        <v>6135.5</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
@@ -23344,7 +23344,7 @@
         <v>70</v>
       </c>
       <c r="C2087">
-        <v>5653</v>
+        <v>6195.5</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
@@ -23355,7 +23355,7 @@
         <v>71</v>
       </c>
       <c r="C2088">
-        <v>5703</v>
+        <v>6255.5</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -23366,7 +23366,7 @@
         <v>72</v>
       </c>
       <c r="C2089">
-        <v>5743</v>
+        <v>6315.5</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
@@ -23377,7 +23377,7 @@
         <v>73</v>
       </c>
       <c r="C2090">
-        <v>5773</v>
+        <v>6102.5</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
@@ -23388,7 +23388,7 @@
         <v>74</v>
       </c>
       <c r="C2091">
-        <v>5813</v>
+        <v>6182.5</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
@@ -23399,7 +23399,7 @@
         <v>75</v>
       </c>
       <c r="C2092">
-        <v>5873</v>
+        <v>6262.5</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -23410,7 +23410,7 @@
         <v>76</v>
       </c>
       <c r="C2093">
-        <v>5943</v>
+        <v>6362.5</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
@@ -23421,7 +23421,7 @@
         <v>77</v>
       </c>
       <c r="C2094">
-        <v>6091</v>
+        <v>5762.2</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
@@ -23432,7 +23432,7 @@
         <v>78</v>
       </c>
       <c r="C2095">
-        <v>6211</v>
+        <v>5882.2</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
@@ -23443,7 +23443,7 @@
         <v>79</v>
       </c>
       <c r="C2096">
-        <v>6331</v>
+        <v>5992.2</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
@@ -23454,7 +23454,7 @@
         <v>80</v>
       </c>
       <c r="C2097">
-        <v>6441</v>
+        <v>6112.2</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
@@ -23465,7 +23465,7 @@
         <v>81</v>
       </c>
       <c r="C2098">
-        <v>6670</v>
+        <v>5531.4</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
@@ -23476,7 +23476,7 @@
         <v>82</v>
       </c>
       <c r="C2099">
-        <v>6780</v>
+        <v>5631.4</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -23487,7 +23487,7 @@
         <v>83</v>
       </c>
       <c r="C2100">
-        <v>6810</v>
+        <v>5691.4</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
@@ -23498,7 +23498,7 @@
         <v>84</v>
       </c>
       <c r="C2101">
-        <v>6810</v>
+        <v>5711.4</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
@@ -23509,7 +23509,7 @@
         <v>85</v>
       </c>
       <c r="C2102">
-        <v>6821</v>
+        <v>5603.5</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
@@ -23520,7 +23520,7 @@
         <v>86</v>
       </c>
       <c r="C2103">
-        <v>6751</v>
+        <v>5563.5</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
@@ -23531,7 +23531,7 @@
         <v>87</v>
       </c>
       <c r="C2104">
-        <v>6671</v>
+        <v>5493.5</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
@@ -23542,7 +23542,7 @@
         <v>88</v>
       </c>
       <c r="C2105">
-        <v>6551</v>
+        <v>5383.5</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
@@ -23553,7 +23553,7 @@
         <v>89</v>
       </c>
       <c r="C2106">
-        <v>6311</v>
+        <v>5495.4</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
@@ -23564,7 +23564,7 @@
         <v>90</v>
       </c>
       <c r="C2107">
-        <v>6171</v>
+        <v>5335.4</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
@@ -23575,7 +23575,7 @@
         <v>91</v>
       </c>
       <c r="C2108">
-        <v>5991</v>
+        <v>5165.4</v>
       </c>
     </row>
     <row r="2109" spans="1:3">
@@ -23586,7 +23586,7 @@
         <v>92</v>
       </c>
       <c r="C2109">
-        <v>5841</v>
+        <v>5025.4</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
@@ -23597,7 +23597,7 @@
         <v>93</v>
       </c>
       <c r="C2110">
-        <v>5521</v>
+        <v>5272.8</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
@@ -23608,7 +23608,7 @@
         <v>94</v>
       </c>
       <c r="C2111">
-        <v>5311</v>
+        <v>5122.8</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
@@ -23619,7 +23619,7 @@
         <v>95</v>
       </c>
       <c r="C2112">
-        <v>5241</v>
+        <v>5002.8</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
@@ -23630,7 +23630,7 @@
         <v>96</v>
       </c>
       <c r="C2113">
-        <v>5131</v>
+        <v>4892.8</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23641,7 +23641,7 @@
         <v>1</v>
       </c>
       <c r="C2114">
-        <v>6112.8</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
@@ -23652,7 +23652,7 @@
         <v>2</v>
       </c>
       <c r="C2115">
-        <v>6052.8</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
@@ -23663,7 +23663,7 @@
         <v>3</v>
       </c>
       <c r="C2116">
-        <v>6002.8</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
@@ -23674,7 +23674,7 @@
         <v>4</v>
       </c>
       <c r="C2117">
-        <v>5952.8</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
@@ -23685,7 +23685,7 @@
         <v>5</v>
       </c>
       <c r="C2118">
-        <v>4768</v>
+        <v>6186.3</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -23696,7 +23696,7 @@
         <v>6</v>
       </c>
       <c r="C2119">
-        <v>4738</v>
+        <v>6146.3</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
@@ -23707,7 +23707,7 @@
         <v>7</v>
       </c>
       <c r="C2120">
-        <v>4708</v>
+        <v>6106.3</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
@@ -23718,7 +23718,7 @@
         <v>8</v>
       </c>
       <c r="C2121">
-        <v>4668</v>
+        <v>6076.3</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
@@ -23729,7 +23729,7 @@
         <v>9</v>
       </c>
       <c r="C2122">
-        <v>4648</v>
+        <v>6299.1</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
@@ -23740,7 +23740,7 @@
         <v>10</v>
       </c>
       <c r="C2123">
-        <v>4618</v>
+        <v>6269.1</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
@@ -23751,7 +23751,7 @@
         <v>11</v>
       </c>
       <c r="C2124">
-        <v>4598</v>
+        <v>6249.1</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
@@ -23762,7 +23762,7 @@
         <v>12</v>
       </c>
       <c r="C2125">
-        <v>4578</v>
+        <v>6239.1</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
@@ -23773,7 +23773,7 @@
         <v>13</v>
       </c>
       <c r="C2126">
-        <v>4560</v>
+        <v>6323.3</v>
       </c>
     </row>
     <row r="2127" spans="1:3">
@@ -23784,7 +23784,7 @@
         <v>14</v>
       </c>
       <c r="C2127">
-        <v>4560</v>
+        <v>6313.3</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
@@ -23795,7 +23795,7 @@
         <v>15</v>
       </c>
       <c r="C2128">
-        <v>4570</v>
+        <v>6323.3</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
@@ -23806,7 +23806,7 @@
         <v>16</v>
       </c>
       <c r="C2129">
-        <v>4590</v>
+        <v>6323.3</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
@@ -23817,7 +23817,7 @@
         <v>17</v>
       </c>
       <c r="C2130">
-        <v>4611</v>
+        <v>6168.3</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
@@ -23828,7 +23828,7 @@
         <v>18</v>
       </c>
       <c r="C2131">
-        <v>4631</v>
+        <v>6188.3</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
@@ -23839,7 +23839,7 @@
         <v>19</v>
       </c>
       <c r="C2132">
-        <v>4661</v>
+        <v>6218.3</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
@@ -23850,7 +23850,7 @@
         <v>20</v>
       </c>
       <c r="C2133">
-        <v>4701</v>
+        <v>6248.3</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
@@ -23861,7 +23861,7 @@
         <v>21</v>
       </c>
       <c r="C2134">
-        <v>4741</v>
+        <v>6069.8</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
@@ -23872,7 +23872,7 @@
         <v>22</v>
       </c>
       <c r="C2135">
-        <v>4801</v>
+        <v>6129.8</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23883,7 +23883,7 @@
         <v>23</v>
       </c>
       <c r="C2136">
-        <v>4871</v>
+        <v>6199.8</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
@@ -23894,7 +23894,7 @@
         <v>24</v>
       </c>
       <c r="C2137">
-        <v>4951</v>
+        <v>6279.8</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
@@ -23905,7 +23905,7 @@
         <v>25</v>
       </c>
       <c r="C2138">
-        <v>5041</v>
+        <v>5922.3</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
@@ -23916,7 +23916,7 @@
         <v>26</v>
       </c>
       <c r="C2139">
-        <v>5151</v>
+        <v>6032.3</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
@@ -23927,7 +23927,7 @@
         <v>27</v>
       </c>
       <c r="C2140">
-        <v>5261</v>
+        <v>6152.3</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
@@ -23938,7 +23938,7 @@
         <v>28</v>
       </c>
       <c r="C2141">
-        <v>5381</v>
+        <v>6292.3</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
@@ -23949,7 +23949,7 @@
         <v>29</v>
       </c>
       <c r="C2142">
-        <v>5370</v>
+        <v>6005.9</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
@@ -23960,7 +23960,7 @@
         <v>30</v>
       </c>
       <c r="C2143">
-        <v>5490</v>
+        <v>6145.9</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
@@ -23971,7 +23971,7 @@
         <v>31</v>
       </c>
       <c r="C2144">
-        <v>5610</v>
+        <v>6275.9</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
@@ -23982,7 +23982,7 @@
         <v>32</v>
       </c>
       <c r="C2145">
-        <v>5710</v>
+        <v>6395.9</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -23993,7 +23993,7 @@
         <v>33</v>
       </c>
       <c r="C2146">
-        <v>5899</v>
+        <v>6246.6</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -24004,7 +24004,7 @@
         <v>34</v>
       </c>
       <c r="C2147">
-        <v>5959</v>
+        <v>6316.6</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24015,7 +24015,7 @@
         <v>35</v>
       </c>
       <c r="C2148">
-        <v>5989</v>
+        <v>6356.6</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -24026,7 +24026,7 @@
         <v>36</v>
       </c>
       <c r="C2149">
-        <v>5989</v>
+        <v>6376.6</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
@@ -24037,7 +24037,7 @@
         <v>37</v>
       </c>
       <c r="C2150">
-        <v>6028</v>
+        <v>6399.9</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
@@ -24048,7 +24048,7 @@
         <v>38</v>
       </c>
       <c r="C2151">
-        <v>6018</v>
+        <v>6359.9</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
@@ -24059,7 +24059,7 @@
         <v>39</v>
       </c>
       <c r="C2152">
-        <v>5978</v>
+        <v>6309.9</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -24070,7 +24070,7 @@
         <v>40</v>
       </c>
       <c r="C2153">
-        <v>5918</v>
+        <v>6249.9</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24081,7 +24081,7 @@
         <v>41</v>
       </c>
       <c r="C2154">
-        <v>5805</v>
+        <v>6377.5</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
@@ -24092,7 +24092,7 @@
         <v>42</v>
       </c>
       <c r="C2155">
-        <v>5735</v>
+        <v>6307.5</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
@@ -24103,7 +24103,7 @@
         <v>43</v>
       </c>
       <c r="C2156">
-        <v>5675</v>
+        <v>6237.5</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
@@ -24114,7 +24114,7 @@
         <v>44</v>
       </c>
       <c r="C2157">
-        <v>5615</v>
+        <v>6177.5</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
@@ -24125,7 +24125,7 @@
         <v>45</v>
       </c>
       <c r="C2158">
-        <v>5559</v>
+        <v>6310.1</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
@@ -24136,7 +24136,7 @@
         <v>46</v>
       </c>
       <c r="C2159">
-        <v>5509</v>
+        <v>6270.1</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
@@ -24147,7 +24147,7 @@
         <v>47</v>
       </c>
       <c r="C2160">
-        <v>5469</v>
+        <v>6250.1</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24158,7 +24158,7 @@
         <v>48</v>
       </c>
       <c r="C2161">
-        <v>5439</v>
+        <v>6220.1</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
@@ -24169,7 +24169,7 @@
         <v>49</v>
       </c>
       <c r="C2162">
-        <v>5583</v>
+        <v>6442.2</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -24180,7 +24180,7 @@
         <v>50</v>
       </c>
       <c r="C2163">
-        <v>5563</v>
+        <v>6422.2</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
@@ -24191,7 +24191,7 @@
         <v>51</v>
       </c>
       <c r="C2164">
-        <v>5543</v>
+        <v>6402.2</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
@@ -24202,7 +24202,7 @@
         <v>52</v>
       </c>
       <c r="C2165">
-        <v>5533</v>
+        <v>6392.2</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -24213,7 +24213,7 @@
         <v>53</v>
       </c>
       <c r="C2166">
-        <v>5549</v>
+        <v>6547.2</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -24224,7 +24224,7 @@
         <v>54</v>
       </c>
       <c r="C2167">
-        <v>5549</v>
+        <v>6537.2</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
@@ -24235,7 +24235,7 @@
         <v>55</v>
       </c>
       <c r="C2168">
-        <v>5549</v>
+        <v>6527.2</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
@@ -24246,7 +24246,7 @@
         <v>56</v>
       </c>
       <c r="C2169">
-        <v>5559</v>
+        <v>6507.2</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24257,7 +24257,7 @@
         <v>57</v>
       </c>
       <c r="C2170">
-        <v>5611</v>
+        <v>6798.9</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24268,7 +24268,7 @@
         <v>58</v>
       </c>
       <c r="C2171">
-        <v>5621</v>
+        <v>6788.9</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24279,7 +24279,7 @@
         <v>59</v>
       </c>
       <c r="C2172">
-        <v>5631</v>
+        <v>6778.9</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24290,7 +24290,7 @@
         <v>60</v>
       </c>
       <c r="C2173">
-        <v>5621</v>
+        <v>6758.9</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
@@ -24301,7 +24301,7 @@
         <v>61</v>
       </c>
       <c r="C2174">
-        <v>5614</v>
+        <v>6845.6</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
@@ -24312,7 +24312,7 @@
         <v>62</v>
       </c>
       <c r="C2175">
-        <v>5604</v>
+        <v>6825.6</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24323,7 +24323,7 @@
         <v>63</v>
       </c>
       <c r="C2176">
-        <v>5584</v>
+        <v>6805.6</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24334,7 +24334,7 @@
         <v>64</v>
       </c>
       <c r="C2177">
-        <v>5574</v>
+        <v>6795.6</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24345,7 +24345,7 @@
         <v>65</v>
       </c>
       <c r="C2178">
-        <v>5398</v>
+        <v>6562.9</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
@@ -24356,7 +24356,7 @@
         <v>66</v>
       </c>
       <c r="C2179">
-        <v>5408</v>
+        <v>6572.9</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24367,7 +24367,7 @@
         <v>67</v>
       </c>
       <c r="C2180">
-        <v>5438</v>
+        <v>6592.9</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
@@ -24378,7 +24378,7 @@
         <v>68</v>
       </c>
       <c r="C2181">
-        <v>5468</v>
+        <v>6622.9</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
@@ -24389,7 +24389,7 @@
         <v>69</v>
       </c>
       <c r="C2182">
-        <v>5583</v>
+        <v>6305.5</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -24400,7 +24400,7 @@
         <v>70</v>
       </c>
       <c r="C2183">
-        <v>5613</v>
+        <v>6335.5</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
@@ -24411,7 +24411,7 @@
         <v>71</v>
       </c>
       <c r="C2184">
-        <v>5643</v>
+        <v>6365.5</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -24422,7 +24422,7 @@
         <v>72</v>
       </c>
       <c r="C2185">
-        <v>5673</v>
+        <v>6395.5</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24433,7 +24433,7 @@
         <v>73</v>
       </c>
       <c r="C2186">
-        <v>5693</v>
+        <v>6142.5</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
@@ -24444,7 +24444,7 @@
         <v>74</v>
       </c>
       <c r="C2187">
-        <v>5733</v>
+        <v>6192.5</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24455,7 +24455,7 @@
         <v>75</v>
       </c>
       <c r="C2188">
-        <v>5783</v>
+        <v>6262.5</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24466,7 +24466,7 @@
         <v>76</v>
       </c>
       <c r="C2189">
-        <v>5853</v>
+        <v>6352.5</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
@@ -24477,7 +24477,7 @@
         <v>77</v>
       </c>
       <c r="C2190">
-        <v>6011</v>
+        <v>5772.2</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
@@ -24488,7 +24488,7 @@
         <v>78</v>
       </c>
       <c r="C2191">
-        <v>6131</v>
+        <v>5902.2</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24499,7 +24499,7 @@
         <v>79</v>
       </c>
       <c r="C2192">
-        <v>6251</v>
+        <v>6032.2</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
@@ -24510,7 +24510,7 @@
         <v>80</v>
       </c>
       <c r="C2193">
-        <v>6361</v>
+        <v>6132.2</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
@@ -24521,7 +24521,7 @@
         <v>81</v>
       </c>
       <c r="C2194">
-        <v>6580</v>
+        <v>5541.4</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24532,7 +24532,7 @@
         <v>82</v>
       </c>
       <c r="C2195">
-        <v>6680</v>
+        <v>5631.4</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
@@ -24543,7 +24543,7 @@
         <v>83</v>
       </c>
       <c r="C2196">
-        <v>6710</v>
+        <v>5681.4</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -24554,7 +24554,7 @@
         <v>84</v>
       </c>
       <c r="C2197">
-        <v>6710</v>
+        <v>5741.4</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24565,7 +24565,7 @@
         <v>85</v>
       </c>
       <c r="C2198">
-        <v>6711</v>
+        <v>5623.5</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24576,7 +24576,7 @@
         <v>86</v>
       </c>
       <c r="C2199">
-        <v>6651</v>
+        <v>5563.5</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24587,7 +24587,7 @@
         <v>87</v>
       </c>
       <c r="C2200">
-        <v>6581</v>
+        <v>5503.5</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
@@ -24598,7 +24598,7 @@
         <v>88</v>
       </c>
       <c r="C2201">
-        <v>6461</v>
+        <v>5383.5</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
@@ -24609,7 +24609,7 @@
         <v>89</v>
       </c>
       <c r="C2202">
-        <v>6221</v>
+        <v>5535.4</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24620,7 +24620,7 @@
         <v>90</v>
       </c>
       <c r="C2203">
-        <v>6091</v>
+        <v>5395.4</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24631,7 +24631,7 @@
         <v>91</v>
       </c>
       <c r="C2204">
-        <v>5921</v>
+        <v>5235.4</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24642,7 +24642,7 @@
         <v>92</v>
       </c>
       <c r="C2205">
-        <v>5761</v>
+        <v>5075.4</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24653,7 +24653,7 @@
         <v>93</v>
       </c>
       <c r="C2206">
-        <v>5421</v>
+        <v>5252.8</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
@@ -24664,7 +24664,7 @@
         <v>94</v>
       </c>
       <c r="C2207">
-        <v>5221</v>
+        <v>5062.8</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24675,7 +24675,7 @@
         <v>95</v>
       </c>
       <c r="C2208">
-        <v>5141</v>
+        <v>4982.8</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
@@ -24686,7 +24686,7 @@
         <v>96</v>
       </c>
       <c r="C2209">
-        <v>5031</v>
+        <v>4872.8</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
@@ -27854,6 +27854,3174 @@
         <v>96</v>
       </c>
       <c r="C2497">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3">
+      <c r="A2498" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2498">
+        <v>1</v>
+      </c>
+      <c r="C2498">
+        <v>5872.8</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3">
+      <c r="A2499" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2499">
+        <v>2</v>
+      </c>
+      <c r="C2499">
+        <v>5832.8</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3">
+      <c r="A2500" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2500">
+        <v>3</v>
+      </c>
+      <c r="C2500">
+        <v>5772.8</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3">
+      <c r="A2501" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2501">
+        <v>4</v>
+      </c>
+      <c r="C2501">
+        <v>5682.8</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3">
+      <c r="A2502" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2502">
+        <v>5</v>
+      </c>
+      <c r="C2502">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3">
+      <c r="A2503" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2503">
+        <v>6</v>
+      </c>
+      <c r="C2503">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3">
+      <c r="A2504" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2504">
+        <v>7</v>
+      </c>
+      <c r="C2504">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3">
+      <c r="A2505" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2505">
+        <v>8</v>
+      </c>
+      <c r="C2505">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3">
+      <c r="A2506" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2506">
+        <v>9</v>
+      </c>
+      <c r="C2506">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3">
+      <c r="A2507" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2507">
+        <v>10</v>
+      </c>
+      <c r="C2507">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3">
+      <c r="A2508" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2508">
+        <v>11</v>
+      </c>
+      <c r="C2508">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3">
+      <c r="A2509" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2509">
+        <v>12</v>
+      </c>
+      <c r="C2509">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3">
+      <c r="A2510" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2510">
+        <v>13</v>
+      </c>
+      <c r="C2510">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3">
+      <c r="A2511" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2511">
+        <v>14</v>
+      </c>
+      <c r="C2511">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3">
+      <c r="A2512" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2512">
+        <v>15</v>
+      </c>
+      <c r="C2512">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3">
+      <c r="A2513" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2513">
+        <v>16</v>
+      </c>
+      <c r="C2513">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3">
+      <c r="A2514" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2514">
+        <v>17</v>
+      </c>
+      <c r="C2514">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2515">
+        <v>18</v>
+      </c>
+      <c r="C2515">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2516">
+        <v>19</v>
+      </c>
+      <c r="C2516">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2517">
+        <v>20</v>
+      </c>
+      <c r="C2517">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2518">
+        <v>21</v>
+      </c>
+      <c r="C2518">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2519">
+        <v>22</v>
+      </c>
+      <c r="C2519">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2520">
+        <v>23</v>
+      </c>
+      <c r="C2520">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2521">
+        <v>24</v>
+      </c>
+      <c r="C2521">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2522">
+        <v>25</v>
+      </c>
+      <c r="C2522">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2523">
+        <v>26</v>
+      </c>
+      <c r="C2523">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2524">
+        <v>27</v>
+      </c>
+      <c r="C2524">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2525">
+        <v>28</v>
+      </c>
+      <c r="C2525">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2526">
+        <v>29</v>
+      </c>
+      <c r="C2526">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2527">
+        <v>30</v>
+      </c>
+      <c r="C2527">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2528">
+        <v>31</v>
+      </c>
+      <c r="C2528">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2529">
+        <v>32</v>
+      </c>
+      <c r="C2529">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2530">
+        <v>33</v>
+      </c>
+      <c r="C2530">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2531">
+        <v>34</v>
+      </c>
+      <c r="C2531">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2532">
+        <v>35</v>
+      </c>
+      <c r="C2532">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2533">
+        <v>36</v>
+      </c>
+      <c r="C2533">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2534">
+        <v>37</v>
+      </c>
+      <c r="C2534">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2535">
+        <v>38</v>
+      </c>
+      <c r="C2535">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3">
+      <c r="A2536" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2536">
+        <v>39</v>
+      </c>
+      <c r="C2536">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3">
+      <c r="A2537" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2537">
+        <v>40</v>
+      </c>
+      <c r="C2537">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3">
+      <c r="A2538" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2538">
+        <v>41</v>
+      </c>
+      <c r="C2538">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3">
+      <c r="A2539" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2539">
+        <v>42</v>
+      </c>
+      <c r="C2539">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3">
+      <c r="A2540" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2540">
+        <v>43</v>
+      </c>
+      <c r="C2540">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3">
+      <c r="A2541" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2541">
+        <v>44</v>
+      </c>
+      <c r="C2541">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3">
+      <c r="A2542" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2542">
+        <v>45</v>
+      </c>
+      <c r="C2542">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3">
+      <c r="A2543" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2543">
+        <v>46</v>
+      </c>
+      <c r="C2543">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3">
+      <c r="A2544" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2544">
+        <v>47</v>
+      </c>
+      <c r="C2544">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3">
+      <c r="A2545" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2545">
+        <v>48</v>
+      </c>
+      <c r="C2545">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3">
+      <c r="A2546" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2546">
+        <v>49</v>
+      </c>
+      <c r="C2546">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3">
+      <c r="A2547" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2547">
+        <v>50</v>
+      </c>
+      <c r="C2547">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3">
+      <c r="A2548" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2548">
+        <v>51</v>
+      </c>
+      <c r="C2548">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3">
+      <c r="A2549" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2549">
+        <v>52</v>
+      </c>
+      <c r="C2549">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3">
+      <c r="A2550" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2550">
+        <v>53</v>
+      </c>
+      <c r="C2550">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3">
+      <c r="A2551" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2551">
+        <v>54</v>
+      </c>
+      <c r="C2551">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3">
+      <c r="A2552" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2552">
+        <v>55</v>
+      </c>
+      <c r="C2552">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3">
+      <c r="A2553" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2553">
+        <v>56</v>
+      </c>
+      <c r="C2553">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3">
+      <c r="A2554" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2554">
+        <v>57</v>
+      </c>
+      <c r="C2554">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3">
+      <c r="A2555" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2555">
+        <v>58</v>
+      </c>
+      <c r="C2555">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3">
+      <c r="A2556" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2556">
+        <v>59</v>
+      </c>
+      <c r="C2556">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3">
+      <c r="A2557" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2557">
+        <v>60</v>
+      </c>
+      <c r="C2557">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3">
+      <c r="A2558" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2558">
+        <v>61</v>
+      </c>
+      <c r="C2558">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3">
+      <c r="A2559" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2559">
+        <v>62</v>
+      </c>
+      <c r="C2559">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3">
+      <c r="A2560" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2560">
+        <v>63</v>
+      </c>
+      <c r="C2560">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3">
+      <c r="A2561" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2561">
+        <v>64</v>
+      </c>
+      <c r="C2561">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3">
+      <c r="A2562" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2562">
+        <v>65</v>
+      </c>
+      <c r="C2562">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3">
+      <c r="A2563" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2563">
+        <v>66</v>
+      </c>
+      <c r="C2563">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3">
+      <c r="A2564" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2564">
+        <v>67</v>
+      </c>
+      <c r="C2564">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3">
+      <c r="A2565" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2565">
+        <v>68</v>
+      </c>
+      <c r="C2565">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3">
+      <c r="A2566" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2566">
+        <v>69</v>
+      </c>
+      <c r="C2566">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3">
+      <c r="A2567" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2567">
+        <v>70</v>
+      </c>
+      <c r="C2567">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3">
+      <c r="A2568" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2568">
+        <v>71</v>
+      </c>
+      <c r="C2568">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3">
+      <c r="A2569" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2569">
+        <v>72</v>
+      </c>
+      <c r="C2569">
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3">
+      <c r="A2570" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2570">
+        <v>73</v>
+      </c>
+      <c r="C2570">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3">
+      <c r="A2571" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2571">
+        <v>74</v>
+      </c>
+      <c r="C2571">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3">
+      <c r="A2572" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2572">
+        <v>75</v>
+      </c>
+      <c r="C2572">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3">
+      <c r="A2573" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2573">
+        <v>76</v>
+      </c>
+      <c r="C2573">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3">
+      <c r="A2574" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2574">
+        <v>77</v>
+      </c>
+      <c r="C2574">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3">
+      <c r="A2575" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2575">
+        <v>78</v>
+      </c>
+      <c r="C2575">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3">
+      <c r="A2576" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2576">
+        <v>79</v>
+      </c>
+      <c r="C2576">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3">
+      <c r="A2577" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2577">
+        <v>80</v>
+      </c>
+      <c r="C2577">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3">
+      <c r="A2578" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2578">
+        <v>81</v>
+      </c>
+      <c r="C2578">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3">
+      <c r="A2579" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2579">
+        <v>82</v>
+      </c>
+      <c r="C2579">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3">
+      <c r="A2580" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2580">
+        <v>83</v>
+      </c>
+      <c r="C2580">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3">
+      <c r="A2581" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2581">
+        <v>84</v>
+      </c>
+      <c r="C2581">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3">
+      <c r="A2582" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2582">
+        <v>85</v>
+      </c>
+      <c r="C2582">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3">
+      <c r="A2583" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2583">
+        <v>86</v>
+      </c>
+      <c r="C2583">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3">
+      <c r="A2584" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2584">
+        <v>87</v>
+      </c>
+      <c r="C2584">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3">
+      <c r="A2585" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2585">
+        <v>88</v>
+      </c>
+      <c r="C2585">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3">
+      <c r="A2586" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2586">
+        <v>89</v>
+      </c>
+      <c r="C2586">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3">
+      <c r="A2587" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2587">
+        <v>90</v>
+      </c>
+      <c r="C2587">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3">
+      <c r="A2588" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2588">
+        <v>91</v>
+      </c>
+      <c r="C2588">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3">
+      <c r="A2589" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2589">
+        <v>92</v>
+      </c>
+      <c r="C2589">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3">
+      <c r="A2590" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2590">
+        <v>93</v>
+      </c>
+      <c r="C2590">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3">
+      <c r="A2591" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2591">
+        <v>94</v>
+      </c>
+      <c r="C2591">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3">
+      <c r="A2592" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2592">
+        <v>95</v>
+      </c>
+      <c r="C2592">
+        <v>4641</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3">
+      <c r="A2593" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B2593">
+        <v>96</v>
+      </c>
+      <c r="C2593">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3">
+      <c r="A2594" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2594">
+        <v>1</v>
+      </c>
+      <c r="C2594">
+        <v>5532.8</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3">
+      <c r="A2595" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2595">
+        <v>2</v>
+      </c>
+      <c r="C2595">
+        <v>5472.8</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3">
+      <c r="A2596" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2596">
+        <v>3</v>
+      </c>
+      <c r="C2596">
+        <v>5422.8</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3">
+      <c r="A2597" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2597">
+        <v>4</v>
+      </c>
+      <c r="C2597">
+        <v>5352.8</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3">
+      <c r="A2598" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2598">
+        <v>5</v>
+      </c>
+      <c r="C2598">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3">
+      <c r="A2599" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2599">
+        <v>6</v>
+      </c>
+      <c r="C2599">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3">
+      <c r="A2600" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2600">
+        <v>7</v>
+      </c>
+      <c r="C2600">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3">
+      <c r="A2601" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2601">
+        <v>8</v>
+      </c>
+      <c r="C2601">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3">
+      <c r="A2602" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2602">
+        <v>9</v>
+      </c>
+      <c r="C2602">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3">
+      <c r="A2603" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2603">
+        <v>10</v>
+      </c>
+      <c r="C2603">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3">
+      <c r="A2604" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2604">
+        <v>11</v>
+      </c>
+      <c r="C2604">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3">
+      <c r="A2605" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2605">
+        <v>12</v>
+      </c>
+      <c r="C2605">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3">
+      <c r="A2606" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2606">
+        <v>13</v>
+      </c>
+      <c r="C2606">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:3">
+      <c r="A2607" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2607">
+        <v>14</v>
+      </c>
+      <c r="C2607">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:3">
+      <c r="A2608" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2608">
+        <v>15</v>
+      </c>
+      <c r="C2608">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:3">
+      <c r="A2609" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2609">
+        <v>16</v>
+      </c>
+      <c r="C2609">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:3">
+      <c r="A2610" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2610">
+        <v>17</v>
+      </c>
+      <c r="C2610">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:3">
+      <c r="A2611" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2611">
+        <v>18</v>
+      </c>
+      <c r="C2611">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:3">
+      <c r="A2612" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2612">
+        <v>19</v>
+      </c>
+      <c r="C2612">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:3">
+      <c r="A2613" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2613">
+        <v>20</v>
+      </c>
+      <c r="C2613">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:3">
+      <c r="A2614" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2614">
+        <v>21</v>
+      </c>
+      <c r="C2614">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:3">
+      <c r="A2615" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2615">
+        <v>22</v>
+      </c>
+      <c r="C2615">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:3">
+      <c r="A2616" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2616">
+        <v>23</v>
+      </c>
+      <c r="C2616">
+        <v>3851</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:3">
+      <c r="A2617" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2617">
+        <v>24</v>
+      </c>
+      <c r="C2617">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:3">
+      <c r="A2618" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2618">
+        <v>25</v>
+      </c>
+      <c r="C2618">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:3">
+      <c r="A2619" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2619">
+        <v>26</v>
+      </c>
+      <c r="C2619">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:3">
+      <c r="A2620" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2620">
+        <v>27</v>
+      </c>
+      <c r="C2620">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:3">
+      <c r="A2621" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2621">
+        <v>28</v>
+      </c>
+      <c r="C2621">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:3">
+      <c r="A2622" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2622">
+        <v>29</v>
+      </c>
+      <c r="C2622">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:3">
+      <c r="A2623" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2623">
+        <v>30</v>
+      </c>
+      <c r="C2623">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:3">
+      <c r="A2624" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2624">
+        <v>31</v>
+      </c>
+      <c r="C2624">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:3">
+      <c r="A2625" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2625">
+        <v>32</v>
+      </c>
+      <c r="C2625">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:3">
+      <c r="A2626" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2626">
+        <v>33</v>
+      </c>
+      <c r="C2626">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:3">
+      <c r="A2627" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2627">
+        <v>34</v>
+      </c>
+      <c r="C2627">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:3">
+      <c r="A2628" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2628">
+        <v>35</v>
+      </c>
+      <c r="C2628">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:3">
+      <c r="A2629" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2629">
+        <v>36</v>
+      </c>
+      <c r="C2629">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:3">
+      <c r="A2630" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2630">
+        <v>37</v>
+      </c>
+      <c r="C2630">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:3">
+      <c r="A2631" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2631">
+        <v>38</v>
+      </c>
+      <c r="C2631">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:3">
+      <c r="A2632" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2632">
+        <v>39</v>
+      </c>
+      <c r="C2632">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:3">
+      <c r="A2633" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2633">
+        <v>40</v>
+      </c>
+      <c r="C2633">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:3">
+      <c r="A2634" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2634">
+        <v>41</v>
+      </c>
+      <c r="C2634">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:3">
+      <c r="A2635" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2635">
+        <v>42</v>
+      </c>
+      <c r="C2635">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:3">
+      <c r="A2636" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2636">
+        <v>43</v>
+      </c>
+      <c r="C2636">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:3">
+      <c r="A2637" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2637">
+        <v>44</v>
+      </c>
+      <c r="C2637">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:3">
+      <c r="A2638" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2638">
+        <v>45</v>
+      </c>
+      <c r="C2638">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:3">
+      <c r="A2639" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2639">
+        <v>46</v>
+      </c>
+      <c r="C2639">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:3">
+      <c r="A2640" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2640">
+        <v>47</v>
+      </c>
+      <c r="C2640">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:3">
+      <c r="A2641" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2641">
+        <v>48</v>
+      </c>
+      <c r="C2641">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:3">
+      <c r="A2642" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2642">
+        <v>49</v>
+      </c>
+      <c r="C2642">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:3">
+      <c r="A2643" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2643">
+        <v>50</v>
+      </c>
+      <c r="C2643">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:3">
+      <c r="A2644" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2644">
+        <v>51</v>
+      </c>
+      <c r="C2644">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:3">
+      <c r="A2645" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2645">
+        <v>52</v>
+      </c>
+      <c r="C2645">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:3">
+      <c r="A2646" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2646">
+        <v>53</v>
+      </c>
+      <c r="C2646">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:3">
+      <c r="A2647" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2647">
+        <v>54</v>
+      </c>
+      <c r="C2647">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:3">
+      <c r="A2648" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2648">
+        <v>55</v>
+      </c>
+      <c r="C2648">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:3">
+      <c r="A2649" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2649">
+        <v>56</v>
+      </c>
+      <c r="C2649">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:3">
+      <c r="A2650" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2650">
+        <v>57</v>
+      </c>
+      <c r="C2650">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:3">
+      <c r="A2651" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2651">
+        <v>58</v>
+      </c>
+      <c r="C2651">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:3">
+      <c r="A2652" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2652">
+        <v>59</v>
+      </c>
+      <c r="C2652">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:3">
+      <c r="A2653" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2653">
+        <v>60</v>
+      </c>
+      <c r="C2653">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:3">
+      <c r="A2654" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2654">
+        <v>61</v>
+      </c>
+      <c r="C2654">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:3">
+      <c r="A2655" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2655">
+        <v>62</v>
+      </c>
+      <c r="C2655">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:3">
+      <c r="A2656" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2656">
+        <v>63</v>
+      </c>
+      <c r="C2656">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:3">
+      <c r="A2657" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2657">
+        <v>64</v>
+      </c>
+      <c r="C2657">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:3">
+      <c r="A2658" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2658">
+        <v>65</v>
+      </c>
+      <c r="C2658">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:3">
+      <c r="A2659" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2659">
+        <v>66</v>
+      </c>
+      <c r="C2659">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:3">
+      <c r="A2660" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2660">
+        <v>67</v>
+      </c>
+      <c r="C2660">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:3">
+      <c r="A2661" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2661">
+        <v>68</v>
+      </c>
+      <c r="C2661">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:3">
+      <c r="A2662" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2662">
+        <v>69</v>
+      </c>
+      <c r="C2662">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:3">
+      <c r="A2663" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2663">
+        <v>70</v>
+      </c>
+      <c r="C2663">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:3">
+      <c r="A2664" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2664">
+        <v>71</v>
+      </c>
+      <c r="C2664">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:3">
+      <c r="A2665" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2665">
+        <v>72</v>
+      </c>
+      <c r="C2665">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:3">
+      <c r="A2666" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2666">
+        <v>73</v>
+      </c>
+      <c r="C2666">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:3">
+      <c r="A2667" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2667">
+        <v>74</v>
+      </c>
+      <c r="C2667">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:3">
+      <c r="A2668" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2668">
+        <v>75</v>
+      </c>
+      <c r="C2668">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:3">
+      <c r="A2669" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2669">
+        <v>76</v>
+      </c>
+      <c r="C2669">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:3">
+      <c r="A2670" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2670">
+        <v>77</v>
+      </c>
+      <c r="C2670">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:3">
+      <c r="A2671" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2671">
+        <v>78</v>
+      </c>
+      <c r="C2671">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:3">
+      <c r="A2672" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2672">
+        <v>79</v>
+      </c>
+      <c r="C2672">
+        <v>4991</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:3">
+      <c r="A2673" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2673">
+        <v>80</v>
+      </c>
+      <c r="C2673">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:3">
+      <c r="A2674" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2674">
+        <v>81</v>
+      </c>
+      <c r="C2674">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:3">
+      <c r="A2675" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2675">
+        <v>82</v>
+      </c>
+      <c r="C2675">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:3">
+      <c r="A2676" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2676">
+        <v>83</v>
+      </c>
+      <c r="C2676">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:3">
+      <c r="A2677" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2677">
+        <v>84</v>
+      </c>
+      <c r="C2677">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:3">
+      <c r="A2678" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2678">
+        <v>85</v>
+      </c>
+      <c r="C2678">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:3">
+      <c r="A2679" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2679">
+        <v>86</v>
+      </c>
+      <c r="C2679">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:3">
+      <c r="A2680" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2680">
+        <v>87</v>
+      </c>
+      <c r="C2680">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:3">
+      <c r="A2681" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2681">
+        <v>88</v>
+      </c>
+      <c r="C2681">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:3">
+      <c r="A2682" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2682">
+        <v>89</v>
+      </c>
+      <c r="C2682">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:3">
+      <c r="A2683" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2683">
+        <v>90</v>
+      </c>
+      <c r="C2683">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:3">
+      <c r="A2684" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2684">
+        <v>91</v>
+      </c>
+      <c r="C2684">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:3">
+      <c r="A2685" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2685">
+        <v>92</v>
+      </c>
+      <c r="C2685">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:3">
+      <c r="A2686" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2686">
+        <v>93</v>
+      </c>
+      <c r="C2686">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:3">
+      <c r="A2687" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2687">
+        <v>94</v>
+      </c>
+      <c r="C2687">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:3">
+      <c r="A2688" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2688">
+        <v>95</v>
+      </c>
+      <c r="C2688">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:3">
+      <c r="A2689" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B2689">
+        <v>96</v>
+      </c>
+      <c r="C2689">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:3">
+      <c r="A2690" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2690">
+        <v>1</v>
+      </c>
+      <c r="C2690">
+        <v>5372.8</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:3">
+      <c r="A2691" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2691">
+        <v>2</v>
+      </c>
+      <c r="C2691">
+        <v>5322.8</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:3">
+      <c r="A2692" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2692">
+        <v>3</v>
+      </c>
+      <c r="C2692">
+        <v>5272.8</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:3">
+      <c r="A2693" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2693">
+        <v>4</v>
+      </c>
+      <c r="C2693">
+        <v>5222.8</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:3">
+      <c r="A2694" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2694">
+        <v>5</v>
+      </c>
+      <c r="C2694">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:3">
+      <c r="A2695" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2695">
+        <v>6</v>
+      </c>
+      <c r="C2695">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:3">
+      <c r="A2696" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2696">
+        <v>7</v>
+      </c>
+      <c r="C2696">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:3">
+      <c r="A2697" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2697">
+        <v>8</v>
+      </c>
+      <c r="C2697">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:3">
+      <c r="A2698" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2698">
+        <v>9</v>
+      </c>
+      <c r="C2698">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:3">
+      <c r="A2699" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2699">
+        <v>10</v>
+      </c>
+      <c r="C2699">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:3">
+      <c r="A2700" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2700">
+        <v>11</v>
+      </c>
+      <c r="C2700">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:3">
+      <c r="A2701" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2701">
+        <v>12</v>
+      </c>
+      <c r="C2701">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:3">
+      <c r="A2702" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2702">
+        <v>13</v>
+      </c>
+      <c r="C2702">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:3">
+      <c r="A2703" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2703">
+        <v>14</v>
+      </c>
+      <c r="C2703">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:3">
+      <c r="A2704" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2704">
+        <v>15</v>
+      </c>
+      <c r="C2704">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:3">
+      <c r="A2705" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2705">
+        <v>16</v>
+      </c>
+      <c r="C2705">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:3">
+      <c r="A2706" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2706">
+        <v>17</v>
+      </c>
+      <c r="C2706">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:3">
+      <c r="A2707" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2707">
+        <v>18</v>
+      </c>
+      <c r="C2707">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:3">
+      <c r="A2708" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2708">
+        <v>19</v>
+      </c>
+      <c r="C2708">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:3">
+      <c r="A2709" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2709">
+        <v>20</v>
+      </c>
+      <c r="C2709">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:3">
+      <c r="A2710" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2710">
+        <v>21</v>
+      </c>
+      <c r="C2710">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:3">
+      <c r="A2711" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2711">
+        <v>22</v>
+      </c>
+      <c r="C2711">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:3">
+      <c r="A2712" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2712">
+        <v>23</v>
+      </c>
+      <c r="C2712">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:3">
+      <c r="A2713" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2713">
+        <v>24</v>
+      </c>
+      <c r="C2713">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:3">
+      <c r="A2714" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2714">
+        <v>25</v>
+      </c>
+      <c r="C2714">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:3">
+      <c r="A2715" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2715">
+        <v>26</v>
+      </c>
+      <c r="C2715">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:3">
+      <c r="A2716" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2716">
+        <v>27</v>
+      </c>
+      <c r="C2716">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:3">
+      <c r="A2717" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2717">
+        <v>28</v>
+      </c>
+      <c r="C2717">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:3">
+      <c r="A2718" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2718">
+        <v>29</v>
+      </c>
+      <c r="C2718">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:3">
+      <c r="A2719" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2719">
+        <v>30</v>
+      </c>
+      <c r="C2719">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:3">
+      <c r="A2720" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2720">
+        <v>31</v>
+      </c>
+      <c r="C2720">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:3">
+      <c r="A2721" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2721">
+        <v>32</v>
+      </c>
+      <c r="C2721">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:3">
+      <c r="A2722" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2722">
+        <v>33</v>
+      </c>
+      <c r="C2722">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:3">
+      <c r="A2723" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2723">
+        <v>34</v>
+      </c>
+      <c r="C2723">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:3">
+      <c r="A2724" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2724">
+        <v>35</v>
+      </c>
+      <c r="C2724">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:3">
+      <c r="A2725" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2725">
+        <v>36</v>
+      </c>
+      <c r="C2725">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:3">
+      <c r="A2726" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2726">
+        <v>37</v>
+      </c>
+      <c r="C2726">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:3">
+      <c r="A2727" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2727">
+        <v>38</v>
+      </c>
+      <c r="C2727">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:3">
+      <c r="A2728" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2728">
+        <v>39</v>
+      </c>
+      <c r="C2728">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:3">
+      <c r="A2729" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2729">
+        <v>40</v>
+      </c>
+      <c r="C2729">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:3">
+      <c r="A2730" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2730">
+        <v>41</v>
+      </c>
+      <c r="C2730">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:3">
+      <c r="A2731" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2731">
+        <v>42</v>
+      </c>
+      <c r="C2731">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:3">
+      <c r="A2732" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2732">
+        <v>43</v>
+      </c>
+      <c r="C2732">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:3">
+      <c r="A2733" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2733">
+        <v>44</v>
+      </c>
+      <c r="C2733">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:3">
+      <c r="A2734" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2734">
+        <v>45</v>
+      </c>
+      <c r="C2734">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:3">
+      <c r="A2735" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2735">
+        <v>46</v>
+      </c>
+      <c r="C2735">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:3">
+      <c r="A2736" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2736">
+        <v>47</v>
+      </c>
+      <c r="C2736">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:3">
+      <c r="A2737" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2737">
+        <v>48</v>
+      </c>
+      <c r="C2737">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:3">
+      <c r="A2738" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2738">
+        <v>49</v>
+      </c>
+      <c r="C2738">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:3">
+      <c r="A2739" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2739">
+        <v>50</v>
+      </c>
+      <c r="C2739">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:3">
+      <c r="A2740" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2740">
+        <v>51</v>
+      </c>
+      <c r="C2740">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:3">
+      <c r="A2741" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2741">
+        <v>52</v>
+      </c>
+      <c r="C2741">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:3">
+      <c r="A2742" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2742">
+        <v>53</v>
+      </c>
+      <c r="C2742">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:3">
+      <c r="A2743" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2743">
+        <v>54</v>
+      </c>
+      <c r="C2743">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:3">
+      <c r="A2744" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2744">
+        <v>55</v>
+      </c>
+      <c r="C2744">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:3">
+      <c r="A2745" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2745">
+        <v>56</v>
+      </c>
+      <c r="C2745">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:3">
+      <c r="A2746" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2746">
+        <v>57</v>
+      </c>
+      <c r="C2746">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:3">
+      <c r="A2747" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2747">
+        <v>58</v>
+      </c>
+      <c r="C2747">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:3">
+      <c r="A2748" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2748">
+        <v>59</v>
+      </c>
+      <c r="C2748">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:3">
+      <c r="A2749" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2749">
+        <v>60</v>
+      </c>
+      <c r="C2749">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:3">
+      <c r="A2750" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2750">
+        <v>61</v>
+      </c>
+      <c r="C2750">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:3">
+      <c r="A2751" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2751">
+        <v>62</v>
+      </c>
+      <c r="C2751">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:3">
+      <c r="A2752" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2752">
+        <v>63</v>
+      </c>
+      <c r="C2752">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:3">
+      <c r="A2753" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2753">
+        <v>64</v>
+      </c>
+      <c r="C2753">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:3">
+      <c r="A2754" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2754">
+        <v>65</v>
+      </c>
+      <c r="C2754">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:3">
+      <c r="A2755" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2755">
+        <v>66</v>
+      </c>
+      <c r="C2755">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:3">
+      <c r="A2756" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2756">
+        <v>67</v>
+      </c>
+      <c r="C2756">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:3">
+      <c r="A2757" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2757">
+        <v>68</v>
+      </c>
+      <c r="C2757">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:3">
+      <c r="A2758" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2758">
+        <v>69</v>
+      </c>
+      <c r="C2758">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:3">
+      <c r="A2759" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2759">
+        <v>70</v>
+      </c>
+      <c r="C2759">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:3">
+      <c r="A2760" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2760">
+        <v>71</v>
+      </c>
+      <c r="C2760">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:3">
+      <c r="A2761" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2761">
+        <v>72</v>
+      </c>
+      <c r="C2761">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:3">
+      <c r="A2762" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2762">
+        <v>73</v>
+      </c>
+      <c r="C2762">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:3">
+      <c r="A2763" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2763">
+        <v>74</v>
+      </c>
+      <c r="C2763">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:3">
+      <c r="A2764" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2764">
+        <v>75</v>
+      </c>
+      <c r="C2764">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:3">
+      <c r="A2765" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2765">
+        <v>76</v>
+      </c>
+      <c r="C2765">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:3">
+      <c r="A2766" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2766">
+        <v>77</v>
+      </c>
+      <c r="C2766">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:3">
+      <c r="A2767" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2767">
+        <v>78</v>
+      </c>
+      <c r="C2767">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:3">
+      <c r="A2768" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2768">
+        <v>79</v>
+      </c>
+      <c r="C2768">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:3">
+      <c r="A2769" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2769">
+        <v>80</v>
+      </c>
+      <c r="C2769">
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:3">
+      <c r="A2770" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2770">
+        <v>81</v>
+      </c>
+      <c r="C2770">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:3">
+      <c r="A2771" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2771">
+        <v>82</v>
+      </c>
+      <c r="C2771">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:3">
+      <c r="A2772" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2772">
+        <v>83</v>
+      </c>
+      <c r="C2772">
+        <v>6630</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:3">
+      <c r="A2773" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2773">
+        <v>84</v>
+      </c>
+      <c r="C2773">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:3">
+      <c r="A2774" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2774">
+        <v>85</v>
+      </c>
+      <c r="C2774">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:3">
+      <c r="A2775" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2775">
+        <v>86</v>
+      </c>
+      <c r="C2775">
+        <v>6551</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:3">
+      <c r="A2776" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2776">
+        <v>87</v>
+      </c>
+      <c r="C2776">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:3">
+      <c r="A2777" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2777">
+        <v>88</v>
+      </c>
+      <c r="C2777">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:3">
+      <c r="A2778" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2778">
+        <v>89</v>
+      </c>
+      <c r="C2778">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:3">
+      <c r="A2779" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2779">
+        <v>90</v>
+      </c>
+      <c r="C2779">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:3">
+      <c r="A2780" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2780">
+        <v>91</v>
+      </c>
+      <c r="C2780">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:3">
+      <c r="A2781" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2781">
+        <v>92</v>
+      </c>
+      <c r="C2781">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:3">
+      <c r="A2782" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2782">
+        <v>93</v>
+      </c>
+      <c r="C2782">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:3">
+      <c r="A2783" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2783">
+        <v>94</v>
+      </c>
+      <c r="C2783">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:3">
+      <c r="A2784" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2784">
+        <v>95</v>
+      </c>
+      <c r="C2784">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:3">
+      <c r="A2785" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B2785">
+        <v>96</v>
+      </c>
+      <c r="C2785">
         <v>4931</v>
       </c>
     </row>
